--- a/real_estimatesNB.xlsx
+++ b/real_estimatesNB.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G383"/>
+  <dimension ref="A1:G363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.4868711</v>
+        <v>0.488103</v>
       </c>
       <c r="C2">
-        <v>0.1979369</v>
+        <v>0.1984001</v>
       </c>
       <c r="D2">
-        <v>0.1672249</v>
+        <v>0.1674323</v>
       </c>
       <c r="E2">
-        <v>0.8176295</v>
+        <v>0.8188744999999999</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -425,16 +425,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.6079272999999999</v>
+        <v>0.6075748</v>
       </c>
       <c r="C3">
-        <v>0.2835532</v>
+        <v>0.2832705</v>
       </c>
       <c r="D3">
-        <v>0.1308925</v>
+        <v>0.1310732</v>
       </c>
       <c r="E3">
-        <v>0.9410500000000001</v>
+        <v>0.9407972999999999</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -449,16 +449,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.5614855</v>
+        <v>0.5618598</v>
       </c>
       <c r="C4">
-        <v>0.2160515</v>
+        <v>0.2174368</v>
       </c>
       <c r="D4">
-        <v>0.186539</v>
+        <v>0.1850517</v>
       </c>
       <c r="E4">
-        <v>0.8772933000000001</v>
+        <v>0.8786723</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.7693648</v>
+        <v>0.7727416</v>
       </c>
       <c r="C5">
-        <v>0.1269062</v>
+        <v>0.1239345</v>
       </c>
       <c r="D5">
-        <v>0.4508949</v>
+        <v>0.4602412</v>
       </c>
       <c r="E5">
-        <v>0.9312795</v>
+        <v>0.9313162</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.7572557</v>
+        <v>0.7602346</v>
       </c>
       <c r="C6">
-        <v>0.118551</v>
+        <v>0.117076</v>
       </c>
       <c r="D6">
-        <v>0.4684485</v>
+        <v>0.4737916</v>
       </c>
       <c r="E6">
-        <v>0.9169613</v>
+        <v>0.9178029</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -521,16 +521,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.9554334</v>
+        <v>0.95478</v>
       </c>
       <c r="C7">
-        <v>0.0632141</v>
+        <v>0.0621864</v>
       </c>
       <c r="D7">
-        <v>0.5387723</v>
+        <v>0.5564823</v>
       </c>
       <c r="E7">
-        <v>0.9974648</v>
+        <v>0.9971934</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.7100935</v>
+        <v>0.7154696</v>
       </c>
       <c r="C8">
-        <v>0.1363449</v>
+        <v>0.1336487</v>
       </c>
       <c r="D8">
-        <v>0.4007594</v>
+        <v>0.4098293</v>
       </c>
       <c r="E8">
-        <v>0.8997075</v>
+        <v>0.9010431</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.7955944</v>
+        <v>0.7953199</v>
       </c>
       <c r="C9">
-        <v>0.1287069</v>
+        <v>0.1273213</v>
       </c>
       <c r="D9">
-        <v>0.4520882</v>
+        <v>0.456189</v>
       </c>
       <c r="E9">
-        <v>0.9483485</v>
+        <v>0.9473642</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.7639354</v>
+        <v>0.7667431</v>
       </c>
       <c r="C10">
-        <v>0.0983386</v>
+        <v>0.09718259999999999</v>
       </c>
       <c r="D10">
-        <v>0.5263721</v>
+        <v>0.5312057</v>
       </c>
       <c r="E10">
-        <v>0.9040596</v>
+        <v>0.9050840999999999</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -617,16 +617,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.8413684</v>
+        <v>0.8428318</v>
       </c>
       <c r="C11">
-        <v>0.0731653</v>
+        <v>0.0705591</v>
       </c>
       <c r="D11">
-        <v>0.6442818</v>
+        <v>0.6537228</v>
       </c>
       <c r="E11">
-        <v>0.9395107</v>
+        <v>0.9383967</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.9122735</v>
+        <v>0.9125614</v>
       </c>
       <c r="C12">
-        <v>0.06439739999999999</v>
+        <v>0.0635652</v>
       </c>
       <c r="D12">
-        <v>0.6823477999999999</v>
+        <v>0.6865270999999999</v>
       </c>
       <c r="E12">
-        <v>0.9805229</v>
+        <v>0.9802896</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.7583912</v>
+        <v>0.7605703</v>
       </c>
       <c r="C13">
-        <v>0.1049435</v>
+        <v>0.1046645</v>
       </c>
       <c r="D13">
-        <v>0.5053323</v>
+        <v>0.5073221</v>
       </c>
       <c r="E13">
-        <v>0.9060583</v>
+        <v>0.9074028</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.8135738</v>
+        <v>0.8153603</v>
       </c>
       <c r="C14">
-        <v>0.09277000000000001</v>
+        <v>0.0899307</v>
       </c>
       <c r="D14">
-        <v>0.5682135</v>
+        <v>0.5779602</v>
       </c>
       <c r="E14">
-        <v>0.9353684</v>
+        <v>0.9343823999999999</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -713,16 +713,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.8885807</v>
+        <v>0.8896646</v>
       </c>
       <c r="C15">
-        <v>0.0602332</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.7076278</v>
+        <v>0.8896646</v>
       </c>
       <c r="E15">
-        <v>0.9633414</v>
+        <v>0.8896646</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.8633861</v>
+        <v>0.864295</v>
       </c>
       <c r="C16">
-        <v>0.0685992</v>
+        <v>0.0667442</v>
       </c>
       <c r="D16">
-        <v>0.6690256999999999</v>
+        <v>0.676138</v>
       </c>
       <c r="E16">
-        <v>0.9518288</v>
+        <v>0.9510507</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -761,16 +761,16 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.7843518</v>
+        <v>0.7857028</v>
       </c>
       <c r="C17">
-        <v>0.0933962</v>
+        <v>0.0911212</v>
       </c>
       <c r="D17">
-        <v>0.55205</v>
+        <v>0.5593428</v>
       </c>
       <c r="E17">
-        <v>0.9147811</v>
+        <v>0.9137206</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.8641567999999999</v>
+        <v>0.8648678</v>
       </c>
       <c r="C18">
-        <v>0.076487</v>
+        <v>0.0753475</v>
       </c>
       <c r="D18">
-        <v>0.6394983</v>
+        <v>0.6439852</v>
       </c>
       <c r="E18">
-        <v>0.9580057</v>
+        <v>0.9577078999999999</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.8291488</v>
+        <v>0.8292913</v>
       </c>
       <c r="C19">
-        <v>0.1036705</v>
+        <v>0.1019118</v>
       </c>
       <c r="D19">
-        <v>0.5362458</v>
+        <v>0.5423094000000001</v>
       </c>
       <c r="E19">
-        <v>0.9532015</v>
+        <v>0.9521924</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.8102327</v>
+        <v>0.8087216</v>
       </c>
       <c r="C20">
-        <v>0.1169847</v>
+        <v>0.1140851</v>
       </c>
       <c r="D20">
-        <v>0.4900663</v>
+        <v>0.4990545</v>
       </c>
       <c r="E20">
-        <v>0.9499214</v>
+        <v>0.9472116</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -857,16 +857,16 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.4713307</v>
+        <v>0.4762121</v>
       </c>
       <c r="C21">
-        <v>0.1605936</v>
+        <v>0.158314</v>
       </c>
       <c r="D21">
-        <v>0.2013289</v>
+        <v>0.2076382</v>
       </c>
       <c r="E21">
-        <v>0.7592192</v>
+        <v>0.7592869</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.8943747</v>
+        <v>0.8889121</v>
       </c>
       <c r="C22">
-        <v>0.1342485</v>
+        <v>0.13371</v>
       </c>
       <c r="D22">
-        <v>0.3431896</v>
+        <v>0.3602488</v>
       </c>
       <c r="E22">
-        <v>0.992765</v>
+        <v>0.9912822</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -905,16 +905,16 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.0450826</v>
+        <v>0.0460079</v>
       </c>
       <c r="C23">
-        <v>0.0461969</v>
+        <v>0.046738</v>
       </c>
       <c r="D23">
-        <v>0.0057294</v>
+        <v>0.0059466</v>
       </c>
       <c r="E23">
-        <v>0.2789122</v>
+        <v>0.2799489</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.2067618</v>
+        <v>0.2040595</v>
       </c>
       <c r="C24">
-        <v>0.1348442</v>
+        <v>0.1340191</v>
       </c>
       <c r="D24">
-        <v>0.0494538</v>
+        <v>0.0484116</v>
       </c>
       <c r="E24">
-        <v>0.5663281</v>
+        <v>0.563694</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -953,16 +953,16 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.4044346</v>
+        <v>0.404688</v>
       </c>
       <c r="C25">
-        <v>0.1532843</v>
+        <v>0.1533139</v>
       </c>
       <c r="D25">
-        <v>0.1632372</v>
+        <v>0.1633824</v>
       </c>
       <c r="E25">
-        <v>0.702722</v>
+        <v>0.7029396</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.3883966</v>
+        <v>0.3879684</v>
       </c>
       <c r="C26">
-        <v>0.1360993</v>
+        <v>0.1362695</v>
       </c>
       <c r="D26">
-        <v>0.1712175</v>
+        <v>0.1706986</v>
       </c>
       <c r="E26">
-        <v>0.6612589</v>
+        <v>0.6612711999999999</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1001,16 +1001,16 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.8135784</v>
+        <v>0.8084723</v>
       </c>
       <c r="C27">
-        <v>0.2294807</v>
+        <v>0.2276716</v>
       </c>
       <c r="D27">
-        <v>0.1836027</v>
+        <v>0.1912799</v>
       </c>
       <c r="E27">
-        <v>0.9883299</v>
+        <v>0.9868998</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1025,16 +1025,16 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.3327194</v>
+        <v>0.3345388</v>
       </c>
       <c r="C28">
-        <v>0.1252404</v>
+        <v>0.1259921</v>
       </c>
       <c r="D28">
-        <v>0.1416623</v>
+        <v>0.1422192</v>
       </c>
       <c r="E28">
-        <v>0.601023</v>
+        <v>0.6038480000000001</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1049,16 +1049,16 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.4420698</v>
+        <v>0.4372008</v>
       </c>
       <c r="C29">
-        <v>0.1821215</v>
+        <v>0.1807351</v>
       </c>
       <c r="D29">
-        <v>0.1570921</v>
+        <v>0.1554861</v>
       </c>
       <c r="E29">
-        <v>0.7710931</v>
+        <v>0.7662299</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1073,16 +1073,16 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.3971458</v>
+        <v>0.3965609</v>
       </c>
       <c r="C30">
-        <v>0.099094</v>
+        <v>0.0989622</v>
       </c>
       <c r="D30">
-        <v>0.2264272</v>
+        <v>0.2261168</v>
       </c>
       <c r="E30">
-        <v>0.5972098</v>
+        <v>0.5964604999999999</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1097,16 +1097,16 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.5191646</v>
+        <v>0.5173991</v>
       </c>
       <c r="C31">
-        <v>0.113422</v>
+        <v>0.1128497</v>
       </c>
       <c r="D31">
-        <v>0.3070726</v>
+        <v>0.3065731</v>
       </c>
       <c r="E31">
-        <v>0.7245676</v>
+        <v>0.7222075999999999</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1121,16 +1121,16 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.6791714</v>
+        <v>0.6760093</v>
       </c>
       <c r="C32">
-        <v>0.1688241</v>
+        <v>0.1683155</v>
       </c>
       <c r="D32">
-        <v>0.3167788</v>
+        <v>0.3163168</v>
       </c>
       <c r="E32">
-        <v>0.9062384999999999</v>
+        <v>0.9039352</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1145,16 +1145,16 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.3898674</v>
+        <v>0.388406</v>
       </c>
       <c r="C33">
-        <v>0.1207262</v>
+        <v>0.1201947</v>
       </c>
       <c r="D33">
-        <v>0.1911391</v>
+        <v>0.1906573</v>
       </c>
       <c r="E33">
-        <v>0.6334128999999999</v>
+        <v>0.6312794</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1169,16 +1169,16 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.4704475</v>
+        <v>0.4688895</v>
       </c>
       <c r="C34">
-        <v>0.123653</v>
+        <v>0.1229792</v>
       </c>
       <c r="D34">
-        <v>0.251395</v>
+        <v>0.2511464</v>
       </c>
       <c r="E34">
-        <v>0.7015082</v>
+        <v>0.69916</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.6188278</v>
+        <v>0.6171559</v>
       </c>
       <c r="C35">
-        <v>0.1341904</v>
+        <v>0.1335866</v>
       </c>
       <c r="D35">
-        <v>0.3474076</v>
+        <v>0.3473597</v>
       </c>
       <c r="E35">
-        <v>0.8319632</v>
+        <v>0.8300036</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1217,16 +1217,16 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.5626574</v>
+        <v>0.5601089</v>
       </c>
       <c r="C36">
-        <v>0.1274465</v>
+        <v>0.1265938</v>
       </c>
       <c r="D36">
-        <v>0.3179589</v>
+        <v>0.3174651</v>
       </c>
       <c r="E36">
-        <v>0.7802417</v>
+        <v>0.7770667999999999</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.4254254</v>
+        <v>0.4229654</v>
       </c>
       <c r="C37">
-        <v>0.1108078</v>
+        <v>0.1104052</v>
       </c>
       <c r="D37">
-        <v>0.233431</v>
+        <v>0.2319675</v>
       </c>
       <c r="E37">
-        <v>0.6428964</v>
+        <v>0.6401491</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.5642685</v>
+        <v>0.5613139</v>
       </c>
       <c r="C38">
-        <v>0.1567138</v>
+        <v>0.1557941</v>
       </c>
       <c r="D38">
-        <v>0.2707595</v>
+        <v>0.2702061</v>
       </c>
       <c r="E38">
-        <v>0.8187321</v>
+        <v>0.8155629</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1289,16 +1289,16 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.4969644</v>
+        <v>0.492697</v>
       </c>
       <c r="C39">
-        <v>0.1656517</v>
+        <v>0.1636293</v>
       </c>
       <c r="D39">
-        <v>0.2123363</v>
+        <v>0.2120954</v>
       </c>
       <c r="E39">
-        <v>0.7835737</v>
+        <v>0.7779765</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1313,16 +1313,16 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.4650007</v>
+        <v>0.4580732</v>
       </c>
       <c r="C40">
-        <v>0.1819101</v>
+        <v>0.1789879</v>
       </c>
       <c r="D40">
-        <v>0.1717288</v>
+        <v>0.1706109</v>
       </c>
       <c r="E40">
-        <v>0.7846495999999999</v>
+        <v>0.7764504</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1337,16 +1337,16 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.1536114</v>
+        <v>0.1538068</v>
       </c>
       <c r="C41">
-        <v>0.0750184</v>
+        <v>0.0752347</v>
       </c>
       <c r="D41">
-        <v>0.0553327</v>
+        <v>0.0553025</v>
       </c>
       <c r="E41">
-        <v>0.3599373</v>
+        <v>0.3607633</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1361,16 +1361,16 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.6328534</v>
+        <v>0.6153483</v>
       </c>
       <c r="C42">
-        <v>0.3331935</v>
+        <v>0.323053</v>
       </c>
       <c r="D42">
-        <v>0.0939618</v>
+        <v>0.0992794</v>
       </c>
       <c r="E42">
-        <v>0.966273</v>
+        <v>0.9587096000000001</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1385,16 +1385,16 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.0095192</v>
+        <v>0.009549500000000001</v>
       </c>
       <c r="C43">
-        <v>0.0099013</v>
+        <v>0.009934800000000001</v>
       </c>
       <c r="D43">
-        <v>0.0012255</v>
+        <v>0.0012289</v>
       </c>
       <c r="E43">
-        <v>0.070005</v>
+        <v>0.0702455</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1409,16 +1409,16 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.9665096</v>
+        <v>0.9697879</v>
       </c>
       <c r="C44">
-        <v>0.1051655</v>
+        <v>0.1057543</v>
       </c>
       <c r="D44">
-        <v>0.0471747</v>
+        <v>0.0264502</v>
       </c>
       <c r="E44">
-        <v>0.9999406</v>
+        <v>0.9999736</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1433,16 +1433,16 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.8853434</v>
+        <v>0.8861005</v>
       </c>
       <c r="C45">
-        <v>0.1209085</v>
+        <v>0.1213485</v>
       </c>
       <c r="D45">
-        <v>0.4278789</v>
+        <v>0.4243148</v>
       </c>
       <c r="E45">
-        <v>0.9876122000000001</v>
+        <v>0.9879684</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1457,16 +1457,16 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.8142725</v>
+        <v>0.7812451</v>
       </c>
       <c r="C46">
-        <v>0.09361709999999999</v>
+        <v>0.1020278</v>
       </c>
       <c r="D46">
-        <v>0.5657969</v>
+        <v>0.5256821</v>
       </c>
       <c r="E46">
-        <v>0.9365116999999999</v>
+        <v>0.9200521</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1481,16 +1481,16 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.9659624</v>
+        <v>0.9634903</v>
       </c>
       <c r="C47">
-        <v>0.0677103</v>
+        <v>0.07977629999999999</v>
       </c>
       <c r="D47">
-        <v>0.3338736</v>
+        <v>0.236486</v>
       </c>
       <c r="E47">
-        <v>0.9993781</v>
+        <v>0.9995555</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1505,16 +1505,16 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.8029423999999999</v>
+        <v>0.7919931</v>
       </c>
       <c r="C48">
-        <v>0.0940275</v>
+        <v>0.1014672</v>
       </c>
       <c r="D48">
-        <v>0.5597224</v>
+        <v>0.5323977</v>
       </c>
       <c r="E48">
-        <v>0.9288752</v>
+        <v>0.9271822</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1529,16 +1529,16 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.9038961</v>
+        <v>0.8848201999999999</v>
       </c>
       <c r="C49">
-        <v>0.0756367</v>
+        <v>0.0860248</v>
       </c>
       <c r="D49">
-        <v>0.6305775</v>
+        <v>0.5949485</v>
       </c>
       <c r="E49">
-        <v>0.9810696</v>
+        <v>0.9757152</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1553,16 +1553,16 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.873023</v>
+        <v>0.8573885</v>
       </c>
       <c r="C50">
-        <v>0.0631128</v>
+        <v>0.07014869999999999</v>
       </c>
       <c r="D50">
-        <v>0.6925487</v>
+        <v>0.6613483999999999</v>
       </c>
       <c r="E50">
-        <v>0.9545162</v>
+        <v>0.9487401</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1577,16 +1577,16 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.8777831</v>
+        <v>0.8682052</v>
       </c>
       <c r="C51">
-        <v>0.0710653</v>
+        <v>0.0817582</v>
       </c>
       <c r="D51">
-        <v>0.6622285999999999</v>
+        <v>0.6188654</v>
       </c>
       <c r="E51">
-        <v>0.9633838</v>
+        <v>0.9639325</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1601,16 +1601,16 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.8670204</v>
+        <v>0.8455992</v>
       </c>
       <c r="C52">
-        <v>0.06728489999999999</v>
+        <v>0.07401290000000001</v>
       </c>
       <c r="D52">
-        <v>0.675034</v>
+        <v>0.6432283</v>
       </c>
       <c r="E52">
-        <v>0.9534115</v>
+        <v>0.9432986</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1625,16 +1625,16 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.9372721000000001</v>
+        <v>0.9300787</v>
       </c>
       <c r="C53">
-        <v>0.0459207</v>
+        <v>0.0487977</v>
       </c>
       <c r="D53">
-        <v>0.7637407000000001</v>
+        <v>0.7534676</v>
       </c>
       <c r="E53">
-        <v>0.9857274</v>
+        <v>0.9830202</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1649,16 +1649,16 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.7998995</v>
+        <v>0.7898101</v>
       </c>
       <c r="C54">
-        <v>0.058277</v>
+        <v>0.0595566</v>
       </c>
       <c r="D54">
-        <v>0.6619602999999999</v>
+        <v>0.6503607</v>
       </c>
       <c r="E54">
-        <v>0.8908343</v>
+        <v>0.8835963999999999</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1673,16 +1673,16 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.9538956</v>
+        <v>0.9499069</v>
       </c>
       <c r="C55">
-        <v>0.037714</v>
+        <v>0.0399224</v>
       </c>
       <c r="D55">
-        <v>0.7939414</v>
+        <v>0.7855078</v>
       </c>
       <c r="E55">
-        <v>0.9910795</v>
+        <v>0.9899183</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1697,16 +1697,16 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.885611</v>
+        <v>0.8834408</v>
       </c>
       <c r="C56">
-        <v>0.0536637</v>
+        <v>0.0542997</v>
       </c>
       <c r="D56">
-        <v>0.7327079</v>
+        <v>0.7294592</v>
       </c>
       <c r="E56">
-        <v>0.9562673</v>
+        <v>0.9551682</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.8488532</v>
+        <v>0.8484083</v>
       </c>
       <c r="C57">
-        <v>0.0601062</v>
+        <v>0.0603986</v>
       </c>
       <c r="D57">
-        <v>0.6915596000000001</v>
+        <v>0.6903415000000001</v>
       </c>
       <c r="E57">
-        <v>0.9336309</v>
+        <v>0.933555</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.9347706</v>
+        <v>0.9327677</v>
       </c>
       <c r="C58">
-        <v>0.0531707</v>
+        <v>0.0539261</v>
       </c>
       <c r="D58">
-        <v>0.7217668</v>
+        <v>0.7200280999999999</v>
       </c>
       <c r="E58">
-        <v>0.9875258</v>
+        <v>0.986815</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1769,16 +1769,16 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.8228031</v>
+        <v>0.8219594</v>
       </c>
       <c r="C59">
-        <v>0.0608667</v>
+        <v>0.0613707</v>
       </c>
       <c r="D59">
-        <v>0.6719921</v>
+        <v>0.6698982999999999</v>
       </c>
       <c r="E59">
-        <v>0.913228</v>
+        <v>0.913064</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1793,16 +1793,16 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.8171799</v>
+        <v>0.8177809</v>
       </c>
       <c r="C60">
-        <v>0.0636456</v>
+        <v>0.0640906</v>
       </c>
       <c r="D60">
-        <v>0.6597912</v>
+        <v>0.658901</v>
       </c>
       <c r="E60">
-        <v>0.911521</v>
+        <v>0.9124856</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.7959355</v>
+        <v>0.7881505</v>
       </c>
       <c r="C61">
-        <v>0.0735237</v>
+        <v>0.07473050000000001</v>
       </c>
       <c r="D61">
-        <v>0.6162942</v>
+        <v>0.6074427</v>
       </c>
       <c r="E61">
-        <v>0.9045051</v>
+        <v>0.899443</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.759199</v>
+        <v>0.7593255</v>
       </c>
       <c r="C62">
-        <v>0.0784482</v>
+        <v>0.07855239999999999</v>
       </c>
       <c r="D62">
-        <v>0.5762106</v>
+        <v>0.5760331</v>
       </c>
       <c r="E62">
-        <v>0.8796744</v>
+        <v>0.8798975999999999</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1865,16 +1865,16 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.8678466</v>
+        <v>0.8677977</v>
       </c>
       <c r="C63">
-        <v>0.0663342</v>
+        <v>0.06646100000000001</v>
       </c>
       <c r="D63">
-        <v>0.6788341</v>
+        <v>0.6783464</v>
       </c>
       <c r="E63">
-        <v>0.9532777</v>
+        <v>0.9533392000000001</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1889,16 +1889,16 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.8867024999999999</v>
+        <v>0.8853965</v>
       </c>
       <c r="C64">
-        <v>0.1205138</v>
+        <v>0.119981</v>
       </c>
       <c r="D64">
-        <v>0.4270898</v>
+        <v>0.4321677</v>
       </c>
       <c r="E64">
-        <v>0.9879756</v>
+        <v>0.9874093</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1913,16 +1913,16 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.3543548</v>
+        <v>0.3525003</v>
       </c>
       <c r="C65">
-        <v>0.080557</v>
+        <v>0.0802988</v>
       </c>
       <c r="D65">
-        <v>0.21584</v>
+        <v>0.2145663</v>
       </c>
       <c r="E65">
-        <v>0.5225278</v>
+        <v>0.5203595</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1933,20 +1933,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S s2 g1 c2 a1 o3 t3</t>
+          <t>p s1 g1 c1 a1 o1 t2</t>
         </is>
       </c>
       <c r="B66">
-        <v>0.7417755</v>
+        <v>0.08106389999999999</v>
       </c>
       <c r="C66">
-        <v>0.1178413</v>
+        <v>0.0442524</v>
       </c>
       <c r="D66">
-        <v>0.4624195</v>
+        <v>0.0267965</v>
       </c>
       <c r="E66">
-        <v>0.9055986</v>
+        <v>0.2203484</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -1957,20 +1957,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S s2 g1 c3 a1 o4 t4</t>
+          <t>p s1 g1 c1 a2 o2 t3</t>
         </is>
       </c>
       <c r="B67">
-        <v>0.9489651</v>
+        <v>0.1309184</v>
       </c>
       <c r="C67">
-        <v>0.100292</v>
+        <v>0.0639396</v>
       </c>
       <c r="D67">
-        <v>0.2430548</v>
+        <v>0.0476835</v>
       </c>
       <c r="E67">
-        <v>0.9990722</v>
+        <v>0.3118653</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -1981,20 +1981,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S s2 g1 c4 a1 o5 t5</t>
+          <t>p s1 g1 c1 a3 o3 t4</t>
         </is>
       </c>
       <c r="B68">
-        <v>0.7275029</v>
+        <v>0.0605656</v>
       </c>
       <c r="C68">
-        <v>0.1283151</v>
+        <v>0.0276074</v>
       </c>
       <c r="D68">
-        <v>0.4288251</v>
+        <v>0.0243026</v>
       </c>
       <c r="E68">
-        <v>0.9047045</v>
+        <v>0.1430075</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2005,20 +2005,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S s2 g1 c5 a1 o6 t6</t>
+          <t>p s1 g1 c1 a4 o4 t5</t>
         </is>
       </c>
       <c r="B69">
-        <v>0.8603846000000001</v>
+        <v>0.2147185</v>
       </c>
       <c r="C69">
-        <v>0.1043847</v>
+        <v>0.0865311</v>
       </c>
       <c r="D69">
-        <v>0.5287889</v>
+        <v>0.0909107</v>
       </c>
       <c r="E69">
-        <v>0.9712987</v>
+        <v>0.4277925</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2029,20 +2029,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>S s2 g1 c6 a1 o7 t7</t>
+          <t>p s1 g1 c1 a5 o5 t6</t>
         </is>
       </c>
       <c r="B70">
-        <v>0.8183426</v>
+        <v>0.0691112</v>
       </c>
       <c r="C70">
-        <v>0.0882352</v>
+        <v>0.0297466</v>
       </c>
       <c r="D70">
-        <v>0.5846303</v>
+        <v>0.029123</v>
       </c>
       <c r="E70">
-        <v>0.9351425</v>
+        <v>0.1552274</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2053,20 +2053,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S s2 g1 c7 a1 o8 t8</t>
+          <t>p s1 g1 c1 a6 o6 t7</t>
         </is>
       </c>
       <c r="B71">
-        <v>0.8247409999999999</v>
+        <v>0.1456166</v>
       </c>
       <c r="C71">
-        <v>0.1008838</v>
+        <v>0.0491346</v>
       </c>
       <c r="D71">
-        <v>0.5450834</v>
+        <v>0.07286629999999999</v>
       </c>
       <c r="E71">
-        <v>0.9486699</v>
+        <v>0.2698598</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2077,20 +2077,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>S s2 g1 c8 a1 o9 t9</t>
+          <t>p s1 g1 c1 a7 o7 t8</t>
         </is>
       </c>
       <c r="B72">
-        <v>0.8103167999999999</v>
+        <v>0.1782711</v>
       </c>
       <c r="C72">
-        <v>0.09185840000000001</v>
+        <v>0.0614592</v>
       </c>
       <c r="D72">
-        <v>0.5697198</v>
+        <v>0.0870331</v>
       </c>
       <c r="E72">
-        <v>0.9323545</v>
+        <v>0.3305278</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2101,20 +2101,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S s2 g1 c9 a1 o10 t10</t>
+          <t>p s1 g1 c1 a8 o8 t9</t>
         </is>
       </c>
       <c r="B73">
-        <v>0.9073223</v>
+        <v>0.0375142</v>
       </c>
       <c r="C73">
-        <v>0.0676254</v>
+        <v>0.0132806</v>
       </c>
       <c r="D73">
-        <v>0.6693188</v>
+        <v>0.0186019</v>
       </c>
       <c r="E73">
-        <v>0.9793188</v>
+        <v>0.0742005</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2125,20 +2125,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S s2 g1 c10 a1 o11 t11</t>
+          <t>p s1 g1 c1 a9 o9 t10</t>
         </is>
       </c>
       <c r="B74">
-        <v>0.7236958999999999</v>
+        <v>0.4055698</v>
       </c>
       <c r="C74">
-        <v>0.09015049999999999</v>
+        <v>0.100829</v>
       </c>
       <c r="D74">
-        <v>0.5197943</v>
+        <v>0.2311111</v>
       </c>
       <c r="E74">
-        <v>0.863718</v>
+        <v>0.6076458</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2149,20 +2149,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>S s2 g1 c11 a1 o12 t12</t>
+          <t>p s1 g1 c1 a10 o10 t11</t>
         </is>
       </c>
       <c r="B75">
-        <v>0.9313011</v>
+        <v>0.1972271</v>
       </c>
       <c r="C75">
-        <v>0.0567047</v>
+        <v>0.0555915</v>
       </c>
       <c r="D75">
-        <v>0.7046851</v>
+        <v>0.1098864</v>
       </c>
       <c r="E75">
-        <v>0.9871818</v>
+        <v>0.3283779</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2173,20 +2173,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>S s2 g1 c12 a1 o13 t13</t>
+          <t>p s1 g1 c1 a11 o11 t12</t>
         </is>
       </c>
       <c r="B76">
-        <v>0.8353289</v>
+        <v>0.1969711</v>
       </c>
       <c r="C76">
-        <v>0.0838352</v>
+        <v>0.0537562</v>
       </c>
       <c r="D76">
-        <v>0.6057104</v>
+        <v>0.1119027</v>
       </c>
       <c r="E76">
-        <v>0.9436639</v>
+        <v>0.3231757</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2197,20 +2197,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S s2 g1 c13 a1 o14 t14</t>
+          <t>p s1 g1 c1 a12 o12 t13</t>
         </is>
       </c>
       <c r="B77">
-        <v>0.7863122</v>
+        <v>0.1846805</v>
       </c>
       <c r="C77">
-        <v>0.0951868</v>
+        <v>0.051183</v>
       </c>
       <c r="D77">
-        <v>0.5479752</v>
+        <v>0.1042195</v>
       </c>
       <c r="E77">
-        <v>0.9178269999999999</v>
+        <v>0.3060379</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2221,20 +2221,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S s2 g1 c14 a1 o15 t15</t>
+          <t>p s1 g1 c1 a13 o13 t14</t>
         </is>
       </c>
       <c r="B78">
-        <v>0.9037491</v>
+        <v>0.1458885</v>
       </c>
       <c r="C78">
-        <v>0.0799237</v>
+        <v>0.0409562</v>
       </c>
       <c r="D78">
-        <v>0.6079582</v>
+        <v>0.0823039</v>
       </c>
       <c r="E78">
-        <v>0.9827145</v>
+        <v>0.245457</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2245,20 +2245,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S s2 g1 c15 a1 o16 t16</t>
+          <t>p s1 g1 c1 a14 o14 t15</t>
         </is>
       </c>
       <c r="B79">
-        <v>0.7526243</v>
+        <v>0.1183028</v>
       </c>
       <c r="C79">
-        <v>0.0972684</v>
+        <v>0.0321848</v>
       </c>
       <c r="D79">
-        <v>0.5221542</v>
+        <v>0.0682826</v>
       </c>
       <c r="E79">
-        <v>0.8944138</v>
+        <v>0.1972094</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2269,20 +2269,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S s2 g1 c16 a1 o17 t17</t>
+          <t>p s1 g1 c1 a15 o15 t16</t>
         </is>
       </c>
       <c r="B80">
-        <v>0.745463</v>
+        <v>0.1384438</v>
       </c>
       <c r="C80">
-        <v>0.1017022</v>
+        <v>0.0367751</v>
       </c>
       <c r="D80">
-        <v>0.5060066</v>
+        <v>0.080722</v>
       </c>
       <c r="E80">
-        <v>0.8933181</v>
+        <v>0.2272377</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2293,20 +2293,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>S s2 g1 c17 a1 o18 t18</t>
+          <t>p s1 g1 c1 a16 o16 t17</t>
         </is>
       </c>
       <c r="B81">
-        <v>0.718753</v>
+        <v>0.2219656</v>
       </c>
       <c r="C81">
-        <v>0.1069529</v>
+        <v>0.0577988</v>
       </c>
       <c r="D81">
-        <v>0.4753397</v>
+        <v>0.1289551</v>
       </c>
       <c r="E81">
-        <v>0.8781782</v>
+        <v>0.35474</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2317,20 +2317,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>S s2 g1 c18 a1 o19 t19</t>
+          <t>p s1 g1 c1 a17 o17 t18</t>
         </is>
       </c>
       <c r="B82">
-        <v>0.6738161</v>
+        <v>0.1466951</v>
       </c>
       <c r="C82">
-        <v>0.1180432</v>
+        <v>0.0423912</v>
       </c>
       <c r="D82">
-        <v>0.4189279</v>
+        <v>0.0813218</v>
       </c>
       <c r="E82">
-        <v>0.8554705</v>
+        <v>0.2503025</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2341,20 +2341,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>S s2 g1 c19 a1 o20 t20</t>
+          <t>p s1 g1 c1 a18 o18 t19</t>
         </is>
       </c>
       <c r="B83">
-        <v>0.8114186</v>
+        <v>0.0929451</v>
       </c>
       <c r="C83">
-        <v>0.1011575</v>
+        <v>0.0288046</v>
       </c>
       <c r="D83">
-        <v>0.5407932</v>
+        <v>0.0498378</v>
       </c>
       <c r="E83">
-        <v>0.9401935</v>
+        <v>0.1667929</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2365,20 +2365,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S s2 g1 c20 a1 o21 t21</t>
+          <t>p s1 g1 c1 a19 o19 t20</t>
         </is>
       </c>
       <c r="B84">
-        <v>0.8368119000000001</v>
+        <v>0.0933206</v>
       </c>
       <c r="C84">
-        <v>0.1692062</v>
+        <v>0.0293751</v>
       </c>
       <c r="D84">
-        <v>0.3113308</v>
+        <v>0.049538</v>
       </c>
       <c r="E84">
-        <v>0.9830983</v>
+        <v>0.1689221</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2389,20 +2389,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>S s2 g1 c21 a1 o22 t22</t>
+          <t>p s1 g1 c1 a20 o20 t21</t>
         </is>
       </c>
       <c r="B85">
-        <v>0.2644923</v>
+        <v>0.2456264</v>
       </c>
       <c r="C85">
-        <v>0.0918117</v>
+        <v>0.0837305</v>
       </c>
       <c r="D85">
-        <v>0.1247962</v>
+        <v>0.1183906</v>
       </c>
       <c r="E85">
-        <v>0.4755887</v>
+        <v>0.4411755</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2413,20 +2413,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a1 o1 t2</t>
+          <t>p s1 g1 c1 a21 o21 t22</t>
         </is>
       </c>
       <c r="B86">
-        <v>0.0810618</v>
+        <v>0.1075282</v>
       </c>
       <c r="C86">
-        <v>0.0442976</v>
+        <v>0.0480893</v>
       </c>
       <c r="D86">
-        <v>0.0267641</v>
+        <v>0.0431727</v>
       </c>
       <c r="E86">
-        <v>0.2205524</v>
+        <v>0.2434109</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2437,20 +2437,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a2 o2 t3</t>
+          <t>p s1 g1 c1 a22 o22 t23</t>
         </is>
       </c>
       <c r="B87">
-        <v>0.1312822</v>
+        <v>0.9999958</v>
       </c>
       <c r="C87">
-        <v>0.06407409999999999</v>
+        <v>0.004799</v>
       </c>
       <c r="D87">
-        <v>0.0478415</v>
+        <v>1.311676E-303</v>
       </c>
       <c r="E87">
-        <v>0.3124908</v>
+        <v>1</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2461,20 +2461,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a3 o3 t4</t>
+          <t>p s2 g1 c1 a1 o1 t2</t>
         </is>
       </c>
       <c r="B88">
-        <v>0.0601725</v>
+        <v>0.6305305</v>
       </c>
       <c r="C88">
-        <v>0.0274162</v>
+        <v>0.1341025</v>
       </c>
       <c r="D88">
-        <v>0.024158</v>
+        <v>0.3557716</v>
       </c>
       <c r="E88">
-        <v>0.1420609</v>
+        <v>0.8406069</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2485,20 +2485,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a4 o4 t5</t>
+          <t>p s2 g1 c1 a2 o2 t3</t>
         </is>
       </c>
       <c r="B89">
-        <v>0.2159597</v>
+        <v>0.7445226</v>
       </c>
       <c r="C89">
-        <v>0.0866765</v>
+        <v>0.1022274</v>
       </c>
       <c r="D89">
-        <v>0.0917289</v>
+        <v>0.5040524</v>
       </c>
       <c r="E89">
-        <v>0.4289755</v>
+        <v>0.8931195</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2509,20 +2509,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a5 o5 t6</t>
+          <t>p s2 g1 c1 a3 o3 t4</t>
         </is>
       </c>
       <c r="B90">
-        <v>0.0699229</v>
+        <v>0.5550069</v>
       </c>
       <c r="C90">
-        <v>0.030007</v>
+        <v>0.1101087</v>
       </c>
       <c r="D90">
-        <v>0.029534</v>
+        <v>0.3423349</v>
       </c>
       <c r="E90">
-        <v>0.1566304</v>
+        <v>0.7492751</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2533,20 +2533,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a6 o6 t7</t>
+          <t>p s2 g1 c1 a4 o4 t5</t>
         </is>
       </c>
       <c r="B91">
-        <v>0.1447346</v>
+        <v>0.8410094</v>
       </c>
       <c r="C91">
-        <v>0.0489583</v>
+        <v>0.06744070000000001</v>
       </c>
       <c r="D91">
-        <v>0.0723123</v>
+        <v>0.6631117</v>
       </c>
       <c r="E91">
-        <v>0.2686823</v>
+        <v>0.934277</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2557,20 +2557,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a7 o7 t8</t>
+          <t>p s2 g1 c1 a5 o5 t6</t>
         </is>
       </c>
       <c r="B92">
-        <v>0.1797823</v>
+        <v>0.5895363</v>
       </c>
       <c r="C92">
-        <v>0.0617489</v>
+        <v>0.1045899</v>
       </c>
       <c r="D92">
-        <v>0.0879786</v>
+        <v>0.3810482</v>
       </c>
       <c r="E92">
-        <v>0.3324608</v>
+        <v>0.7701572</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2581,20 +2581,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a8 o8 t9</t>
+          <t>p s2 g1 c1 a6 o6 t7</t>
         </is>
       </c>
       <c r="B93">
-        <v>0.0377421</v>
+        <v>0.7672895</v>
       </c>
       <c r="C93">
-        <v>0.0132897</v>
+        <v>0.0656525</v>
       </c>
       <c r="D93">
-        <v>0.0187851</v>
+        <v>0.6159531</v>
       </c>
       <c r="E93">
-        <v>0.0743794</v>
+        <v>0.8714379</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2605,20 +2605,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a9 o9 t10</t>
+          <t>p s2 g1 c1 a7 o7 t8</t>
         </is>
       </c>
       <c r="B94">
-        <v>0.4046234</v>
+        <v>0.8075809</v>
       </c>
       <c r="C94">
-        <v>0.100823</v>
+        <v>0.0599978</v>
       </c>
       <c r="D94">
-        <v>0.2303143</v>
+        <v>0.6632049</v>
       </c>
       <c r="E94">
-        <v>0.6068435</v>
+        <v>0.8994498</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2629,20 +2629,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a10 o10 t11</t>
+          <t>p s2 g1 c1 a8 o8 t9</t>
         </is>
       </c>
       <c r="B95">
-        <v>0.1954445</v>
+        <v>0.4298829</v>
       </c>
       <c r="C95">
-        <v>0.0554371</v>
+        <v>0.0761747</v>
       </c>
       <c r="D95">
-        <v>0.1085139</v>
+        <v>0.2907966</v>
       </c>
       <c r="E95">
-        <v>0.3265095</v>
+        <v>0.5809953</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2653,20 +2653,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a11 o11 t12</t>
+          <t>p s2 g1 c1 a9 o9 t10</t>
         </is>
       </c>
       <c r="B96">
-        <v>0.1956922</v>
+        <v>0.9295739</v>
       </c>
       <c r="C96">
-        <v>0.05355</v>
+        <v>0.027002</v>
       </c>
       <c r="D96">
-        <v>0.1110287</v>
+        <v>0.8546747</v>
       </c>
       <c r="E96">
-        <v>0.3215622</v>
+        <v>0.9673456</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2677,20 +2677,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a12 o12 t13</t>
+          <t>p s2 g1 c1 a10 o10 t11</t>
         </is>
       </c>
       <c r="B97">
-        <v>0.182832</v>
+        <v>0.8261748</v>
       </c>
       <c r="C97">
-        <v>0.0509192</v>
+        <v>0.0488778</v>
       </c>
       <c r="D97">
-        <v>0.1029126</v>
+        <v>0.7092344</v>
       </c>
       <c r="E97">
-        <v>0.3037973</v>
+        <v>0.9025464</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2701,20 +2701,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a13 o13 t14</t>
+          <t>p s2 g1 c1 a11 o11 t12</t>
         </is>
       </c>
       <c r="B98">
-        <v>0.14463</v>
+        <v>0.8259424</v>
       </c>
       <c r="C98">
-        <v>0.0407741</v>
+        <v>0.0446054</v>
       </c>
       <c r="D98">
-        <v>0.08140940000000001</v>
+        <v>0.7209145</v>
       </c>
       <c r="E98">
-        <v>0.2439099</v>
+        <v>0.8970875</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2725,20 +2725,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a14 o14 t15</t>
+          <t>p s2 g1 c1 a12 o12 t13</t>
         </is>
       </c>
       <c r="B99">
-        <v>0.117494</v>
+        <v>0.8141977</v>
       </c>
       <c r="C99">
-        <v>0.0320603</v>
+        <v>0.0457379</v>
       </c>
       <c r="D99">
-        <v>0.06771050000000001</v>
+        <v>0.7078437</v>
       </c>
       <c r="E99">
-        <v>0.1961782</v>
+        <v>0.8879634</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2749,20 +2749,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a15 o15 t16</t>
+          <t>p s2 g1 c1 a13 o13 t14</t>
         </is>
       </c>
       <c r="B100">
-        <v>0.1373822</v>
+        <v>0.7676793</v>
       </c>
       <c r="C100">
-        <v>0.0366449</v>
+        <v>0.0539307</v>
       </c>
       <c r="D100">
-        <v>0.079932</v>
+        <v>0.6462435</v>
       </c>
       <c r="E100">
-        <v>0.2259823</v>
+        <v>0.8566743999999999</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2773,20 +2773,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a16 o16 t17</t>
+          <t>p s2 g1 c1 a14 o14 t15</t>
         </is>
       </c>
       <c r="B101">
-        <v>0.2212405</v>
+        <v>0.7218931</v>
       </c>
       <c r="C101">
-        <v>0.0576993</v>
+        <v>0.0547104</v>
       </c>
       <c r="D101">
-        <v>0.1284384</v>
+        <v>0.603423</v>
       </c>
       <c r="E101">
-        <v>0.3538709</v>
+        <v>0.8157771</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2797,20 +2797,20 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a17 o17 t18</t>
+          <t>p s2 g1 c1 a15 o15 t16</t>
         </is>
       </c>
       <c r="B102">
-        <v>0.146022</v>
+        <v>0.7566125</v>
       </c>
       <c r="C102">
-        <v>0.0422628</v>
+        <v>0.0524425</v>
       </c>
       <c r="D102">
-        <v>0.08088190000000001</v>
+        <v>0.6401521999999999</v>
       </c>
       <c r="E102">
-        <v>0.2493894</v>
+        <v>0.8445353</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2821,20 +2821,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a18 o18 t19</t>
+          <t>p s2 g1 c1 a16 o16 t17</t>
         </is>
       </c>
       <c r="B103">
-        <v>0.0918786</v>
+        <v>0.8466058</v>
       </c>
       <c r="C103">
-        <v>0.0285921</v>
+        <v>0.0409485</v>
       </c>
       <c r="D103">
-        <v>0.0491462</v>
+        <v>0.7484197</v>
       </c>
       <c r="E103">
-        <v>0.1653072</v>
+        <v>0.9110275</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2845,20 +2845,20 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a19 o19 t20</t>
+          <t>p s2 g1 c1 a17 o17 t18</t>
         </is>
       </c>
       <c r="B104">
-        <v>0.09220920000000001</v>
+        <v>0.7688291</v>
       </c>
       <c r="C104">
-        <v>0.0291175</v>
+        <v>0.0538463</v>
       </c>
       <c r="D104">
-        <v>0.0488581</v>
+        <v>0.6474615</v>
       </c>
       <c r="E104">
-        <v>0.167261</v>
+        <v>0.8576032</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -2869,20 +2869,20 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a20 o20 t21</t>
+          <t>p s2 g1 c1 a18 o18 t19</t>
         </is>
       </c>
       <c r="B105">
-        <v>0.2446818</v>
+        <v>0.6646929</v>
       </c>
       <c r="C105">
-        <v>0.0836118</v>
+        <v>0.0669404</v>
       </c>
       <c r="D105">
-        <v>0.11775</v>
+        <v>0.523881</v>
       </c>
       <c r="E105">
-        <v>0.4401756</v>
+        <v>0.7812489</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -2893,20 +2893,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a21 o21 t22</t>
+          <t>p s2 g1 c1 a19 o19 t20</t>
         </is>
       </c>
       <c r="B106">
-        <v>0.1054798</v>
+        <v>0.6656832</v>
       </c>
       <c r="C106">
-        <v>0.0473807</v>
+        <v>0.0659979</v>
       </c>
       <c r="D106">
-        <v>0.0422088</v>
+        <v>0.5268437</v>
       </c>
       <c r="E106">
-        <v>0.239844</v>
+        <v>0.7807378</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -2917,20 +2917,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a22 o22 t23</t>
+          <t>p s2 g1 c1 a20 o20 t21</t>
         </is>
       </c>
       <c r="B107">
-        <v>0.9999967</v>
+        <v>0.8629956</v>
       </c>
       <c r="C107">
-        <v>0.0047182</v>
+        <v>0.0512757</v>
       </c>
       <c r="D107">
-        <v>1.684553E-303</v>
+        <v>0.7291641</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0.9364582</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -2941,20 +2941,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a1 o1 t2</t>
+          <t>p s2 g1 c1 a21 o21 t22</t>
         </is>
       </c>
       <c r="B108">
-        <v>0.6331048</v>
+        <v>0.6997757</v>
       </c>
       <c r="C108">
-        <v>0.1338452</v>
+        <v>0.09783550000000001</v>
       </c>
       <c r="D108">
-        <v>0.3580532</v>
+        <v>0.4833782</v>
       </c>
       <c r="E108">
-        <v>0.8422337</v>
+        <v>0.8530808</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -2965,20 +2965,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a2 o2 t3</t>
+          <t>p s2 g1 c1 a22 o22 t23</t>
         </is>
       </c>
       <c r="B109">
-        <v>0.7472309</v>
+        <v>0.9999998</v>
       </c>
       <c r="C109">
-        <v>0.1015062</v>
+        <v>0.0002487032</v>
       </c>
       <c r="D109">
-        <v>0.5076381</v>
+        <v>2.537535E-302</v>
       </c>
       <c r="E109">
-        <v>0.8944704</v>
+        <v>1</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -2989,44 +2989,44 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a3 o3 t4</t>
+          <t>Psi s2 to1 g1 c1 a0 o1 t1</t>
         </is>
       </c>
       <c r="B110">
-        <v>0.5560351</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0.109947</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>0.3434713</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>0.7498917</v>
+        <v>0</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t xml:space="preserve">     </t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a4 o4 t5</t>
+          <t>Psi s1 to2 g1 c1 a0 o1 t1</t>
         </is>
       </c>
       <c r="B111">
-        <v>0.8434596</v>
+        <v>0.1658845</v>
       </c>
       <c r="C111">
-        <v>0.0663952</v>
+        <v>0.0231061</v>
       </c>
       <c r="D111">
-        <v>0.6678761</v>
+        <v>0.1253862</v>
       </c>
       <c r="E111">
-        <v>0.935221</v>
+        <v>0.2162295</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3037,20 +3037,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a5 o5 t6</t>
+          <t>Psi s1 to2 g1 c1 a1 o2 t2</t>
         </is>
       </c>
       <c r="B112">
-        <v>0.5952453</v>
+        <v>0.1658845</v>
       </c>
       <c r="C112">
-        <v>0.1039059</v>
+        <v>0.0231061</v>
       </c>
       <c r="D112">
-        <v>0.3870799</v>
+        <v>0.1253862</v>
       </c>
       <c r="E112">
-        <v>0.7739914</v>
+        <v>0.2162295</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3061,20 +3061,20 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a6 o6 t7</t>
+          <t>Psi s1 to2 g1 c1 a2 o3 t3</t>
         </is>
       </c>
       <c r="B113">
-        <v>0.7680009</v>
+        <v>0.3304046</v>
       </c>
       <c r="C113">
-        <v>0.0656038</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D113">
-        <v>0.6166587</v>
+        <v>0.2082123</v>
       </c>
       <c r="E113">
-        <v>0.8719961000000001</v>
+        <v>0.4807655</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3085,20 +3085,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a7 o7 t8</t>
+          <t>Psi s1 to2 g1 c1 a3 o4 t4</t>
         </is>
       </c>
       <c r="B114">
-        <v>0.8108808</v>
+        <v>0.2301323</v>
       </c>
       <c r="C114">
-        <v>0.0591009</v>
+        <v>0.0833187</v>
       </c>
       <c r="D114">
-        <v>0.6682714</v>
+        <v>0.1062818</v>
       </c>
       <c r="E114">
-        <v>0.9012428</v>
+        <v>0.4290245</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3109,20 +3109,20 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a8 o8 t9</t>
+          <t>Psi s1 to2 g1 c1 a4 o5 t5</t>
         </is>
       </c>
       <c r="B115">
-        <v>0.4341499</v>
+        <v>0.1412995</v>
       </c>
       <c r="C115">
-        <v>0.0758938</v>
+        <v>0.051066</v>
       </c>
       <c r="D115">
-        <v>0.2951607</v>
+        <v>0.0672671</v>
       </c>
       <c r="E115">
-        <v>0.5843292</v>
+        <v>0.2729651</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3133,20 +3133,20 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a9 o9 t10</t>
+          <t>Psi s1 to2 g1 c1 a5 o6 t6</t>
         </is>
       </c>
       <c r="B116">
-        <v>0.9300417</v>
+        <v>0.1412995</v>
       </c>
       <c r="C116">
-        <v>0.0268423</v>
+        <v>0.051066</v>
       </c>
       <c r="D116">
-        <v>0.8555398</v>
+        <v>0.0672671</v>
       </c>
       <c r="E116">
-        <v>0.9675771</v>
+        <v>0.2729651</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3157,20 +3157,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a10 o10 t11</t>
+          <t>Psi s1 to2 g1 c1 a6 o7 t7</t>
         </is>
       </c>
       <c r="B117">
-        <v>0.8261457</v>
+        <v>0.1412995</v>
       </c>
       <c r="C117">
-        <v>0.0490979</v>
+        <v>0.051066</v>
       </c>
       <c r="D117">
-        <v>0.7085909</v>
+        <v>0.0672671</v>
       </c>
       <c r="E117">
-        <v>0.9027848000000001</v>
+        <v>0.2729651</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3181,20 +3181,20 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a11 o11 t12</t>
+          <t>Psi s1 to2 g1 c1 a7 o8 t8</t>
         </is>
       </c>
       <c r="B118">
-        <v>0.8263717</v>
+        <v>0.1412995</v>
       </c>
       <c r="C118">
-        <v>0.0445515</v>
+        <v>0.051066</v>
       </c>
       <c r="D118">
-        <v>0.7214251</v>
+        <v>0.0672671</v>
       </c>
       <c r="E118">
-        <v>0.8974046</v>
+        <v>0.2729651</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3205,20 +3205,20 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a12 o12 t13</t>
+          <t>Psi s1 to2 g1 c1 a8 o9 t9</t>
         </is>
       </c>
       <c r="B119">
-        <v>0.8140115999999999</v>
+        <v>0.1412995</v>
       </c>
       <c r="C119">
-        <v>0.0458709</v>
+        <v>0.051066</v>
       </c>
       <c r="D119">
-        <v>0.7073277</v>
+        <v>0.0672671</v>
       </c>
       <c r="E119">
-        <v>0.8879669</v>
+        <v>0.2729651</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3229,20 +3229,20 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a13 o13 t14</t>
+          <t>Psi s1 to2 g1 c1 a9 o10 t10</t>
         </is>
       </c>
       <c r="B120">
-        <v>0.7678501</v>
+        <v>0.1412995</v>
       </c>
       <c r="C120">
-        <v>0.0540421</v>
+        <v>0.051066</v>
       </c>
       <c r="D120">
-        <v>0.6461129</v>
+        <v>0.0672671</v>
       </c>
       <c r="E120">
-        <v>0.8569796</v>
+        <v>0.2729651</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3253,20 +3253,20 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a14 o14 t15</t>
+          <t>Psi s1 to2 g1 c1 a10 o11 t11</t>
         </is>
       </c>
       <c r="B121">
-        <v>0.7225586000000001</v>
+        <v>0.1412995</v>
       </c>
       <c r="C121">
-        <v>0.0547213</v>
+        <v>0.051066</v>
       </c>
       <c r="D121">
-        <v>0.6040025999999999</v>
+        <v>0.0672671</v>
       </c>
       <c r="E121">
-        <v>0.8164093</v>
+        <v>0.2729651</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3277,20 +3277,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a15 o15 t16</t>
+          <t>Psi s1 to2 g1 c1 a11 o12 t12</t>
         </is>
       </c>
       <c r="B122">
-        <v>0.7570111</v>
+        <v>0.1412995</v>
       </c>
       <c r="C122">
-        <v>0.0525463</v>
+        <v>0.051066</v>
       </c>
       <c r="D122">
-        <v>0.6402532</v>
+        <v>0.0672671</v>
       </c>
       <c r="E122">
-        <v>0.8450458</v>
+        <v>0.2729651</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3301,20 +3301,20 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a16 o16 t17</t>
+          <t>Psi s1 to2 g1 c1 a12 o13 t13</t>
         </is>
       </c>
       <c r="B123">
-        <v>0.8474985</v>
+        <v>0.1412995</v>
       </c>
       <c r="C123">
-        <v>0.0407706</v>
+        <v>0.051066</v>
       </c>
       <c r="D123">
-        <v>0.7496654</v>
+        <v>0.0672671</v>
       </c>
       <c r="E123">
-        <v>0.9116058</v>
+        <v>0.2729651</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3325,20 +3325,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a17 o17 t18</t>
+          <t>Psi s1 to2 g1 c1 a13 o14 t14</t>
         </is>
       </c>
       <c r="B124">
-        <v>0.7698419</v>
+        <v>0.1412995</v>
       </c>
       <c r="C124">
-        <v>0.0537108</v>
+        <v>0.051066</v>
       </c>
       <c r="D124">
-        <v>0.648688</v>
+        <v>0.0672671</v>
       </c>
       <c r="E124">
-        <v>0.8583388</v>
+        <v>0.2729651</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3349,20 +3349,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a18 o18 t19</t>
+          <t>Psi s1 to2 g1 c1 a14 o15 t15</t>
         </is>
       </c>
       <c r="B125">
-        <v>0.6643315</v>
+        <v>0.1412995</v>
       </c>
       <c r="C125">
-        <v>0.0672012</v>
+        <v>0.051066</v>
       </c>
       <c r="D125">
-        <v>0.5229831</v>
+        <v>0.0672671</v>
       </c>
       <c r="E125">
-        <v>0.7813101</v>
+        <v>0.2729651</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3373,20 +3373,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a19 o19 t20</t>
+          <t>Psi s1 to2 g1 c1 a15 o16 t16</t>
         </is>
       </c>
       <c r="B126">
-        <v>0.6652130000000001</v>
+        <v>0.1412995</v>
       </c>
       <c r="C126">
-        <v>0.0661486</v>
+        <v>0.051066</v>
       </c>
       <c r="D126">
-        <v>0.5260877</v>
+        <v>0.0672671</v>
       </c>
       <c r="E126">
-        <v>0.7805337</v>
+        <v>0.2729651</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3397,20 +3397,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a20 o20 t21</t>
+          <t>Psi s1 to2 g1 c1 a16 o17 t17</t>
         </is>
       </c>
       <c r="B127">
-        <v>0.8637023</v>
+        <v>0.1412995</v>
       </c>
       <c r="C127">
-        <v>0.0511382</v>
+        <v>0.051066</v>
       </c>
       <c r="D127">
-        <v>0.7300659</v>
+        <v>0.0672671</v>
       </c>
       <c r="E127">
-        <v>0.9368976</v>
+        <v>0.2729651</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3421,20 +3421,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a21 o21 t22</t>
+          <t>Psi s1 to2 g1 c1 a17 o18 t18</t>
         </is>
       </c>
       <c r="B128">
-        <v>0.6975797</v>
+        <v>0.1412995</v>
       </c>
       <c r="C128">
-        <v>0.09844840000000001</v>
+        <v>0.051066</v>
       </c>
       <c r="D128">
-        <v>0.4802948</v>
+        <v>0.0672671</v>
       </c>
       <c r="E128">
-        <v>0.8520108</v>
+        <v>0.2729651</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3445,20 +3445,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a22 o22 t23</t>
+          <t>Psi s1 to2 g1 c1 a18 o19 t19</t>
         </is>
       </c>
       <c r="B129">
-        <v>0.9999998</v>
+        <v>0.1412995</v>
       </c>
       <c r="C129">
-        <v>0.0002414145</v>
+        <v>0.051066</v>
       </c>
       <c r="D129">
-        <v>3.29525E-302</v>
+        <v>0.0672671</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0.2729651</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3469,44 +3469,44 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Psi s2 to1 g1 c1 a0 o1 t1</t>
+          <t>Psi s1 to2 g1 c1 a19 o20 t20</t>
         </is>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>0.1412995</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>0.051066</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>0.0672671</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.2729651</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t xml:space="preserve">     </t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a0 o1 t1</t>
+          <t>Psi s1 to2 g1 c1 a20 o21 t21</t>
         </is>
       </c>
       <c r="B131">
-        <v>0.1659721</v>
+        <v>0.1412995</v>
       </c>
       <c r="C131">
-        <v>0.0231378</v>
+        <v>0.051066</v>
       </c>
       <c r="D131">
-        <v>0.1254217</v>
+        <v>0.0672671</v>
       </c>
       <c r="E131">
-        <v>0.2163892</v>
+        <v>0.2729651</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3517,20 +3517,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a1 o2 t2</t>
+          <t>Psi s1 to2 g1 c1 a21 o22 t22</t>
         </is>
       </c>
       <c r="B132">
-        <v>0.1659721</v>
+        <v>0.1412995</v>
       </c>
       <c r="C132">
-        <v>0.0231378</v>
+        <v>0.051066</v>
       </c>
       <c r="D132">
-        <v>0.1254217</v>
+        <v>0.0672671</v>
       </c>
       <c r="E132">
-        <v>0.2163892</v>
+        <v>0.2729651</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3541,20 +3541,20 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a2 o3 t3</t>
+          <t>Psi s1 to2 g1 c2 a0 o2 t2</t>
         </is>
       </c>
       <c r="B133">
-        <v>0.3292661</v>
+        <v>0.1658845</v>
       </c>
       <c r="C133">
-        <v>0.07092</v>
+        <v>0.0231061</v>
       </c>
       <c r="D133">
-        <v>0.2073609</v>
+        <v>0.1253862</v>
       </c>
       <c r="E133">
-        <v>0.4794852</v>
+        <v>0.2162295</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3565,20 +3565,20 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a3 o4 t4</t>
+          <t>Psi s1 to2 g1 c2 a1 o3 t3</t>
         </is>
       </c>
       <c r="B134">
-        <v>0.2290448</v>
+        <v>0.1658845</v>
       </c>
       <c r="C134">
-        <v>0.0829921</v>
+        <v>0.0231061</v>
       </c>
       <c r="D134">
-        <v>0.1057516</v>
+        <v>0.1253862</v>
       </c>
       <c r="E134">
-        <v>0.4273834</v>
+        <v>0.2162295</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3589,20 +3589,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a4 o5 t5</t>
+          <t>Psi s1 to2 g1 c2 a2 o4 t4</t>
         </is>
       </c>
       <c r="B135">
-        <v>0.1406788</v>
+        <v>0.3304046</v>
       </c>
       <c r="C135">
-        <v>0.0508967</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D135">
-        <v>0.0669278</v>
+        <v>0.2082123</v>
       </c>
       <c r="E135">
-        <v>0.272008</v>
+        <v>0.4807655</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3613,20 +3613,20 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a5 o6 t6</t>
+          <t>Psi s1 to2 g1 c2 a3 o5 t5</t>
         </is>
       </c>
       <c r="B136">
-        <v>0.1406788</v>
+        <v>0.2301323</v>
       </c>
       <c r="C136">
-        <v>0.0508967</v>
+        <v>0.0833187</v>
       </c>
       <c r="D136">
-        <v>0.0669278</v>
+        <v>0.1062818</v>
       </c>
       <c r="E136">
-        <v>0.272008</v>
+        <v>0.4290245</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3637,20 +3637,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a6 o7 t7</t>
+          <t>Psi s1 to2 g1 c2 a4 o6 t6</t>
         </is>
       </c>
       <c r="B137">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C137">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D137">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E137">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -3661,20 +3661,20 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a7 o8 t8</t>
+          <t>Psi s1 to2 g1 c2 a5 o7 t7</t>
         </is>
       </c>
       <c r="B138">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C138">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D138">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E138">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -3685,20 +3685,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a8 o9 t9</t>
+          <t>Psi s1 to2 g1 c2 a6 o8 t8</t>
         </is>
       </c>
       <c r="B139">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C139">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D139">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E139">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3709,20 +3709,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a9 o10 t10</t>
+          <t>Psi s1 to2 g1 c2 a7 o9 t9</t>
         </is>
       </c>
       <c r="B140">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C140">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D140">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E140">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -3733,20 +3733,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a10 o11 t11</t>
+          <t>Psi s1 to2 g1 c2 a8 o10 t10</t>
         </is>
       </c>
       <c r="B141">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C141">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D141">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E141">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -3757,20 +3757,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a11 o12 t12</t>
+          <t>Psi s1 to2 g1 c2 a9 o11 t11</t>
         </is>
       </c>
       <c r="B142">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C142">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D142">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E142">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -3781,20 +3781,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a12 o13 t13</t>
+          <t>Psi s1 to2 g1 c2 a10 o12 t12</t>
         </is>
       </c>
       <c r="B143">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C143">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D143">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E143">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -3805,20 +3805,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a13 o14 t14</t>
+          <t>Psi s1 to2 g1 c2 a11 o13 t13</t>
         </is>
       </c>
       <c r="B144">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C144">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D144">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E144">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -3829,20 +3829,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a14 o15 t15</t>
+          <t>Psi s1 to2 g1 c2 a12 o14 t14</t>
         </is>
       </c>
       <c r="B145">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C145">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D145">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E145">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -3853,20 +3853,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a15 o16 t16</t>
+          <t>Psi s1 to2 g1 c2 a13 o15 t15</t>
         </is>
       </c>
       <c r="B146">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C146">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D146">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E146">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -3877,20 +3877,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a16 o17 t17</t>
+          <t>Psi s1 to2 g1 c2 a14 o16 t16</t>
         </is>
       </c>
       <c r="B147">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C147">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D147">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E147">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -3901,20 +3901,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a17 o18 t18</t>
+          <t>Psi s1 to2 g1 c2 a15 o17 t17</t>
         </is>
       </c>
       <c r="B148">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C148">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D148">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E148">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -3925,20 +3925,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a18 o19 t19</t>
+          <t>Psi s1 to2 g1 c2 a16 o18 t18</t>
         </is>
       </c>
       <c r="B149">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C149">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D149">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E149">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -3949,20 +3949,20 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a19 o20 t20</t>
+          <t>Psi s1 to2 g1 c2 a17 o19 t19</t>
         </is>
       </c>
       <c r="B150">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C150">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D150">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E150">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -3973,20 +3973,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a20 o21 t21</t>
+          <t>Psi s1 to2 g1 c2 a18 o20 t20</t>
         </is>
       </c>
       <c r="B151">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C151">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D151">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E151">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -3997,20 +3997,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a21 o22 t22</t>
+          <t>Psi s1 to2 g1 c2 a19 o21 t21</t>
         </is>
       </c>
       <c r="B152">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C152">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D152">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E152">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4021,20 +4021,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a0 o2 t2</t>
+          <t>Psi s1 to2 g1 c2 a20 o22 t22</t>
         </is>
       </c>
       <c r="B153">
-        <v>0.1659721</v>
+        <v>0.1412995</v>
       </c>
       <c r="C153">
-        <v>0.0231378</v>
+        <v>0.051066</v>
       </c>
       <c r="D153">
-        <v>0.1254217</v>
+        <v>0.0672671</v>
       </c>
       <c r="E153">
-        <v>0.2163892</v>
+        <v>0.2729651</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4045,20 +4045,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a1 o3 t3</t>
+          <t>Psi s1 to2 g1 c3 a0 o3 t3</t>
         </is>
       </c>
       <c r="B154">
-        <v>0.1659721</v>
+        <v>0.1658845</v>
       </c>
       <c r="C154">
-        <v>0.0231378</v>
+        <v>0.0231061</v>
       </c>
       <c r="D154">
-        <v>0.1254217</v>
+        <v>0.1253862</v>
       </c>
       <c r="E154">
-        <v>0.2163892</v>
+        <v>0.2162295</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4069,20 +4069,20 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a2 o4 t4</t>
+          <t>Psi s1 to2 g1 c3 a1 o4 t4</t>
         </is>
       </c>
       <c r="B155">
-        <v>0.3292661</v>
+        <v>0.1658845</v>
       </c>
       <c r="C155">
-        <v>0.07092</v>
+        <v>0.0231061</v>
       </c>
       <c r="D155">
-        <v>0.2073609</v>
+        <v>0.1253862</v>
       </c>
       <c r="E155">
-        <v>0.4794852</v>
+        <v>0.2162295</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4093,20 +4093,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a3 o5 t5</t>
+          <t>Psi s1 to2 g1 c3 a2 o5 t5</t>
         </is>
       </c>
       <c r="B156">
-        <v>0.2290448</v>
+        <v>0.3304046</v>
       </c>
       <c r="C156">
-        <v>0.0829921</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D156">
-        <v>0.1057516</v>
+        <v>0.2082123</v>
       </c>
       <c r="E156">
-        <v>0.4273834</v>
+        <v>0.4807655</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4117,20 +4117,20 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a4 o6 t6</t>
+          <t>Psi s1 to2 g1 c3 a3 o6 t6</t>
         </is>
       </c>
       <c r="B157">
-        <v>0.1406788</v>
+        <v>0.2301323</v>
       </c>
       <c r="C157">
-        <v>0.0508967</v>
+        <v>0.0833187</v>
       </c>
       <c r="D157">
-        <v>0.0669278</v>
+        <v>0.1062818</v>
       </c>
       <c r="E157">
-        <v>0.272008</v>
+        <v>0.4290245</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4141,20 +4141,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a5 o7 t7</t>
+          <t>Psi s1 to2 g1 c3 a4 o7 t7</t>
         </is>
       </c>
       <c r="B158">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C158">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D158">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E158">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4165,20 +4165,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a6 o8 t8</t>
+          <t>Psi s1 to2 g1 c3 a5 o8 t8</t>
         </is>
       </c>
       <c r="B159">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C159">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D159">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E159">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4189,20 +4189,20 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a7 o9 t9</t>
+          <t>Psi s1 to2 g1 c3 a6 o9 t9</t>
         </is>
       </c>
       <c r="B160">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C160">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D160">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E160">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4213,20 +4213,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a8 o10 t10</t>
+          <t>Psi s1 to2 g1 c3 a7 o10 t10</t>
         </is>
       </c>
       <c r="B161">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C161">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D161">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E161">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4237,20 +4237,20 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a9 o11 t11</t>
+          <t>Psi s1 to2 g1 c3 a8 o11 t11</t>
         </is>
       </c>
       <c r="B162">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C162">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D162">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E162">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4261,20 +4261,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a10 o12 t12</t>
+          <t>Psi s1 to2 g1 c3 a9 o12 t12</t>
         </is>
       </c>
       <c r="B163">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C163">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D163">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E163">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4285,20 +4285,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a11 o13 t13</t>
+          <t>Psi s1 to2 g1 c3 a10 o13 t13</t>
         </is>
       </c>
       <c r="B164">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C164">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D164">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E164">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4309,20 +4309,20 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a12 o14 t14</t>
+          <t>Psi s1 to2 g1 c3 a11 o14 t14</t>
         </is>
       </c>
       <c r="B165">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C165">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D165">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E165">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4333,20 +4333,20 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a13 o15 t15</t>
+          <t>Psi s1 to2 g1 c3 a12 o15 t15</t>
         </is>
       </c>
       <c r="B166">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C166">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D166">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E166">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4357,20 +4357,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a14 o16 t16</t>
+          <t>Psi s1 to2 g1 c3 a13 o16 t16</t>
         </is>
       </c>
       <c r="B167">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C167">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D167">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E167">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4381,20 +4381,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a15 o17 t17</t>
+          <t>Psi s1 to2 g1 c3 a14 o17 t17</t>
         </is>
       </c>
       <c r="B168">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C168">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D168">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E168">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4405,20 +4405,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a16 o18 t18</t>
+          <t>Psi s1 to2 g1 c3 a15 o18 t18</t>
         </is>
       </c>
       <c r="B169">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C169">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D169">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E169">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4429,20 +4429,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a17 o19 t19</t>
+          <t>Psi s1 to2 g1 c3 a16 o19 t19</t>
         </is>
       </c>
       <c r="B170">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C170">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D170">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E170">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -4453,20 +4453,20 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a18 o20 t20</t>
+          <t>Psi s1 to2 g1 c3 a17 o20 t20</t>
         </is>
       </c>
       <c r="B171">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C171">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D171">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E171">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -4477,20 +4477,20 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a19 o21 t21</t>
+          <t>Psi s1 to2 g1 c3 a18 o21 t21</t>
         </is>
       </c>
       <c r="B172">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C172">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D172">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E172">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4501,20 +4501,20 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a20 o22 t22</t>
+          <t>Psi s1 to2 g1 c3 a19 o22 t22</t>
         </is>
       </c>
       <c r="B173">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C173">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D173">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E173">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -4525,20 +4525,20 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a0 o3 t3</t>
+          <t>Psi s1 to2 g1 c4 a0 o4 t4</t>
         </is>
       </c>
       <c r="B174">
-        <v>0.1659721</v>
+        <v>0.1658845</v>
       </c>
       <c r="C174">
-        <v>0.0231378</v>
+        <v>0.0231061</v>
       </c>
       <c r="D174">
-        <v>0.1254217</v>
+        <v>0.1253862</v>
       </c>
       <c r="E174">
-        <v>0.2163892</v>
+        <v>0.2162295</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4549,20 +4549,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a1 o4 t4</t>
+          <t>Psi s1 to2 g1 c4 a1 o5 t5</t>
         </is>
       </c>
       <c r="B175">
-        <v>0.1659721</v>
+        <v>0.1658845</v>
       </c>
       <c r="C175">
-        <v>0.0231378</v>
+        <v>0.0231061</v>
       </c>
       <c r="D175">
-        <v>0.1254217</v>
+        <v>0.1253862</v>
       </c>
       <c r="E175">
-        <v>0.2163892</v>
+        <v>0.2162295</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -4573,20 +4573,20 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a2 o5 t5</t>
+          <t>Psi s1 to2 g1 c4 a2 o6 t6</t>
         </is>
       </c>
       <c r="B176">
-        <v>0.3292661</v>
+        <v>0.3304046</v>
       </c>
       <c r="C176">
-        <v>0.07092</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D176">
-        <v>0.2073609</v>
+        <v>0.2082123</v>
       </c>
       <c r="E176">
-        <v>0.4794852</v>
+        <v>0.4807655</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -4597,20 +4597,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a3 o6 t6</t>
+          <t>Psi s1 to2 g1 c4 a3 o7 t7</t>
         </is>
       </c>
       <c r="B177">
-        <v>0.2290448</v>
+        <v>0.2301323</v>
       </c>
       <c r="C177">
-        <v>0.0829921</v>
+        <v>0.0833187</v>
       </c>
       <c r="D177">
-        <v>0.1057516</v>
+        <v>0.1062818</v>
       </c>
       <c r="E177">
-        <v>0.4273834</v>
+        <v>0.4290245</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -4621,20 +4621,20 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a4 o7 t7</t>
+          <t>Psi s1 to2 g1 c4 a4 o8 t8</t>
         </is>
       </c>
       <c r="B178">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C178">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D178">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E178">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -4645,20 +4645,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a5 o8 t8</t>
+          <t>Psi s1 to2 g1 c4 a5 o9 t9</t>
         </is>
       </c>
       <c r="B179">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C179">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D179">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E179">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -4669,20 +4669,20 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a6 o9 t9</t>
+          <t>Psi s1 to2 g1 c4 a6 o10 t10</t>
         </is>
       </c>
       <c r="B180">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C180">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D180">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E180">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -4693,20 +4693,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a7 o10 t10</t>
+          <t>Psi s1 to2 g1 c4 a7 o11 t11</t>
         </is>
       </c>
       <c r="B181">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C181">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D181">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E181">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -4717,20 +4717,20 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a8 o11 t11</t>
+          <t>Psi s1 to2 g1 c4 a8 o12 t12</t>
         </is>
       </c>
       <c r="B182">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C182">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D182">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E182">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -4741,20 +4741,20 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a9 o12 t12</t>
+          <t>Psi s1 to2 g1 c4 a9 o13 t13</t>
         </is>
       </c>
       <c r="B183">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C183">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D183">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E183">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -4765,20 +4765,20 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a10 o13 t13</t>
+          <t>Psi s1 to2 g1 c4 a10 o14 t14</t>
         </is>
       </c>
       <c r="B184">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C184">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D184">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E184">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -4789,20 +4789,20 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a11 o14 t14</t>
+          <t>Psi s1 to2 g1 c4 a11 o15 t15</t>
         </is>
       </c>
       <c r="B185">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C185">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D185">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E185">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -4813,20 +4813,20 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a12 o15 t15</t>
+          <t>Psi s1 to2 g1 c4 a12 o16 t16</t>
         </is>
       </c>
       <c r="B186">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C186">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D186">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E186">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -4837,20 +4837,20 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a13 o16 t16</t>
+          <t>Psi s1 to2 g1 c4 a13 o17 t17</t>
         </is>
       </c>
       <c r="B187">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C187">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D187">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E187">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -4861,20 +4861,20 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a14 o17 t17</t>
+          <t>Psi s1 to2 g1 c4 a14 o18 t18</t>
         </is>
       </c>
       <c r="B188">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C188">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D188">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E188">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -4885,20 +4885,20 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a15 o18 t18</t>
+          <t>Psi s1 to2 g1 c4 a15 o19 t19</t>
         </is>
       </c>
       <c r="B189">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C189">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D189">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E189">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -4909,20 +4909,20 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a16 o19 t19</t>
+          <t>Psi s1 to2 g1 c4 a16 o20 t20</t>
         </is>
       </c>
       <c r="B190">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C190">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D190">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E190">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -4933,20 +4933,20 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a17 o20 t20</t>
+          <t>Psi s1 to2 g1 c4 a17 o21 t21</t>
         </is>
       </c>
       <c r="B191">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C191">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D191">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E191">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -4957,20 +4957,20 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a18 o21 t21</t>
+          <t>Psi s1 to2 g1 c4 a18 o22 t22</t>
         </is>
       </c>
       <c r="B192">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C192">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D192">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E192">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -4981,20 +4981,20 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a19 o22 t22</t>
+          <t>Psi s1 to2 g1 c5 a0 o5 t5</t>
         </is>
       </c>
       <c r="B193">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C193">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D193">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E193">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5005,20 +5005,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a0 o4 t4</t>
+          <t>Psi s1 to2 g1 c5 a1 o6 t6</t>
         </is>
       </c>
       <c r="B194">
-        <v>0.1659721</v>
+        <v>0.1658845</v>
       </c>
       <c r="C194">
-        <v>0.0231378</v>
+        <v>0.0231061</v>
       </c>
       <c r="D194">
-        <v>0.1254217</v>
+        <v>0.1253862</v>
       </c>
       <c r="E194">
-        <v>0.2163892</v>
+        <v>0.2162295</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -5029,20 +5029,20 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a1 o5 t5</t>
+          <t>Psi s1 to2 g1 c5 a2 o7 t7</t>
         </is>
       </c>
       <c r="B195">
-        <v>0.1659721</v>
+        <v>0.3304046</v>
       </c>
       <c r="C195">
-        <v>0.0231378</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D195">
-        <v>0.1254217</v>
+        <v>0.2082123</v>
       </c>
       <c r="E195">
-        <v>0.2163892</v>
+        <v>0.4807655</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -5053,20 +5053,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a2 o6 t6</t>
+          <t>Psi s1 to2 g1 c5 a3 o8 t8</t>
         </is>
       </c>
       <c r="B196">
-        <v>0.3292661</v>
+        <v>0.2301323</v>
       </c>
       <c r="C196">
-        <v>0.07092</v>
+        <v>0.0833187</v>
       </c>
       <c r="D196">
-        <v>0.2073609</v>
+        <v>0.1062818</v>
       </c>
       <c r="E196">
-        <v>0.4794852</v>
+        <v>0.4290245</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -5077,20 +5077,20 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a3 o7 t7</t>
+          <t>Psi s1 to2 g1 c5 a4 o9 t9</t>
         </is>
       </c>
       <c r="B197">
-        <v>0.2290448</v>
+        <v>0.1412995</v>
       </c>
       <c r="C197">
-        <v>0.0829921</v>
+        <v>0.051066</v>
       </c>
       <c r="D197">
-        <v>0.1057516</v>
+        <v>0.0672671</v>
       </c>
       <c r="E197">
-        <v>0.4273834</v>
+        <v>0.2729651</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -5101,20 +5101,20 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a4 o8 t8</t>
+          <t>Psi s1 to2 g1 c5 a5 o10 t10</t>
         </is>
       </c>
       <c r="B198">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C198">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D198">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E198">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -5125,20 +5125,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a5 o9 t9</t>
+          <t>Psi s1 to2 g1 c5 a6 o11 t11</t>
         </is>
       </c>
       <c r="B199">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C199">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D199">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E199">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -5149,20 +5149,20 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a6 o10 t10</t>
+          <t>Psi s1 to2 g1 c5 a7 o12 t12</t>
         </is>
       </c>
       <c r="B200">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C200">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D200">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E200">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -5173,20 +5173,20 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a7 o11 t11</t>
+          <t>Psi s1 to2 g1 c5 a8 o13 t13</t>
         </is>
       </c>
       <c r="B201">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C201">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D201">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E201">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -5197,20 +5197,20 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a8 o12 t12</t>
+          <t>Psi s1 to2 g1 c5 a9 o14 t14</t>
         </is>
       </c>
       <c r="B202">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C202">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D202">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E202">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -5221,20 +5221,20 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a9 o13 t13</t>
+          <t>Psi s1 to2 g1 c5 a10 o15 t15</t>
         </is>
       </c>
       <c r="B203">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C203">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D203">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E203">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -5245,20 +5245,20 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a10 o14 t14</t>
+          <t>Psi s1 to2 g1 c5 a11 o16 t16</t>
         </is>
       </c>
       <c r="B204">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C204">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D204">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E204">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -5269,20 +5269,20 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a11 o15 t15</t>
+          <t>Psi s1 to2 g1 c5 a12 o17 t17</t>
         </is>
       </c>
       <c r="B205">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C205">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D205">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E205">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -5293,20 +5293,20 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a12 o16 t16</t>
+          <t>Psi s1 to2 g1 c5 a13 o18 t18</t>
         </is>
       </c>
       <c r="B206">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C206">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D206">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E206">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -5317,20 +5317,20 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a13 o17 t17</t>
+          <t>Psi s1 to2 g1 c5 a14 o19 t19</t>
         </is>
       </c>
       <c r="B207">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C207">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D207">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E207">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -5341,20 +5341,20 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a14 o18 t18</t>
+          <t>Psi s1 to2 g1 c5 a15 o20 t20</t>
         </is>
       </c>
       <c r="B208">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C208">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D208">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E208">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -5365,20 +5365,20 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a15 o19 t19</t>
+          <t>Psi s1 to2 g1 c5 a16 o21 t21</t>
         </is>
       </c>
       <c r="B209">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C209">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D209">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E209">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -5389,20 +5389,20 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a16 o20 t20</t>
+          <t>Psi s1 to2 g1 c5 a17 o22 t22</t>
         </is>
       </c>
       <c r="B210">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C210">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D210">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E210">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -5413,20 +5413,20 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a17 o21 t21</t>
+          <t>Psi s1 to2 g1 c6 a0 o6 t6</t>
         </is>
       </c>
       <c r="B211">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C211">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D211">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E211">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -5437,20 +5437,20 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a18 o22 t22</t>
+          <t>Psi s1 to2 g1 c6 a1 o7 t7</t>
         </is>
       </c>
       <c r="B212">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C212">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D212">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E212">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -5461,20 +5461,20 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a0 o5 t5</t>
+          <t>Psi s1 to2 g1 c6 a2 o8 t8</t>
         </is>
       </c>
       <c r="B213">
-        <v>0.1659721</v>
+        <v>0.3304046</v>
       </c>
       <c r="C213">
-        <v>0.0231378</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D213">
-        <v>0.1254217</v>
+        <v>0.2082123</v>
       </c>
       <c r="E213">
-        <v>0.2163892</v>
+        <v>0.4807655</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -5485,20 +5485,20 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a1 o6 t6</t>
+          <t>Psi s1 to2 g1 c6 a3 o9 t9</t>
         </is>
       </c>
       <c r="B214">
-        <v>0.1659721</v>
+        <v>0.2301323</v>
       </c>
       <c r="C214">
-        <v>0.0231378</v>
+        <v>0.0833187</v>
       </c>
       <c r="D214">
-        <v>0.1254217</v>
+        <v>0.1062818</v>
       </c>
       <c r="E214">
-        <v>0.2163892</v>
+        <v>0.4290245</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -5509,20 +5509,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a2 o7 t7</t>
+          <t>Psi s1 to2 g1 c6 a4 o10 t10</t>
         </is>
       </c>
       <c r="B215">
-        <v>0.3292661</v>
+        <v>0.1412995</v>
       </c>
       <c r="C215">
-        <v>0.07092</v>
+        <v>0.051066</v>
       </c>
       <c r="D215">
-        <v>0.2073609</v>
+        <v>0.0672671</v>
       </c>
       <c r="E215">
-        <v>0.4794852</v>
+        <v>0.2729651</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -5533,20 +5533,20 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a3 o8 t8</t>
+          <t>Psi s1 to2 g1 c6 a5 o11 t11</t>
         </is>
       </c>
       <c r="B216">
-        <v>0.2290448</v>
+        <v>0.1412995</v>
       </c>
       <c r="C216">
-        <v>0.0829921</v>
+        <v>0.051066</v>
       </c>
       <c r="D216">
-        <v>0.1057516</v>
+        <v>0.0672671</v>
       </c>
       <c r="E216">
-        <v>0.4273834</v>
+        <v>0.2729651</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -5557,20 +5557,20 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a4 o9 t9</t>
+          <t>Psi s1 to2 g1 c6 a6 o12 t12</t>
         </is>
       </c>
       <c r="B217">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C217">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D217">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E217">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -5581,20 +5581,20 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a5 o10 t10</t>
+          <t>Psi s1 to2 g1 c6 a7 o13 t13</t>
         </is>
       </c>
       <c r="B218">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C218">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D218">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E218">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -5605,20 +5605,20 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a6 o11 t11</t>
+          <t>Psi s1 to2 g1 c6 a8 o14 t14</t>
         </is>
       </c>
       <c r="B219">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C219">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D219">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E219">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -5629,20 +5629,20 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a7 o12 t12</t>
+          <t>Psi s1 to2 g1 c6 a9 o15 t15</t>
         </is>
       </c>
       <c r="B220">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C220">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D220">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E220">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -5653,20 +5653,20 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a8 o13 t13</t>
+          <t>Psi s1 to2 g1 c6 a10 o16 t16</t>
         </is>
       </c>
       <c r="B221">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C221">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D221">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E221">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -5677,20 +5677,20 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a9 o14 t14</t>
+          <t>Psi s1 to2 g1 c6 a11 o17 t17</t>
         </is>
       </c>
       <c r="B222">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C222">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D222">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E222">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -5701,20 +5701,20 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a10 o15 t15</t>
+          <t>Psi s1 to2 g1 c6 a12 o18 t18</t>
         </is>
       </c>
       <c r="B223">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C223">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D223">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E223">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -5725,20 +5725,20 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a11 o16 t16</t>
+          <t>Psi s1 to2 g1 c6 a13 o19 t19</t>
         </is>
       </c>
       <c r="B224">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C224">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D224">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E224">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -5749,20 +5749,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a12 o17 t17</t>
+          <t>Psi s1 to2 g1 c6 a14 o20 t20</t>
         </is>
       </c>
       <c r="B225">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C225">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D225">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E225">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -5773,20 +5773,20 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a13 o18 t18</t>
+          <t>Psi s1 to2 g1 c6 a15 o21 t21</t>
         </is>
       </c>
       <c r="B226">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C226">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D226">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E226">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -5797,20 +5797,20 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a14 o19 t19</t>
+          <t>Psi s1 to2 g1 c6 a16 o22 t22</t>
         </is>
       </c>
       <c r="B227">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C227">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D227">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E227">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -5821,20 +5821,20 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a15 o20 t20</t>
+          <t>Psi s1 to2 g1 c7 a0 o7 t7</t>
         </is>
       </c>
       <c r="B228">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C228">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D228">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E228">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -5845,20 +5845,20 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a16 o21 t21</t>
+          <t>Psi s1 to2 g1 c7 a1 o8 t8</t>
         </is>
       </c>
       <c r="B229">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C229">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D229">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E229">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -5869,20 +5869,20 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a17 o22 t22</t>
+          <t>Psi s1 to2 g1 c7 a2 o9 t9</t>
         </is>
       </c>
       <c r="B230">
-        <v>0.1406788</v>
+        <v>0.3304046</v>
       </c>
       <c r="C230">
-        <v>0.0508967</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D230">
-        <v>0.0669278</v>
+        <v>0.2082123</v>
       </c>
       <c r="E230">
-        <v>0.272008</v>
+        <v>0.4807655</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -5893,20 +5893,20 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a0 o6 t6</t>
+          <t>Psi s1 to2 g1 c7 a3 o10 t10</t>
         </is>
       </c>
       <c r="B231">
-        <v>0.1659721</v>
+        <v>0.2301323</v>
       </c>
       <c r="C231">
-        <v>0.0231378</v>
+        <v>0.0833187</v>
       </c>
       <c r="D231">
-        <v>0.1254217</v>
+        <v>0.1062818</v>
       </c>
       <c r="E231">
-        <v>0.2163892</v>
+        <v>0.4290245</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -5917,20 +5917,20 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a1 o7 t7</t>
+          <t>Psi s1 to2 g1 c7 a4 o11 t11</t>
         </is>
       </c>
       <c r="B232">
-        <v>0.1659721</v>
+        <v>0.1412995</v>
       </c>
       <c r="C232">
-        <v>0.0231378</v>
+        <v>0.051066</v>
       </c>
       <c r="D232">
-        <v>0.1254217</v>
+        <v>0.0672671</v>
       </c>
       <c r="E232">
-        <v>0.2163892</v>
+        <v>0.2729651</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -5941,20 +5941,20 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a2 o8 t8</t>
+          <t>Psi s1 to2 g1 c7 a5 o12 t12</t>
         </is>
       </c>
       <c r="B233">
-        <v>0.3292661</v>
+        <v>0.1412995</v>
       </c>
       <c r="C233">
-        <v>0.07092</v>
+        <v>0.051066</v>
       </c>
       <c r="D233">
-        <v>0.2073609</v>
+        <v>0.0672671</v>
       </c>
       <c r="E233">
-        <v>0.4794852</v>
+        <v>0.2729651</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -5965,20 +5965,20 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a3 o9 t9</t>
+          <t>Psi s1 to2 g1 c7 a6 o13 t13</t>
         </is>
       </c>
       <c r="B234">
-        <v>0.2290448</v>
+        <v>0.1412995</v>
       </c>
       <c r="C234">
-        <v>0.0829921</v>
+        <v>0.051066</v>
       </c>
       <c r="D234">
-        <v>0.1057516</v>
+        <v>0.0672671</v>
       </c>
       <c r="E234">
-        <v>0.4273834</v>
+        <v>0.2729651</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -5989,20 +5989,20 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a4 o10 t10</t>
+          <t>Psi s1 to2 g1 c7 a7 o14 t14</t>
         </is>
       </c>
       <c r="B235">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C235">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D235">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E235">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -6013,20 +6013,20 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a5 o11 t11</t>
+          <t>Psi s1 to2 g1 c7 a8 o15 t15</t>
         </is>
       </c>
       <c r="B236">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C236">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D236">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E236">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -6037,20 +6037,20 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a6 o12 t12</t>
+          <t>Psi s1 to2 g1 c7 a9 o16 t16</t>
         </is>
       </c>
       <c r="B237">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C237">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D237">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E237">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -6061,20 +6061,20 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a7 o13 t13</t>
+          <t>Psi s1 to2 g1 c7 a10 o17 t17</t>
         </is>
       </c>
       <c r="B238">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C238">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D238">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E238">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -6085,20 +6085,20 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a8 o14 t14</t>
+          <t>Psi s1 to2 g1 c7 a11 o18 t18</t>
         </is>
       </c>
       <c r="B239">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C239">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D239">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E239">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -6109,20 +6109,20 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a9 o15 t15</t>
+          <t>Psi s1 to2 g1 c7 a12 o19 t19</t>
         </is>
       </c>
       <c r="B240">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C240">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D240">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E240">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -6133,20 +6133,20 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a10 o16 t16</t>
+          <t>Psi s1 to2 g1 c7 a13 o20 t20</t>
         </is>
       </c>
       <c r="B241">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C241">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D241">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E241">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -6157,20 +6157,20 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a11 o17 t17</t>
+          <t>Psi s1 to2 g1 c7 a14 o21 t21</t>
         </is>
       </c>
       <c r="B242">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C242">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D242">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E242">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -6181,20 +6181,20 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a12 o18 t18</t>
+          <t>Psi s1 to2 g1 c7 a15 o22 t22</t>
         </is>
       </c>
       <c r="B243">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C243">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D243">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E243">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -6205,20 +6205,20 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a13 o19 t19</t>
+          <t>Psi s1 to2 g1 c8 a0 o8 t8</t>
         </is>
       </c>
       <c r="B244">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C244">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D244">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E244">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -6229,20 +6229,20 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a14 o20 t20</t>
+          <t>Psi s1 to2 g1 c8 a1 o9 t9</t>
         </is>
       </c>
       <c r="B245">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C245">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D245">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E245">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -6253,20 +6253,20 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a15 o21 t21</t>
+          <t>Psi s1 to2 g1 c8 a2 o10 t10</t>
         </is>
       </c>
       <c r="B246">
-        <v>0.1406788</v>
+        <v>0.3304046</v>
       </c>
       <c r="C246">
-        <v>0.0508967</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D246">
-        <v>0.0669278</v>
+        <v>0.2082123</v>
       </c>
       <c r="E246">
-        <v>0.272008</v>
+        <v>0.4807655</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -6277,20 +6277,20 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a16 o22 t22</t>
+          <t>Psi s1 to2 g1 c8 a3 o11 t11</t>
         </is>
       </c>
       <c r="B247">
-        <v>0.1406788</v>
+        <v>0.2301323</v>
       </c>
       <c r="C247">
-        <v>0.0508967</v>
+        <v>0.0833187</v>
       </c>
       <c r="D247">
-        <v>0.0669278</v>
+        <v>0.1062818</v>
       </c>
       <c r="E247">
-        <v>0.272008</v>
+        <v>0.4290245</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -6301,20 +6301,20 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a0 o7 t7</t>
+          <t>Psi s1 to2 g1 c8 a4 o12 t12</t>
         </is>
       </c>
       <c r="B248">
-        <v>0.1659721</v>
+        <v>0.1412995</v>
       </c>
       <c r="C248">
-        <v>0.0231378</v>
+        <v>0.051066</v>
       </c>
       <c r="D248">
-        <v>0.1254217</v>
+        <v>0.0672671</v>
       </c>
       <c r="E248">
-        <v>0.2163892</v>
+        <v>0.2729651</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -6325,20 +6325,20 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a1 o8 t8</t>
+          <t>Psi s1 to2 g1 c8 a5 o13 t13</t>
         </is>
       </c>
       <c r="B249">
-        <v>0.1659721</v>
+        <v>0.1412995</v>
       </c>
       <c r="C249">
-        <v>0.0231378</v>
+        <v>0.051066</v>
       </c>
       <c r="D249">
-        <v>0.1254217</v>
+        <v>0.0672671</v>
       </c>
       <c r="E249">
-        <v>0.2163892</v>
+        <v>0.2729651</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -6349,20 +6349,20 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a2 o9 t9</t>
+          <t>Psi s1 to2 g1 c8 a6 o14 t14</t>
         </is>
       </c>
       <c r="B250">
-        <v>0.3292661</v>
+        <v>0.1412995</v>
       </c>
       <c r="C250">
-        <v>0.07092</v>
+        <v>0.051066</v>
       </c>
       <c r="D250">
-        <v>0.2073609</v>
+        <v>0.0672671</v>
       </c>
       <c r="E250">
-        <v>0.4794852</v>
+        <v>0.2729651</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -6373,20 +6373,20 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a3 o10 t10</t>
+          <t>Psi s1 to2 g1 c8 a7 o15 t15</t>
         </is>
       </c>
       <c r="B251">
-        <v>0.2290448</v>
+        <v>0.1412995</v>
       </c>
       <c r="C251">
-        <v>0.0829921</v>
+        <v>0.051066</v>
       </c>
       <c r="D251">
-        <v>0.1057516</v>
+        <v>0.0672671</v>
       </c>
       <c r="E251">
-        <v>0.4273834</v>
+        <v>0.2729651</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -6397,20 +6397,20 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a4 o11 t11</t>
+          <t>Psi s1 to2 g1 c8 a8 o16 t16</t>
         </is>
       </c>
       <c r="B252">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C252">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D252">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E252">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -6421,20 +6421,20 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a5 o12 t12</t>
+          <t>Psi s1 to2 g1 c8 a9 o17 t17</t>
         </is>
       </c>
       <c r="B253">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C253">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D253">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E253">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -6445,20 +6445,20 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a6 o13 t13</t>
+          <t>Psi s1 to2 g1 c8 a10 o18 t18</t>
         </is>
       </c>
       <c r="B254">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C254">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D254">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E254">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -6469,20 +6469,20 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a7 o14 t14</t>
+          <t>Psi s1 to2 g1 c8 a11 o19 t19</t>
         </is>
       </c>
       <c r="B255">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C255">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D255">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E255">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -6493,20 +6493,20 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a8 o15 t15</t>
+          <t>Psi s1 to2 g1 c8 a12 o20 t20</t>
         </is>
       </c>
       <c r="B256">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C256">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D256">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E256">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -6517,20 +6517,20 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a9 o16 t16</t>
+          <t>Psi s1 to2 g1 c8 a13 o21 t21</t>
         </is>
       </c>
       <c r="B257">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C257">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D257">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E257">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -6541,20 +6541,20 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a10 o17 t17</t>
+          <t>Psi s1 to2 g1 c8 a14 o22 t22</t>
         </is>
       </c>
       <c r="B258">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C258">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D258">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E258">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -6565,20 +6565,20 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a11 o18 t18</t>
+          <t>Psi s1 to2 g1 c9 a0 o9 t9</t>
         </is>
       </c>
       <c r="B259">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C259">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D259">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E259">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -6589,20 +6589,20 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a12 o19 t19</t>
+          <t>Psi s1 to2 g1 c9 a1 o10 t10</t>
         </is>
       </c>
       <c r="B260">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C260">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D260">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E260">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -6613,20 +6613,20 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a13 o20 t20</t>
+          <t>Psi s1 to2 g1 c9 a2 o11 t11</t>
         </is>
       </c>
       <c r="B261">
-        <v>0.1406788</v>
+        <v>0.3304046</v>
       </c>
       <c r="C261">
-        <v>0.0508967</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D261">
-        <v>0.0669278</v>
+        <v>0.2082123</v>
       </c>
       <c r="E261">
-        <v>0.272008</v>
+        <v>0.4807655</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -6637,20 +6637,20 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a14 o21 t21</t>
+          <t>Psi s1 to2 g1 c9 a3 o12 t12</t>
         </is>
       </c>
       <c r="B262">
-        <v>0.1406788</v>
+        <v>0.2301323</v>
       </c>
       <c r="C262">
-        <v>0.0508967</v>
+        <v>0.0833187</v>
       </c>
       <c r="D262">
-        <v>0.0669278</v>
+        <v>0.1062818</v>
       </c>
       <c r="E262">
-        <v>0.272008</v>
+        <v>0.4290245</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -6661,20 +6661,20 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a15 o22 t22</t>
+          <t>Psi s1 to2 g1 c9 a4 o13 t13</t>
         </is>
       </c>
       <c r="B263">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C263">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D263">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E263">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -6685,20 +6685,20 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a0 o8 t8</t>
+          <t>Psi s1 to2 g1 c9 a5 o14 t14</t>
         </is>
       </c>
       <c r="B264">
-        <v>0.1659721</v>
+        <v>0.1412995</v>
       </c>
       <c r="C264">
-        <v>0.0231378</v>
+        <v>0.051066</v>
       </c>
       <c r="D264">
-        <v>0.1254217</v>
+        <v>0.0672671</v>
       </c>
       <c r="E264">
-        <v>0.2163892</v>
+        <v>0.2729651</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -6709,20 +6709,20 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a1 o9 t9</t>
+          <t>Psi s1 to2 g1 c9 a6 o15 t15</t>
         </is>
       </c>
       <c r="B265">
-        <v>0.1659721</v>
+        <v>0.1412995</v>
       </c>
       <c r="C265">
-        <v>0.0231378</v>
+        <v>0.051066</v>
       </c>
       <c r="D265">
-        <v>0.1254217</v>
+        <v>0.0672671</v>
       </c>
       <c r="E265">
-        <v>0.2163892</v>
+        <v>0.2729651</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -6733,20 +6733,20 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a2 o10 t10</t>
+          <t>Psi s1 to2 g1 c9 a7 o16 t16</t>
         </is>
       </c>
       <c r="B266">
-        <v>0.3292661</v>
+        <v>0.1412995</v>
       </c>
       <c r="C266">
-        <v>0.07092</v>
+        <v>0.051066</v>
       </c>
       <c r="D266">
-        <v>0.2073609</v>
+        <v>0.0672671</v>
       </c>
       <c r="E266">
-        <v>0.4794852</v>
+        <v>0.2729651</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -6757,20 +6757,20 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a3 o11 t11</t>
+          <t>Psi s1 to2 g1 c9 a8 o17 t17</t>
         </is>
       </c>
       <c r="B267">
-        <v>0.2290448</v>
+        <v>0.1412995</v>
       </c>
       <c r="C267">
-        <v>0.0829921</v>
+        <v>0.051066</v>
       </c>
       <c r="D267">
-        <v>0.1057516</v>
+        <v>0.0672671</v>
       </c>
       <c r="E267">
-        <v>0.4273834</v>
+        <v>0.2729651</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -6781,20 +6781,20 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a4 o12 t12</t>
+          <t>Psi s1 to2 g1 c9 a9 o18 t18</t>
         </is>
       </c>
       <c r="B268">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C268">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D268">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E268">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -6805,20 +6805,20 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a5 o13 t13</t>
+          <t>Psi s1 to2 g1 c9 a10 o19 t19</t>
         </is>
       </c>
       <c r="B269">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C269">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D269">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E269">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -6829,20 +6829,20 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a6 o14 t14</t>
+          <t>Psi s1 to2 g1 c9 a11 o20 t20</t>
         </is>
       </c>
       <c r="B270">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C270">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D270">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E270">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -6853,20 +6853,20 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a7 o15 t15</t>
+          <t>Psi s1 to2 g1 c9 a12 o21 t21</t>
         </is>
       </c>
       <c r="B271">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C271">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D271">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E271">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -6877,20 +6877,20 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a8 o16 t16</t>
+          <t>Psi s1 to2 g1 c9 a13 o22 t22</t>
         </is>
       </c>
       <c r="B272">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C272">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D272">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E272">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -6901,20 +6901,20 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a9 o17 t17</t>
+          <t>Psi s1 to2 g1 c10 a0 o10 t10</t>
         </is>
       </c>
       <c r="B273">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C273">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D273">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E273">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -6925,20 +6925,20 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a10 o18 t18</t>
+          <t>Psi s1 to2 g1 c10 a1 o11 t11</t>
         </is>
       </c>
       <c r="B274">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C274">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D274">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E274">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -6949,20 +6949,20 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a11 o19 t19</t>
+          <t>Psi s1 to2 g1 c10 a2 o12 t12</t>
         </is>
       </c>
       <c r="B275">
-        <v>0.1406788</v>
+        <v>0.3304046</v>
       </c>
       <c r="C275">
-        <v>0.0508967</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D275">
-        <v>0.0669278</v>
+        <v>0.2082123</v>
       </c>
       <c r="E275">
-        <v>0.272008</v>
+        <v>0.4807655</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -6973,20 +6973,20 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a12 o20 t20</t>
+          <t>Psi s1 to2 g1 c10 a3 o13 t13</t>
         </is>
       </c>
       <c r="B276">
-        <v>0.1406788</v>
+        <v>0.2301323</v>
       </c>
       <c r="C276">
-        <v>0.0508967</v>
+        <v>0.0833187</v>
       </c>
       <c r="D276">
-        <v>0.0669278</v>
+        <v>0.1062818</v>
       </c>
       <c r="E276">
-        <v>0.272008</v>
+        <v>0.4290245</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -6997,20 +6997,20 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a13 o21 t21</t>
+          <t>Psi s1 to2 g1 c10 a4 o14 t14</t>
         </is>
       </c>
       <c r="B277">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C277">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D277">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E277">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -7021,20 +7021,20 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a14 o22 t22</t>
+          <t>Psi s1 to2 g1 c10 a5 o15 t15</t>
         </is>
       </c>
       <c r="B278">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C278">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D278">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E278">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -7045,20 +7045,20 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a0 o9 t9</t>
+          <t>Psi s1 to2 g1 c10 a6 o16 t16</t>
         </is>
       </c>
       <c r="B279">
-        <v>0.1659721</v>
+        <v>0.1412995</v>
       </c>
       <c r="C279">
-        <v>0.0231378</v>
+        <v>0.051066</v>
       </c>
       <c r="D279">
-        <v>0.1254217</v>
+        <v>0.0672671</v>
       </c>
       <c r="E279">
-        <v>0.2163892</v>
+        <v>0.2729651</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -7069,20 +7069,20 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a1 o10 t10</t>
+          <t>Psi s1 to2 g1 c10 a7 o17 t17</t>
         </is>
       </c>
       <c r="B280">
-        <v>0.1659721</v>
+        <v>0.1412995</v>
       </c>
       <c r="C280">
-        <v>0.0231378</v>
+        <v>0.051066</v>
       </c>
       <c r="D280">
-        <v>0.1254217</v>
+        <v>0.0672671</v>
       </c>
       <c r="E280">
-        <v>0.2163892</v>
+        <v>0.2729651</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -7093,20 +7093,20 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a2 o11 t11</t>
+          <t>Psi s1 to2 g1 c10 a8 o18 t18</t>
         </is>
       </c>
       <c r="B281">
-        <v>0.3292661</v>
+        <v>0.1412995</v>
       </c>
       <c r="C281">
-        <v>0.07092</v>
+        <v>0.051066</v>
       </c>
       <c r="D281">
-        <v>0.2073609</v>
+        <v>0.0672671</v>
       </c>
       <c r="E281">
-        <v>0.4794852</v>
+        <v>0.2729651</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -7117,20 +7117,20 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a3 o12 t12</t>
+          <t>Psi s1 to2 g1 c10 a9 o19 t19</t>
         </is>
       </c>
       <c r="B282">
-        <v>0.2290448</v>
+        <v>0.1412995</v>
       </c>
       <c r="C282">
-        <v>0.0829921</v>
+        <v>0.051066</v>
       </c>
       <c r="D282">
-        <v>0.1057516</v>
+        <v>0.0672671</v>
       </c>
       <c r="E282">
-        <v>0.4273834</v>
+        <v>0.2729651</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -7141,20 +7141,20 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a4 o13 t13</t>
+          <t>Psi s1 to2 g1 c10 a10 o20 t20</t>
         </is>
       </c>
       <c r="B283">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C283">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D283">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E283">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -7165,20 +7165,20 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a5 o14 t14</t>
+          <t>Psi s1 to2 g1 c10 a11 o21 t21</t>
         </is>
       </c>
       <c r="B284">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C284">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D284">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E284">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -7189,20 +7189,20 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a6 o15 t15</t>
+          <t>Psi s1 to2 g1 c10 a12 o22 t22</t>
         </is>
       </c>
       <c r="B285">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C285">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D285">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E285">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -7213,20 +7213,20 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a7 o16 t16</t>
+          <t>Psi s1 to2 g1 c11 a0 o11 t11</t>
         </is>
       </c>
       <c r="B286">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C286">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D286">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E286">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -7237,20 +7237,20 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a8 o17 t17</t>
+          <t>Psi s1 to2 g1 c11 a1 o12 t12</t>
         </is>
       </c>
       <c r="B287">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C287">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D287">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E287">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -7261,20 +7261,20 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a9 o18 t18</t>
+          <t>Psi s1 to2 g1 c11 a2 o13 t13</t>
         </is>
       </c>
       <c r="B288">
-        <v>0.1406788</v>
+        <v>0.3304046</v>
       </c>
       <c r="C288">
-        <v>0.0508967</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D288">
-        <v>0.0669278</v>
+        <v>0.2082123</v>
       </c>
       <c r="E288">
-        <v>0.272008</v>
+        <v>0.4807655</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -7285,20 +7285,20 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a10 o19 t19</t>
+          <t>Psi s1 to2 g1 c11 a3 o14 t14</t>
         </is>
       </c>
       <c r="B289">
-        <v>0.1406788</v>
+        <v>0.2301323</v>
       </c>
       <c r="C289">
-        <v>0.0508967</v>
+        <v>0.0833187</v>
       </c>
       <c r="D289">
-        <v>0.0669278</v>
+        <v>0.1062818</v>
       </c>
       <c r="E289">
-        <v>0.272008</v>
+        <v>0.4290245</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -7309,20 +7309,20 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a11 o20 t20</t>
+          <t>Psi s1 to2 g1 c11 a4 o15 t15</t>
         </is>
       </c>
       <c r="B290">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C290">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D290">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E290">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -7333,20 +7333,20 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a12 o21 t21</t>
+          <t>Psi s1 to2 g1 c11 a5 o16 t16</t>
         </is>
       </c>
       <c r="B291">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C291">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D291">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E291">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -7357,20 +7357,20 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a13 o22 t22</t>
+          <t>Psi s1 to2 g1 c11 a6 o17 t17</t>
         </is>
       </c>
       <c r="B292">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C292">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D292">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E292">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -7381,20 +7381,20 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a0 o10 t10</t>
+          <t>Psi s1 to2 g1 c11 a7 o18 t18</t>
         </is>
       </c>
       <c r="B293">
-        <v>0.1659721</v>
+        <v>0.1412995</v>
       </c>
       <c r="C293">
-        <v>0.0231378</v>
+        <v>0.051066</v>
       </c>
       <c r="D293">
-        <v>0.1254217</v>
+        <v>0.0672671</v>
       </c>
       <c r="E293">
-        <v>0.2163892</v>
+        <v>0.2729651</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -7405,20 +7405,20 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a1 o11 t11</t>
+          <t>Psi s1 to2 g1 c11 a8 o19 t19</t>
         </is>
       </c>
       <c r="B294">
-        <v>0.1659721</v>
+        <v>0.1412995</v>
       </c>
       <c r="C294">
-        <v>0.0231378</v>
+        <v>0.051066</v>
       </c>
       <c r="D294">
-        <v>0.1254217</v>
+        <v>0.0672671</v>
       </c>
       <c r="E294">
-        <v>0.2163892</v>
+        <v>0.2729651</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -7429,20 +7429,20 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a2 o12 t12</t>
+          <t>Psi s1 to2 g1 c11 a9 o20 t20</t>
         </is>
       </c>
       <c r="B295">
-        <v>0.3292661</v>
+        <v>0.1412995</v>
       </c>
       <c r="C295">
-        <v>0.07092</v>
+        <v>0.051066</v>
       </c>
       <c r="D295">
-        <v>0.2073609</v>
+        <v>0.0672671</v>
       </c>
       <c r="E295">
-        <v>0.4794852</v>
+        <v>0.2729651</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -7453,20 +7453,20 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a3 o13 t13</t>
+          <t>Psi s1 to2 g1 c11 a10 o21 t21</t>
         </is>
       </c>
       <c r="B296">
-        <v>0.2290448</v>
+        <v>0.1412995</v>
       </c>
       <c r="C296">
-        <v>0.0829921</v>
+        <v>0.051066</v>
       </c>
       <c r="D296">
-        <v>0.1057516</v>
+        <v>0.0672671</v>
       </c>
       <c r="E296">
-        <v>0.4273834</v>
+        <v>0.2729651</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -7477,20 +7477,20 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a4 o14 t14</t>
+          <t>Psi s1 to2 g1 c11 a11 o22 t22</t>
         </is>
       </c>
       <c r="B297">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C297">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D297">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E297">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -7501,20 +7501,20 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a5 o15 t15</t>
+          <t>Psi s1 to2 g1 c12 a0 o12 t12</t>
         </is>
       </c>
       <c r="B298">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C298">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D298">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E298">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -7525,20 +7525,20 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a6 o16 t16</t>
+          <t>Psi s1 to2 g1 c12 a1 o13 t13</t>
         </is>
       </c>
       <c r="B299">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C299">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D299">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E299">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -7549,20 +7549,20 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a7 o17 t17</t>
+          <t>Psi s1 to2 g1 c12 a2 o14 t14</t>
         </is>
       </c>
       <c r="B300">
-        <v>0.1406788</v>
+        <v>0.3304046</v>
       </c>
       <c r="C300">
-        <v>0.0508967</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D300">
-        <v>0.0669278</v>
+        <v>0.2082123</v>
       </c>
       <c r="E300">
-        <v>0.272008</v>
+        <v>0.4807655</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -7573,20 +7573,20 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a8 o18 t18</t>
+          <t>Psi s1 to2 g1 c12 a3 o15 t15</t>
         </is>
       </c>
       <c r="B301">
-        <v>0.1406788</v>
+        <v>0.2301323</v>
       </c>
       <c r="C301">
-        <v>0.0508967</v>
+        <v>0.0833187</v>
       </c>
       <c r="D301">
-        <v>0.0669278</v>
+        <v>0.1062818</v>
       </c>
       <c r="E301">
-        <v>0.272008</v>
+        <v>0.4290245</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -7597,20 +7597,20 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a9 o19 t19</t>
+          <t>Psi s1 to2 g1 c12 a4 o16 t16</t>
         </is>
       </c>
       <c r="B302">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C302">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D302">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E302">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -7621,20 +7621,20 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a10 o20 t20</t>
+          <t>Psi s1 to2 g1 c12 a5 o17 t17</t>
         </is>
       </c>
       <c r="B303">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C303">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D303">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E303">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -7645,20 +7645,20 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a11 o21 t21</t>
+          <t>Psi s1 to2 g1 c12 a6 o18 t18</t>
         </is>
       </c>
       <c r="B304">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C304">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D304">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E304">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -7669,20 +7669,20 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a12 o22 t22</t>
+          <t>Psi s1 to2 g1 c12 a7 o19 t19</t>
         </is>
       </c>
       <c r="B305">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C305">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D305">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E305">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -7693,20 +7693,20 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a0 o11 t11</t>
+          <t>Psi s1 to2 g1 c12 a8 o20 t20</t>
         </is>
       </c>
       <c r="B306">
-        <v>0.1659721</v>
+        <v>0.1412995</v>
       </c>
       <c r="C306">
-        <v>0.0231378</v>
+        <v>0.051066</v>
       </c>
       <c r="D306">
-        <v>0.1254217</v>
+        <v>0.0672671</v>
       </c>
       <c r="E306">
-        <v>0.2163892</v>
+        <v>0.2729651</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -7717,20 +7717,20 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a1 o12 t12</t>
+          <t>Psi s1 to2 g1 c12 a9 o21 t21</t>
         </is>
       </c>
       <c r="B307">
-        <v>0.1659721</v>
+        <v>0.1412995</v>
       </c>
       <c r="C307">
-        <v>0.0231378</v>
+        <v>0.051066</v>
       </c>
       <c r="D307">
-        <v>0.1254217</v>
+        <v>0.0672671</v>
       </c>
       <c r="E307">
-        <v>0.2163892</v>
+        <v>0.2729651</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -7741,20 +7741,20 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a2 o13 t13</t>
+          <t>Psi s1 to2 g1 c12 a10 o22 t22</t>
         </is>
       </c>
       <c r="B308">
-        <v>0.3292661</v>
+        <v>0.1412995</v>
       </c>
       <c r="C308">
-        <v>0.07092</v>
+        <v>0.051066</v>
       </c>
       <c r="D308">
-        <v>0.2073609</v>
+        <v>0.0672671</v>
       </c>
       <c r="E308">
-        <v>0.4794852</v>
+        <v>0.2729651</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -7765,20 +7765,20 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a3 o14 t14</t>
+          <t>Psi s1 to2 g1 c13 a0 o13 t13</t>
         </is>
       </c>
       <c r="B309">
-        <v>0.2290448</v>
+        <v>0.1658845</v>
       </c>
       <c r="C309">
-        <v>0.0829921</v>
+        <v>0.0231061</v>
       </c>
       <c r="D309">
-        <v>0.1057516</v>
+        <v>0.1253862</v>
       </c>
       <c r="E309">
-        <v>0.4273834</v>
+        <v>0.2162295</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -7789,20 +7789,20 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a4 o15 t15</t>
+          <t>Psi s1 to2 g1 c13 a1 o14 t14</t>
         </is>
       </c>
       <c r="B310">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C310">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D310">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E310">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -7813,20 +7813,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a5 o16 t16</t>
+          <t>Psi s1 to2 g1 c13 a2 o15 t15</t>
         </is>
       </c>
       <c r="B311">
-        <v>0.1406788</v>
+        <v>0.3304046</v>
       </c>
       <c r="C311">
-        <v>0.0508967</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D311">
-        <v>0.0669278</v>
+        <v>0.2082123</v>
       </c>
       <c r="E311">
-        <v>0.272008</v>
+        <v>0.4807655</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -7837,20 +7837,20 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a6 o17 t17</t>
+          <t>Psi s1 to2 g1 c13 a3 o16 t16</t>
         </is>
       </c>
       <c r="B312">
-        <v>0.1406788</v>
+        <v>0.2301323</v>
       </c>
       <c r="C312">
-        <v>0.0508967</v>
+        <v>0.0833187</v>
       </c>
       <c r="D312">
-        <v>0.0669278</v>
+        <v>0.1062818</v>
       </c>
       <c r="E312">
-        <v>0.272008</v>
+        <v>0.4290245</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -7861,20 +7861,20 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a7 o18 t18</t>
+          <t>Psi s1 to2 g1 c13 a4 o17 t17</t>
         </is>
       </c>
       <c r="B313">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C313">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D313">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E313">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -7885,20 +7885,20 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a8 o19 t19</t>
+          <t>Psi s1 to2 g1 c13 a5 o18 t18</t>
         </is>
       </c>
       <c r="B314">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C314">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D314">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E314">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -7909,20 +7909,20 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a9 o20 t20</t>
+          <t>Psi s1 to2 g1 c13 a6 o19 t19</t>
         </is>
       </c>
       <c r="B315">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C315">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D315">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E315">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -7933,20 +7933,20 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a10 o21 t21</t>
+          <t>Psi s1 to2 g1 c13 a7 o20 t20</t>
         </is>
       </c>
       <c r="B316">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C316">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D316">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E316">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -7957,20 +7957,20 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a11 o22 t22</t>
+          <t>Psi s1 to2 g1 c13 a8 o21 t21</t>
         </is>
       </c>
       <c r="B317">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C317">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D317">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E317">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -7981,20 +7981,20 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a0 o12 t12</t>
+          <t>Psi s1 to2 g1 c13 a9 o22 t22</t>
         </is>
       </c>
       <c r="B318">
-        <v>0.1659721</v>
+        <v>0.1412995</v>
       </c>
       <c r="C318">
-        <v>0.0231378</v>
+        <v>0.051066</v>
       </c>
       <c r="D318">
-        <v>0.1254217</v>
+        <v>0.0672671</v>
       </c>
       <c r="E318">
-        <v>0.2163892</v>
+        <v>0.2729651</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -8005,20 +8005,20 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a1 o13 t13</t>
+          <t>Psi s1 to2 g1 c14 a0 o14 t14</t>
         </is>
       </c>
       <c r="B319">
-        <v>0.1659721</v>
+        <v>0.1658845</v>
       </c>
       <c r="C319">
-        <v>0.0231378</v>
+        <v>0.0231061</v>
       </c>
       <c r="D319">
-        <v>0.1254217</v>
+        <v>0.1253862</v>
       </c>
       <c r="E319">
-        <v>0.2163892</v>
+        <v>0.2162295</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -8029,20 +8029,20 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a2 o14 t14</t>
+          <t>Psi s1 to2 g1 c14 a1 o15 t15</t>
         </is>
       </c>
       <c r="B320">
-        <v>0.3292661</v>
+        <v>0.1658845</v>
       </c>
       <c r="C320">
-        <v>0.07092</v>
+        <v>0.0231061</v>
       </c>
       <c r="D320">
-        <v>0.2073609</v>
+        <v>0.1253862</v>
       </c>
       <c r="E320">
-        <v>0.4794852</v>
+        <v>0.2162295</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -8053,20 +8053,20 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a3 o15 t15</t>
+          <t>Psi s1 to2 g1 c14 a2 o16 t16</t>
         </is>
       </c>
       <c r="B321">
-        <v>0.2290448</v>
+        <v>0.3304046</v>
       </c>
       <c r="C321">
-        <v>0.0829921</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D321">
-        <v>0.1057516</v>
+        <v>0.2082123</v>
       </c>
       <c r="E321">
-        <v>0.4273834</v>
+        <v>0.4807655</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -8077,20 +8077,20 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a4 o16 t16</t>
+          <t>Psi s1 to2 g1 c14 a3 o17 t17</t>
         </is>
       </c>
       <c r="B322">
-        <v>0.1406788</v>
+        <v>0.2301323</v>
       </c>
       <c r="C322">
-        <v>0.0508967</v>
+        <v>0.0833187</v>
       </c>
       <c r="D322">
-        <v>0.0669278</v>
+        <v>0.1062818</v>
       </c>
       <c r="E322">
-        <v>0.272008</v>
+        <v>0.4290245</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -8101,20 +8101,20 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a5 o17 t17</t>
+          <t>Psi s1 to2 g1 c14 a4 o18 t18</t>
         </is>
       </c>
       <c r="B323">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C323">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D323">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E323">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -8125,20 +8125,20 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a6 o18 t18</t>
+          <t>Psi s1 to2 g1 c14 a5 o19 t19</t>
         </is>
       </c>
       <c r="B324">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C324">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D324">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E324">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -8149,20 +8149,20 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a7 o19 t19</t>
+          <t>Psi s1 to2 g1 c14 a6 o20 t20</t>
         </is>
       </c>
       <c r="B325">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C325">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D325">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E325">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -8173,20 +8173,20 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a8 o20 t20</t>
+          <t>Psi s1 to2 g1 c14 a7 o21 t21</t>
         </is>
       </c>
       <c r="B326">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C326">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D326">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E326">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -8197,20 +8197,20 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a9 o21 t21</t>
+          <t>Psi s1 to2 g1 c14 a8 o22 t22</t>
         </is>
       </c>
       <c r="B327">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C327">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D327">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E327">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -8221,20 +8221,20 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a10 o22 t22</t>
+          <t>Psi s1 to2 g1 c15 a0 o15 t15</t>
         </is>
       </c>
       <c r="B328">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C328">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D328">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E328">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -8245,20 +8245,20 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a0 o13 t13</t>
+          <t>Psi s1 to2 g1 c15 a1 o16 t16</t>
         </is>
       </c>
       <c r="B329">
-        <v>0.1659721</v>
+        <v>0.1658845</v>
       </c>
       <c r="C329">
-        <v>0.0231378</v>
+        <v>0.0231061</v>
       </c>
       <c r="D329">
-        <v>0.1254217</v>
+        <v>0.1253862</v>
       </c>
       <c r="E329">
-        <v>0.2163892</v>
+        <v>0.2162295</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -8269,20 +8269,20 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a1 o14 t14</t>
+          <t>Psi s1 to2 g1 c15 a2 o17 t17</t>
         </is>
       </c>
       <c r="B330">
-        <v>0.1659721</v>
+        <v>0.3304046</v>
       </c>
       <c r="C330">
-        <v>0.0231378</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D330">
-        <v>0.1254217</v>
+        <v>0.2082123</v>
       </c>
       <c r="E330">
-        <v>0.2163892</v>
+        <v>0.4807655</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -8293,20 +8293,20 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a2 o15 t15</t>
+          <t>Psi s1 to2 g1 c15 a3 o18 t18</t>
         </is>
       </c>
       <c r="B331">
-        <v>0.3292661</v>
+        <v>0.2301323</v>
       </c>
       <c r="C331">
-        <v>0.07092</v>
+        <v>0.0833187</v>
       </c>
       <c r="D331">
-        <v>0.2073609</v>
+        <v>0.1062818</v>
       </c>
       <c r="E331">
-        <v>0.4794852</v>
+        <v>0.4290245</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -8317,20 +8317,20 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a3 o16 t16</t>
+          <t>Psi s1 to2 g1 c15 a4 o19 t19</t>
         </is>
       </c>
       <c r="B332">
-        <v>0.2290448</v>
+        <v>0.1412995</v>
       </c>
       <c r="C332">
-        <v>0.0829921</v>
+        <v>0.051066</v>
       </c>
       <c r="D332">
-        <v>0.1057516</v>
+        <v>0.0672671</v>
       </c>
       <c r="E332">
-        <v>0.4273834</v>
+        <v>0.2729651</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -8341,20 +8341,20 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a4 o17 t17</t>
+          <t>Psi s1 to2 g1 c15 a5 o20 t20</t>
         </is>
       </c>
       <c r="B333">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C333">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D333">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E333">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -8365,20 +8365,20 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a5 o18 t18</t>
+          <t>Psi s1 to2 g1 c15 a6 o21 t21</t>
         </is>
       </c>
       <c r="B334">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C334">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D334">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E334">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -8389,20 +8389,20 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a6 o19 t19</t>
+          <t>Psi s1 to2 g1 c15 a7 o22 t22</t>
         </is>
       </c>
       <c r="B335">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C335">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D335">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E335">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -8413,20 +8413,20 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a7 o20 t20</t>
+          <t>Psi s1 to2 g1 c16 a0 o16 t16</t>
         </is>
       </c>
       <c r="B336">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C336">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D336">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E336">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -8437,20 +8437,20 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a8 o21 t21</t>
+          <t>Psi s1 to2 g1 c16 a1 o17 t17</t>
         </is>
       </c>
       <c r="B337">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C337">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D337">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E337">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -8461,20 +8461,20 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a9 o22 t22</t>
+          <t>Psi s1 to2 g1 c16 a2 o18 t18</t>
         </is>
       </c>
       <c r="B338">
-        <v>0.1406788</v>
+        <v>0.3304046</v>
       </c>
       <c r="C338">
-        <v>0.0508967</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D338">
-        <v>0.0669278</v>
+        <v>0.2082123</v>
       </c>
       <c r="E338">
-        <v>0.272008</v>
+        <v>0.4807655</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -8485,20 +8485,20 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a0 o14 t14</t>
+          <t>Psi s1 to2 g1 c16 a3 o19 t19</t>
         </is>
       </c>
       <c r="B339">
-        <v>0.1659721</v>
+        <v>0.2301323</v>
       </c>
       <c r="C339">
-        <v>0.0231378</v>
+        <v>0.0833187</v>
       </c>
       <c r="D339">
-        <v>0.1254217</v>
+        <v>0.1062818</v>
       </c>
       <c r="E339">
-        <v>0.2163892</v>
+        <v>0.4290245</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -8509,20 +8509,20 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a1 o15 t15</t>
+          <t>Psi s1 to2 g1 c16 a4 o20 t20</t>
         </is>
       </c>
       <c r="B340">
-        <v>0.1659721</v>
+        <v>0.1412995</v>
       </c>
       <c r="C340">
-        <v>0.0231378</v>
+        <v>0.051066</v>
       </c>
       <c r="D340">
-        <v>0.1254217</v>
+        <v>0.0672671</v>
       </c>
       <c r="E340">
-        <v>0.2163892</v>
+        <v>0.2729651</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
@@ -8533,20 +8533,20 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a2 o16 t16</t>
+          <t>Psi s1 to2 g1 c16 a5 o21 t21</t>
         </is>
       </c>
       <c r="B341">
-        <v>0.3292661</v>
+        <v>0.1412995</v>
       </c>
       <c r="C341">
-        <v>0.07092</v>
+        <v>0.051066</v>
       </c>
       <c r="D341">
-        <v>0.2073609</v>
+        <v>0.0672671</v>
       </c>
       <c r="E341">
-        <v>0.4794852</v>
+        <v>0.2729651</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
@@ -8557,20 +8557,20 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a3 o17 t17</t>
+          <t>Psi s1 to2 g1 c16 a6 o22 t22</t>
         </is>
       </c>
       <c r="B342">
-        <v>0.2290448</v>
+        <v>0.1412995</v>
       </c>
       <c r="C342">
-        <v>0.0829921</v>
+        <v>0.051066</v>
       </c>
       <c r="D342">
-        <v>0.1057516</v>
+        <v>0.0672671</v>
       </c>
       <c r="E342">
-        <v>0.4273834</v>
+        <v>0.2729651</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
@@ -8581,20 +8581,20 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a4 o18 t18</t>
+          <t>Psi s1 to2 g1 c17 a0 o17 t17</t>
         </is>
       </c>
       <c r="B343">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C343">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D343">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E343">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
@@ -8605,20 +8605,20 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a5 o19 t19</t>
+          <t>Psi s1 to2 g1 c17 a1 o18 t18</t>
         </is>
       </c>
       <c r="B344">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C344">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D344">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E344">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
@@ -8629,20 +8629,20 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a6 o20 t20</t>
+          <t>Psi s1 to2 g1 c17 a2 o19 t19</t>
         </is>
       </c>
       <c r="B345">
-        <v>0.1406788</v>
+        <v>0.3304046</v>
       </c>
       <c r="C345">
-        <v>0.0508967</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D345">
-        <v>0.0669278</v>
+        <v>0.2082123</v>
       </c>
       <c r="E345">
-        <v>0.272008</v>
+        <v>0.4807655</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
@@ -8653,20 +8653,20 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a7 o21 t21</t>
+          <t>Psi s1 to2 g1 c17 a3 o20 t20</t>
         </is>
       </c>
       <c r="B346">
-        <v>0.1406788</v>
+        <v>0.2301323</v>
       </c>
       <c r="C346">
-        <v>0.0508967</v>
+        <v>0.0833187</v>
       </c>
       <c r="D346">
-        <v>0.0669278</v>
+        <v>0.1062818</v>
       </c>
       <c r="E346">
-        <v>0.272008</v>
+        <v>0.4290245</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -8677,20 +8677,20 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a8 o22 t22</t>
+          <t>Psi s1 to2 g1 c17 a4 o21 t21</t>
         </is>
       </c>
       <c r="B347">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C347">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D347">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E347">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -8701,20 +8701,20 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a0 o15 t15</t>
+          <t>Psi s1 to2 g1 c17 a5 o22 t22</t>
         </is>
       </c>
       <c r="B348">
-        <v>0.1659721</v>
+        <v>0.1412995</v>
       </c>
       <c r="C348">
-        <v>0.0231378</v>
+        <v>0.051066</v>
       </c>
       <c r="D348">
-        <v>0.1254217</v>
+        <v>0.0672671</v>
       </c>
       <c r="E348">
-        <v>0.2163892</v>
+        <v>0.2729651</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -8725,20 +8725,20 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a1 o16 t16</t>
+          <t>Psi s1 to2 g1 c18 a0 o18 t18</t>
         </is>
       </c>
       <c r="B349">
-        <v>0.1659721</v>
+        <v>0.1658845</v>
       </c>
       <c r="C349">
-        <v>0.0231378</v>
+        <v>0.0231061</v>
       </c>
       <c r="D349">
-        <v>0.1254217</v>
+        <v>0.1253862</v>
       </c>
       <c r="E349">
-        <v>0.2163892</v>
+        <v>0.2162295</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -8749,20 +8749,20 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a2 o17 t17</t>
+          <t>Psi s1 to2 g1 c18 a1 o19 t19</t>
         </is>
       </c>
       <c r="B350">
-        <v>0.3292661</v>
+        <v>0.1658845</v>
       </c>
       <c r="C350">
-        <v>0.07092</v>
+        <v>0.0231061</v>
       </c>
       <c r="D350">
-        <v>0.2073609</v>
+        <v>0.1253862</v>
       </c>
       <c r="E350">
-        <v>0.4794852</v>
+        <v>0.2162295</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -8773,20 +8773,20 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a3 o18 t18</t>
+          <t>Psi s1 to2 g1 c18 a2 o20 t20</t>
         </is>
       </c>
       <c r="B351">
-        <v>0.2290448</v>
+        <v>0.3304046</v>
       </c>
       <c r="C351">
-        <v>0.0829921</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D351">
-        <v>0.1057516</v>
+        <v>0.2082123</v>
       </c>
       <c r="E351">
-        <v>0.4273834</v>
+        <v>0.4807655</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -8797,20 +8797,20 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a4 o19 t19</t>
+          <t>Psi s1 to2 g1 c18 a3 o21 t21</t>
         </is>
       </c>
       <c r="B352">
-        <v>0.1406788</v>
+        <v>0.2301323</v>
       </c>
       <c r="C352">
-        <v>0.0508967</v>
+        <v>0.0833187</v>
       </c>
       <c r="D352">
-        <v>0.0669278</v>
+        <v>0.1062818</v>
       </c>
       <c r="E352">
-        <v>0.272008</v>
+        <v>0.4290245</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
@@ -8821,20 +8821,20 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a5 o20 t20</t>
+          <t>Psi s1 to2 g1 c18 a4 o22 t22</t>
         </is>
       </c>
       <c r="B353">
-        <v>0.1406788</v>
+        <v>0.1412995</v>
       </c>
       <c r="C353">
-        <v>0.0508967</v>
+        <v>0.051066</v>
       </c>
       <c r="D353">
-        <v>0.0669278</v>
+        <v>0.0672671</v>
       </c>
       <c r="E353">
-        <v>0.272008</v>
+        <v>0.2729651</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -8845,20 +8845,20 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a6 o21 t21</t>
+          <t>Psi s1 to2 g1 c19 a0 o19 t19</t>
         </is>
       </c>
       <c r="B354">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C354">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D354">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E354">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -8869,20 +8869,20 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a7 o22 t22</t>
+          <t>Psi s1 to2 g1 c19 a1 o20 t20</t>
         </is>
       </c>
       <c r="B355">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C355">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D355">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E355">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -8893,20 +8893,20 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a0 o16 t16</t>
+          <t>Psi s1 to2 g1 c19 a2 o21 t21</t>
         </is>
       </c>
       <c r="B356">
-        <v>0.1659721</v>
+        <v>0.3304046</v>
       </c>
       <c r="C356">
-        <v>0.0231378</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D356">
-        <v>0.1254217</v>
+        <v>0.2082123</v>
       </c>
       <c r="E356">
-        <v>0.2163892</v>
+        <v>0.4807655</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -8917,20 +8917,20 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a1 o17 t17</t>
+          <t>Psi s1 to2 g1 c19 a3 o22 t22</t>
         </is>
       </c>
       <c r="B357">
-        <v>0.1659721</v>
+        <v>0.2301323</v>
       </c>
       <c r="C357">
-        <v>0.0231378</v>
+        <v>0.0833187</v>
       </c>
       <c r="D357">
-        <v>0.1254217</v>
+        <v>0.1062818</v>
       </c>
       <c r="E357">
-        <v>0.2163892</v>
+        <v>0.4290245</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -8941,20 +8941,20 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a2 o18 t18</t>
+          <t>Psi s1 to2 g1 c20 a0 o20 t20</t>
         </is>
       </c>
       <c r="B358">
-        <v>0.3292661</v>
+        <v>0.1658845</v>
       </c>
       <c r="C358">
-        <v>0.07092</v>
+        <v>0.0231061</v>
       </c>
       <c r="D358">
-        <v>0.2073609</v>
+        <v>0.1253862</v>
       </c>
       <c r="E358">
-        <v>0.4794852</v>
+        <v>0.2162295</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -8965,20 +8965,20 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a3 o19 t19</t>
+          <t>Psi s1 to2 g1 c20 a1 o21 t21</t>
         </is>
       </c>
       <c r="B359">
-        <v>0.2290448</v>
+        <v>0.1658845</v>
       </c>
       <c r="C359">
-        <v>0.0829921</v>
+        <v>0.0231061</v>
       </c>
       <c r="D359">
-        <v>0.1057516</v>
+        <v>0.1253862</v>
       </c>
       <c r="E359">
-        <v>0.4273834</v>
+        <v>0.2162295</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -8989,20 +8989,20 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a4 o20 t20</t>
+          <t>Psi s1 to2 g1 c20 a2 o22 t22</t>
         </is>
       </c>
       <c r="B360">
-        <v>0.1406788</v>
+        <v>0.3304046</v>
       </c>
       <c r="C360">
-        <v>0.0508967</v>
+        <v>0.07104199999999999</v>
       </c>
       <c r="D360">
-        <v>0.0669278</v>
+        <v>0.2082123</v>
       </c>
       <c r="E360">
-        <v>0.272008</v>
+        <v>0.4807655</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -9013,20 +9013,20 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a5 o21 t21</t>
+          <t>Psi s1 to2 g1 c21 a0 o21 t21</t>
         </is>
       </c>
       <c r="B361">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C361">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D361">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E361">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -9037,20 +9037,20 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a6 o22 t22</t>
+          <t>Psi s1 to2 g1 c21 a1 o22 t22</t>
         </is>
       </c>
       <c r="B362">
-        <v>0.1406788</v>
+        <v>0.1658845</v>
       </c>
       <c r="C362">
-        <v>0.0508967</v>
+        <v>0.0231061</v>
       </c>
       <c r="D362">
-        <v>0.0669278</v>
+        <v>0.1253862</v>
       </c>
       <c r="E362">
-        <v>0.272008</v>
+        <v>0.2162295</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -9061,502 +9061,22 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c17 a0 o17 t17</t>
+          <t>Psi s1 to2 g1 c22 a0 o22 t22</t>
         </is>
       </c>
       <c r="B363">
-        <v>0.1659721</v>
+        <v>0.1658845</v>
       </c>
       <c r="C363">
-        <v>0.0231378</v>
+        <v>0.0231061</v>
       </c>
       <c r="D363">
-        <v>0.1254217</v>
+        <v>0.1253862</v>
       </c>
       <c r="E363">
-        <v>0.2163892</v>
+        <v>0.2162295</v>
       </c>
       <c r="F363" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c17 a1 o18 t18</t>
-        </is>
-      </c>
-      <c r="B364">
-        <v>0.1659721</v>
-      </c>
-      <c r="C364">
-        <v>0.0231378</v>
-      </c>
-      <c r="D364">
-        <v>0.1254217</v>
-      </c>
-      <c r="E364">
-        <v>0.2163892</v>
-      </c>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c17 a2 o19 t19</t>
-        </is>
-      </c>
-      <c r="B365">
-        <v>0.3292661</v>
-      </c>
-      <c r="C365">
-        <v>0.07092</v>
-      </c>
-      <c r="D365">
-        <v>0.2073609</v>
-      </c>
-      <c r="E365">
-        <v>0.4794852</v>
-      </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c17 a3 o20 t20</t>
-        </is>
-      </c>
-      <c r="B366">
-        <v>0.2290448</v>
-      </c>
-      <c r="C366">
-        <v>0.0829921</v>
-      </c>
-      <c r="D366">
-        <v>0.1057516</v>
-      </c>
-      <c r="E366">
-        <v>0.4273834</v>
-      </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c17 a4 o21 t21</t>
-        </is>
-      </c>
-      <c r="B367">
-        <v>0.1406788</v>
-      </c>
-      <c r="C367">
-        <v>0.0508967</v>
-      </c>
-      <c r="D367">
-        <v>0.0669278</v>
-      </c>
-      <c r="E367">
-        <v>0.272008</v>
-      </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c17 a5 o22 t22</t>
-        </is>
-      </c>
-      <c r="B368">
-        <v>0.1406788</v>
-      </c>
-      <c r="C368">
-        <v>0.0508967</v>
-      </c>
-      <c r="D368">
-        <v>0.0669278</v>
-      </c>
-      <c r="E368">
-        <v>0.272008</v>
-      </c>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c18 a0 o18 t18</t>
-        </is>
-      </c>
-      <c r="B369">
-        <v>0.1659721</v>
-      </c>
-      <c r="C369">
-        <v>0.0231378</v>
-      </c>
-      <c r="D369">
-        <v>0.1254217</v>
-      </c>
-      <c r="E369">
-        <v>0.2163892</v>
-      </c>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c18 a1 o19 t19</t>
-        </is>
-      </c>
-      <c r="B370">
-        <v>0.1659721</v>
-      </c>
-      <c r="C370">
-        <v>0.0231378</v>
-      </c>
-      <c r="D370">
-        <v>0.1254217</v>
-      </c>
-      <c r="E370">
-        <v>0.2163892</v>
-      </c>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c18 a2 o20 t20</t>
-        </is>
-      </c>
-      <c r="B371">
-        <v>0.3292661</v>
-      </c>
-      <c r="C371">
-        <v>0.07092</v>
-      </c>
-      <c r="D371">
-        <v>0.2073609</v>
-      </c>
-      <c r="E371">
-        <v>0.4794852</v>
-      </c>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c18 a3 o21 t21</t>
-        </is>
-      </c>
-      <c r="B372">
-        <v>0.2290448</v>
-      </c>
-      <c r="C372">
-        <v>0.0829921</v>
-      </c>
-      <c r="D372">
-        <v>0.1057516</v>
-      </c>
-      <c r="E372">
-        <v>0.4273834</v>
-      </c>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c18 a4 o22 t22</t>
-        </is>
-      </c>
-      <c r="B373">
-        <v>0.1406788</v>
-      </c>
-      <c r="C373">
-        <v>0.0508967</v>
-      </c>
-      <c r="D373">
-        <v>0.0669278</v>
-      </c>
-      <c r="E373">
-        <v>0.272008</v>
-      </c>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c19 a0 o19 t19</t>
-        </is>
-      </c>
-      <c r="B374">
-        <v>0.1659721</v>
-      </c>
-      <c r="C374">
-        <v>0.0231378</v>
-      </c>
-      <c r="D374">
-        <v>0.1254217</v>
-      </c>
-      <c r="E374">
-        <v>0.2163892</v>
-      </c>
-      <c r="F374" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c19 a1 o20 t20</t>
-        </is>
-      </c>
-      <c r="B375">
-        <v>0.1659721</v>
-      </c>
-      <c r="C375">
-        <v>0.0231378</v>
-      </c>
-      <c r="D375">
-        <v>0.1254217</v>
-      </c>
-      <c r="E375">
-        <v>0.2163892</v>
-      </c>
-      <c r="F375" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c19 a2 o21 t21</t>
-        </is>
-      </c>
-      <c r="B376">
-        <v>0.3292661</v>
-      </c>
-      <c r="C376">
-        <v>0.07092</v>
-      </c>
-      <c r="D376">
-        <v>0.2073609</v>
-      </c>
-      <c r="E376">
-        <v>0.4794852</v>
-      </c>
-      <c r="F376" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c19 a3 o22 t22</t>
-        </is>
-      </c>
-      <c r="B377">
-        <v>0.2290448</v>
-      </c>
-      <c r="C377">
-        <v>0.0829921</v>
-      </c>
-      <c r="D377">
-        <v>0.1057516</v>
-      </c>
-      <c r="E377">
-        <v>0.4273834</v>
-      </c>
-      <c r="F377" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c20 a0 o20 t20</t>
-        </is>
-      </c>
-      <c r="B378">
-        <v>0.1659721</v>
-      </c>
-      <c r="C378">
-        <v>0.0231378</v>
-      </c>
-      <c r="D378">
-        <v>0.1254217</v>
-      </c>
-      <c r="E378">
-        <v>0.2163892</v>
-      </c>
-      <c r="F378" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c20 a1 o21 t21</t>
-        </is>
-      </c>
-      <c r="B379">
-        <v>0.1659721</v>
-      </c>
-      <c r="C379">
-        <v>0.0231378</v>
-      </c>
-      <c r="D379">
-        <v>0.1254217</v>
-      </c>
-      <c r="E379">
-        <v>0.2163892</v>
-      </c>
-      <c r="F379" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c20 a2 o22 t22</t>
-        </is>
-      </c>
-      <c r="B380">
-        <v>0.3292661</v>
-      </c>
-      <c r="C380">
-        <v>0.07092</v>
-      </c>
-      <c r="D380">
-        <v>0.2073609</v>
-      </c>
-      <c r="E380">
-        <v>0.4794852</v>
-      </c>
-      <c r="F380" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c21 a0 o21 t21</t>
-        </is>
-      </c>
-      <c r="B381">
-        <v>0.1659721</v>
-      </c>
-      <c r="C381">
-        <v>0.0231378</v>
-      </c>
-      <c r="D381">
-        <v>0.1254217</v>
-      </c>
-      <c r="E381">
-        <v>0.2163892</v>
-      </c>
-      <c r="F381" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c21 a1 o22 t22</t>
-        </is>
-      </c>
-      <c r="B382">
-        <v>0.1659721</v>
-      </c>
-      <c r="C382">
-        <v>0.0231378</v>
-      </c>
-      <c r="D382">
-        <v>0.1254217</v>
-      </c>
-      <c r="E382">
-        <v>0.2163892</v>
-      </c>
-      <c r="F382" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c22 a0 o22 t22</t>
-        </is>
-      </c>
-      <c r="B383">
-        <v>0.1659721</v>
-      </c>
-      <c r="C383">
-        <v>0.0231378</v>
-      </c>
-      <c r="D383">
-        <v>0.1254217</v>
-      </c>
-      <c r="E383">
-        <v>0.2163892</v>
-      </c>
-      <c r="F383" t="inlineStr">
         <is>
           <t xml:space="preserve">     </t>
         </is>

--- a/real_estimatesNB.xlsx
+++ b/real_estimatesNB.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G363"/>
+  <dimension ref="A1:G364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.488103</v>
+        <v>0.3896856</v>
       </c>
       <c r="C2">
-        <v>0.1984001</v>
+        <v>0.1407736</v>
       </c>
       <c r="D2">
-        <v>0.1674323</v>
+        <v>0.1667593</v>
       </c>
       <c r="E2">
-        <v>0.8188744999999999</v>
+        <v>0.6707331</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -425,16 +425,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.6075748</v>
+        <v>0.8093413</v>
       </c>
       <c r="C3">
-        <v>0.2832705</v>
+        <v>0.1354667</v>
       </c>
       <c r="D3">
-        <v>0.1310732</v>
+        <v>0.4316936</v>
       </c>
       <c r="E3">
-        <v>0.9407972999999999</v>
+        <v>0.9595507</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -449,16 +449,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.5618598</v>
+        <v>0.5097789</v>
       </c>
       <c r="C4">
-        <v>0.2174368</v>
+        <v>0.1843108</v>
       </c>
       <c r="D4">
-        <v>0.1850517</v>
+        <v>0.1967979</v>
       </c>
       <c r="E4">
-        <v>0.8786723</v>
+        <v>0.815277</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.7727416</v>
+        <v>0.7242915</v>
       </c>
       <c r="C5">
-        <v>0.1239345</v>
+        <v>0.1107189</v>
       </c>
       <c r="D5">
-        <v>0.4602412</v>
+        <v>0.4698212</v>
       </c>
       <c r="E5">
-        <v>0.9313162</v>
+        <v>0.8862062000000001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.7602346</v>
+        <v>0.726217</v>
       </c>
       <c r="C6">
-        <v>0.117076</v>
+        <v>0.1213356</v>
       </c>
       <c r="D6">
-        <v>0.4737916</v>
+        <v>0.4450731</v>
       </c>
       <c r="E6">
-        <v>0.9178029</v>
+        <v>0.8976723</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -521,16 +521,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.95478</v>
+        <v>0.904722</v>
       </c>
       <c r="C7">
-        <v>0.0621864</v>
+        <v>0.0550904</v>
       </c>
       <c r="D7">
-        <v>0.5564823</v>
+        <v>0.7307034</v>
       </c>
       <c r="E7">
-        <v>0.9971934</v>
+        <v>0.9707862</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.7154696</v>
+        <v>0.616337</v>
       </c>
       <c r="C8">
-        <v>0.1336487</v>
+        <v>0.13383</v>
       </c>
       <c r="D8">
-        <v>0.4098293</v>
+        <v>0.3463208</v>
       </c>
       <c r="E8">
-        <v>0.9010431</v>
+        <v>0.8296728</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.7953199</v>
+        <v>0.7492049</v>
       </c>
       <c r="C9">
-        <v>0.1273213</v>
+        <v>0.1130245</v>
       </c>
       <c r="D9">
-        <v>0.456189</v>
+        <v>0.4788599</v>
       </c>
       <c r="E9">
-        <v>0.9473642</v>
+        <v>0.9066468</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.7667431</v>
+        <v>0.7596732</v>
       </c>
       <c r="C10">
-        <v>0.09718259999999999</v>
+        <v>0.0818484</v>
       </c>
       <c r="D10">
-        <v>0.5312057</v>
+        <v>0.5676318</v>
       </c>
       <c r="E10">
-        <v>0.9050840999999999</v>
+        <v>0.8838682</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -617,16 +617,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.8428318</v>
+        <v>0.8202541</v>
       </c>
       <c r="C11">
-        <v>0.0705591</v>
+        <v>0.06519809999999999</v>
       </c>
       <c r="D11">
-        <v>0.6537228</v>
+        <v>0.6573124</v>
       </c>
       <c r="E11">
-        <v>0.9383967</v>
+        <v>0.9156609</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.9125614</v>
+        <v>0.8414122000000001</v>
       </c>
       <c r="C12">
-        <v>0.0635652</v>
+        <v>0.0689766</v>
       </c>
       <c r="D12">
-        <v>0.6865270999999999</v>
+        <v>0.6582738</v>
       </c>
       <c r="E12">
-        <v>0.9802896</v>
+        <v>0.9359523</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.7605703</v>
+        <v>0.7109122</v>
       </c>
       <c r="C13">
-        <v>0.1046645</v>
+        <v>0.0948582</v>
       </c>
       <c r="D13">
-        <v>0.5073221</v>
+        <v>0.4987896</v>
       </c>
       <c r="E13">
-        <v>0.9074028</v>
+        <v>0.8586933</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.8153603</v>
+        <v>0.7819228</v>
       </c>
       <c r="C14">
-        <v>0.0899307</v>
+        <v>0.0805058</v>
       </c>
       <c r="D14">
-        <v>0.5779602</v>
+        <v>0.5869934999999999</v>
       </c>
       <c r="E14">
-        <v>0.9343823999999999</v>
+        <v>0.9004525</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -713,16 +713,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.8896646</v>
+        <v>0.8344562</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.0576793</v>
       </c>
       <c r="D15">
-        <v>0.8896646</v>
+        <v>0.6897938</v>
       </c>
       <c r="E15">
-        <v>0.8896646</v>
+        <v>0.9195266</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.864295</v>
+        <v>0.8370892</v>
       </c>
       <c r="C16">
-        <v>0.0667442</v>
+        <v>0.0614114</v>
       </c>
       <c r="D16">
-        <v>0.676138</v>
+        <v>0.6800687</v>
       </c>
       <c r="E16">
-        <v>0.9510507</v>
+        <v>0.9254885</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -761,16 +761,16 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.7857028</v>
+        <v>0.7023776</v>
       </c>
       <c r="C17">
-        <v>0.0911212</v>
+        <v>0.0866242</v>
       </c>
       <c r="D17">
-        <v>0.5593428</v>
+        <v>0.5116112</v>
       </c>
       <c r="E17">
-        <v>0.9137206</v>
+        <v>0.8416875</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.8648678</v>
+        <v>0.845465</v>
       </c>
       <c r="C18">
-        <v>0.0753475</v>
+        <v>0.0653396</v>
       </c>
       <c r="D18">
-        <v>0.6439852</v>
+        <v>0.6724478</v>
       </c>
       <c r="E18">
-        <v>0.9577078999999999</v>
+        <v>0.9358154</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.8292913</v>
+        <v>0.7677659999999999</v>
       </c>
       <c r="C19">
-        <v>0.1019118</v>
+        <v>0.1020699</v>
       </c>
       <c r="D19">
-        <v>0.5423094000000001</v>
+        <v>0.5184223999999999</v>
       </c>
       <c r="E19">
-        <v>0.9521924</v>
+        <v>0.9103369</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.8087216</v>
+        <v>0.6942901</v>
       </c>
       <c r="C20">
-        <v>0.1140851</v>
+        <v>0.1288077</v>
       </c>
       <c r="D20">
-        <v>0.4990545</v>
+        <v>0.4087344</v>
       </c>
       <c r="E20">
-        <v>0.9472116</v>
+        <v>0.8818124000000001</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -857,16 +857,16 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.4762121</v>
+        <v>0.4364806</v>
       </c>
       <c r="C21">
-        <v>0.158314</v>
+        <v>0.1465193</v>
       </c>
       <c r="D21">
-        <v>0.2076382</v>
+        <v>0.1941899</v>
       </c>
       <c r="E21">
-        <v>0.7592869</v>
+        <v>0.713429</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.8889121</v>
+        <v>0.8468726</v>
       </c>
       <c r="C22">
-        <v>0.13371</v>
+        <v>0.1493489</v>
       </c>
       <c r="D22">
-        <v>0.3602488</v>
+        <v>0.3665587</v>
       </c>
       <c r="E22">
-        <v>0.9912822</v>
+        <v>0.9814319</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -905,16 +905,16 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.0460079</v>
+        <v>0.0405106</v>
       </c>
       <c r="C23">
-        <v>0.046738</v>
+        <v>0.0419722</v>
       </c>
       <c r="D23">
-        <v>0.0059466</v>
+        <v>0.0050601</v>
       </c>
       <c r="E23">
-        <v>0.2799489</v>
+        <v>0.2595361</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -925,20 +925,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S s1 g1 c2 a1 o3 t3</t>
+          <t>S s1 g1 c2 a0 o2 t2</t>
         </is>
       </c>
       <c r="B24">
-        <v>0.2040595</v>
+        <v>0.4033528</v>
       </c>
       <c r="C24">
-        <v>0.1340191</v>
+        <v>0.2108507</v>
       </c>
       <c r="D24">
-        <v>0.0484116</v>
+        <v>0.1082498</v>
       </c>
       <c r="E24">
-        <v>0.563694</v>
+        <v>0.790131</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -949,20 +949,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S s1 g1 c3 a1 o4 t4</t>
+          <t>S s1 g1 c3 a0 o3 t3</t>
         </is>
       </c>
       <c r="B25">
-        <v>0.404688</v>
+        <v>0.1420789</v>
       </c>
       <c r="C25">
-        <v>0.1533139</v>
+        <v>0.090558</v>
       </c>
       <c r="D25">
-        <v>0.1633824</v>
+        <v>0.0371734</v>
       </c>
       <c r="E25">
-        <v>0.7029396</v>
+        <v>0.4153285</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -973,20 +973,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S s1 g1 c4 a1 o5 t5</t>
+          <t>S s1 g1 c4 a0 o4 t4</t>
         </is>
       </c>
       <c r="B26">
-        <v>0.3879684</v>
+        <v>0.294963</v>
       </c>
       <c r="C26">
-        <v>0.1362695</v>
+        <v>0.1087117</v>
       </c>
       <c r="D26">
-        <v>0.1706986</v>
+        <v>0.1305622</v>
       </c>
       <c r="E26">
-        <v>0.6612711999999999</v>
+        <v>0.5382244</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -997,20 +997,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S s1 g1 c5 a1 o6 t6</t>
+          <t>S s1 g1 c5 a0 o5 t5</t>
         </is>
       </c>
       <c r="B27">
-        <v>0.8084723</v>
+        <v>0.2969765</v>
       </c>
       <c r="C27">
-        <v>0.2276716</v>
+        <v>0.1231883</v>
       </c>
       <c r="D27">
-        <v>0.1912799</v>
+        <v>0.1173047</v>
       </c>
       <c r="E27">
-        <v>0.9868998</v>
+        <v>0.5731538</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1021,20 +1021,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S s1 g1 c6 a1 o7 t7</t>
+          <t>S s1 g1 c6 a0 o6 t6</t>
         </is>
       </c>
       <c r="B28">
-        <v>0.3345388</v>
+        <v>0.6019456</v>
       </c>
       <c r="C28">
-        <v>0.1259921</v>
+        <v>0.1610953</v>
       </c>
       <c r="D28">
-        <v>0.1422192</v>
+        <v>0.2881901</v>
       </c>
       <c r="E28">
-        <v>0.6038480000000001</v>
+        <v>0.8495847</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1045,20 +1045,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S s1 g1 c7 a1 o8 t8</t>
+          <t>S s1 g1 c7 a0 o7 t7</t>
         </is>
       </c>
       <c r="B29">
-        <v>0.4372008</v>
+        <v>0.2037173</v>
       </c>
       <c r="C29">
-        <v>0.1807351</v>
+        <v>0.0896113</v>
       </c>
       <c r="D29">
-        <v>0.1554861</v>
+        <v>0.0797345</v>
       </c>
       <c r="E29">
-        <v>0.7662299</v>
+        <v>0.4303356</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1069,20 +1069,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S s1 g1 c8 a1 o9 t9</t>
+          <t>S s1 g1 c8 a0 o8 t8</t>
         </is>
       </c>
       <c r="B30">
-        <v>0.3965609</v>
+        <v>0.322376</v>
       </c>
       <c r="C30">
-        <v>0.0989622</v>
+        <v>0.1282685</v>
       </c>
       <c r="D30">
-        <v>0.2261168</v>
+        <v>0.1308186</v>
       </c>
       <c r="E30">
-        <v>0.5964604999999999</v>
+        <v>0.6006063</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1093,20 +1093,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S s1 g1 c9 a1 o10 t10</t>
+          <t>S s1 g1 c9 a0 o9 t9</t>
         </is>
       </c>
       <c r="B31">
-        <v>0.5173991</v>
+        <v>0.3348429</v>
       </c>
       <c r="C31">
-        <v>0.1128497</v>
+        <v>0.08360430000000001</v>
       </c>
       <c r="D31">
-        <v>0.3065731</v>
+        <v>0.1943336</v>
       </c>
       <c r="E31">
-        <v>0.7222075999999999</v>
+        <v>0.51234</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1117,20 +1117,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S s1 g1 c10 a1 o11 t11</t>
+          <t>S s1 g1 c10 a0 o10 t10</t>
         </is>
       </c>
       <c r="B32">
-        <v>0.6760093</v>
+        <v>0.4208755</v>
       </c>
       <c r="C32">
-        <v>0.1683155</v>
+        <v>0.097286</v>
       </c>
       <c r="D32">
-        <v>0.3163168</v>
+        <v>0.2494601</v>
       </c>
       <c r="E32">
-        <v>0.9039352</v>
+        <v>0.6137572</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1141,20 +1141,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S s1 g1 c11 a1 o12 t12</t>
+          <t>S s1 g1 c11 a0 o11 t11</t>
         </is>
       </c>
       <c r="B33">
-        <v>0.388406</v>
+        <v>0.4579801</v>
       </c>
       <c r="C33">
-        <v>0.1201947</v>
+        <v>0.1300032</v>
       </c>
       <c r="D33">
-        <v>0.1906573</v>
+        <v>0.2323746</v>
       </c>
       <c r="E33">
-        <v>0.6312794</v>
+        <v>0.7022421</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1165,20 +1165,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S s1 g1 c12 a1 o13 t13</t>
+          <t>S s1 g1 c12 a0 o12 t12</t>
         </is>
       </c>
       <c r="B34">
-        <v>0.4688895</v>
+        <v>0.2814194</v>
       </c>
       <c r="C34">
-        <v>0.1229792</v>
+        <v>0.0937316</v>
       </c>
       <c r="D34">
-        <v>0.2511464</v>
+        <v>0.1363543</v>
       </c>
       <c r="E34">
-        <v>0.69916</v>
+        <v>0.4927612</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1189,20 +1189,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S s1 g1 c13 a1 o14 t14</t>
+          <t>S s1 g1 c13 a0 o13 t13</t>
         </is>
       </c>
       <c r="B35">
-        <v>0.6171559</v>
+        <v>0.363468</v>
       </c>
       <c r="C35">
-        <v>0.1335866</v>
+        <v>0.0998052</v>
       </c>
       <c r="D35">
-        <v>0.3473597</v>
+        <v>0.1968875</v>
       </c>
       <c r="E35">
-        <v>0.8300036</v>
+        <v>0.5708144000000001</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1213,20 +1213,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S s1 g1 c14 a1 o15 t15</t>
+          <t>S s1 g1 c14 a0 o14 t14</t>
         </is>
       </c>
       <c r="B36">
-        <v>0.5601089</v>
+        <v>0.4452933</v>
       </c>
       <c r="C36">
-        <v>0.1265938</v>
+        <v>0.1014673</v>
       </c>
       <c r="D36">
-        <v>0.3174651</v>
+        <v>0.264084</v>
       </c>
       <c r="E36">
-        <v>0.7770667999999999</v>
+        <v>0.6423173</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1237,20 +1237,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S s1 g1 c15 a1 o16 t16</t>
+          <t>S s1 g1 c15 a0 o15 t15</t>
         </is>
       </c>
       <c r="B37">
-        <v>0.4229654</v>
+        <v>0.4500366</v>
       </c>
       <c r="C37">
-        <v>0.1104052</v>
+        <v>0.1078625</v>
       </c>
       <c r="D37">
-        <v>0.2319675</v>
+        <v>0.2583247</v>
       </c>
       <c r="E37">
-        <v>0.6401491</v>
+        <v>0.6578322</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1261,20 +1261,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S s1 g1 c16 a1 o17 t17</t>
+          <t>S s1 g1 c16 a0 o16 t16</t>
         </is>
       </c>
       <c r="B38">
-        <v>0.5613139</v>
+        <v>0.2731687</v>
       </c>
       <c r="C38">
-        <v>0.1557941</v>
+        <v>0.0825468</v>
       </c>
       <c r="D38">
-        <v>0.2702061</v>
+        <v>0.1426464</v>
       </c>
       <c r="E38">
-        <v>0.8155629</v>
+        <v>0.4591592</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1285,20 +1285,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S s1 g1 c17 a1 o18 t18</t>
+          <t>S s1 g1 c17 a0 o17 t17</t>
         </is>
       </c>
       <c r="B39">
-        <v>0.492697</v>
+        <v>0.4656083</v>
       </c>
       <c r="C39">
-        <v>0.1636293</v>
+        <v>0.1270174</v>
       </c>
       <c r="D39">
-        <v>0.2120954</v>
+        <v>0.2426263</v>
       </c>
       <c r="E39">
-        <v>0.7779765</v>
+        <v>0.7032382</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1309,20 +1309,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S s1 g1 c18 a1 o19 t19</t>
+          <t>S s1 g1 c18 a0 o18 t18</t>
         </is>
       </c>
       <c r="B40">
-        <v>0.4580732</v>
+        <v>0.3449051</v>
       </c>
       <c r="C40">
-        <v>0.1789879</v>
+        <v>0.1264382</v>
       </c>
       <c r="D40">
-        <v>0.1706109</v>
+        <v>0.1495266</v>
       </c>
       <c r="E40">
-        <v>0.7764504</v>
+        <v>0.6118979</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1333,20 +1333,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S s1 g1 c19 a1 o20 t20</t>
+          <t>S s1 g1 c19 a0 o19 t19</t>
         </is>
       </c>
       <c r="B41">
-        <v>0.1538068</v>
+        <v>0.2656128</v>
       </c>
       <c r="C41">
-        <v>0.0752347</v>
+        <v>0.1230046</v>
       </c>
       <c r="D41">
-        <v>0.0553025</v>
+        <v>0.095095</v>
       </c>
       <c r="E41">
-        <v>0.3607633</v>
+        <v>0.5545222</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1357,20 +1357,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S s1 g1 c20 a1 o21 t21</t>
+          <t>S s1 g1 c20 a0 o20 t20</t>
         </is>
       </c>
       <c r="B42">
-        <v>0.6153483</v>
+        <v>0.1098076</v>
       </c>
       <c r="C42">
-        <v>0.323053</v>
+        <v>0.056318</v>
       </c>
       <c r="D42">
-        <v>0.0992794</v>
+        <v>0.038348</v>
       </c>
       <c r="E42">
-        <v>0.9587096000000001</v>
+        <v>0.2761847</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1381,20 +1381,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S s1 g1 c21 a1 o22 t22</t>
+          <t>S s1 g1 c21 a0 o21 t21</t>
         </is>
       </c>
       <c r="B43">
-        <v>0.009549500000000001</v>
+        <v>0.4682999</v>
       </c>
       <c r="C43">
-        <v>0.009934800000000001</v>
+        <v>0.2921513</v>
       </c>
       <c r="D43">
-        <v>0.0012289</v>
+        <v>0.0811606</v>
       </c>
       <c r="E43">
-        <v>0.0702455</v>
+        <v>0.8977747</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1405,20 +1405,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a0 o1 t1</t>
+          <t>S s1 g1 c22 a0 o22 t22</t>
         </is>
       </c>
       <c r="B44">
-        <v>0.9697879</v>
+        <v>0.006679</v>
       </c>
       <c r="C44">
-        <v>0.1057543</v>
+        <v>0.0071498</v>
       </c>
       <c r="D44">
-        <v>0.0264502</v>
+        <v>0.0008126805</v>
       </c>
       <c r="E44">
-        <v>0.9999736</v>
+        <v>0.0526592</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1429,20 +1429,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a1 o2 t2</t>
+          <t>S s2 g1 c1 a0 o1 t1</t>
         </is>
       </c>
       <c r="B45">
-        <v>0.8861005</v>
+        <v>0.9640784999999999</v>
       </c>
       <c r="C45">
-        <v>0.1213485</v>
+        <v>0.103025</v>
       </c>
       <c r="D45">
-        <v>0.4243148</v>
+        <v>0.07303229999999999</v>
       </c>
       <c r="E45">
-        <v>0.9879684</v>
+        <v>0.9998906</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1453,20 +1453,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a2 o3 t3</t>
+          <t>S s2 g1 c1 a1 o2 t2</t>
         </is>
       </c>
       <c r="B46">
-        <v>0.7812451</v>
+        <v>0.8822939</v>
       </c>
       <c r="C46">
-        <v>0.1020278</v>
+        <v>0.1188077</v>
       </c>
       <c r="D46">
-        <v>0.5256821</v>
+        <v>0.443261</v>
       </c>
       <c r="E46">
-        <v>0.9200521</v>
+        <v>0.9860277</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1477,20 +1477,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a3 o4 t4</t>
+          <t>S s2 g1 c1 a2 o3 t3</t>
         </is>
       </c>
       <c r="B47">
-        <v>0.9634903</v>
+        <v>0.7772772</v>
       </c>
       <c r="C47">
-        <v>0.07977629999999999</v>
+        <v>0.1028586</v>
       </c>
       <c r="D47">
-        <v>0.236486</v>
+        <v>0.5213182</v>
       </c>
       <c r="E47">
-        <v>0.9995555</v>
+        <v>0.9179199</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1501,20 +1501,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a4 o5 t5</t>
+          <t>S s2 g1 c1 a3 o4 t4</t>
         </is>
       </c>
       <c r="B48">
-        <v>0.7919931</v>
+        <v>0.9602266</v>
       </c>
       <c r="C48">
-        <v>0.1014672</v>
+        <v>0.07878839999999999</v>
       </c>
       <c r="D48">
-        <v>0.5323977</v>
+        <v>0.2974483</v>
       </c>
       <c r="E48">
-        <v>0.9271822</v>
+        <v>0.9992741000000001</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1525,20 +1525,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a5 o6 t6</t>
+          <t>S s2 g1 c1 a4 o5 t5</t>
         </is>
       </c>
       <c r="B49">
-        <v>0.8848201999999999</v>
+        <v>0.7958219</v>
       </c>
       <c r="C49">
-        <v>0.0860248</v>
+        <v>0.101487</v>
       </c>
       <c r="D49">
-        <v>0.5949485</v>
+        <v>0.5340008000000001</v>
       </c>
       <c r="E49">
-        <v>0.9757152</v>
+        <v>0.9298607</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1549,20 +1549,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a6 o7 t7</t>
+          <t>S s2 g1 c1 a5 o6 t6</t>
         </is>
       </c>
       <c r="B50">
-        <v>0.8573885</v>
+        <v>0.8754119</v>
       </c>
       <c r="C50">
-        <v>0.07014869999999999</v>
+        <v>0.08767369999999999</v>
       </c>
       <c r="D50">
-        <v>0.6613483999999999</v>
+        <v>0.5924532</v>
       </c>
       <c r="E50">
-        <v>0.9487401</v>
+        <v>0.9713977</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1573,20 +1573,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a7 o8 t8</t>
+          <t>S s2 g1 c1 a6 o7 t7</t>
         </is>
       </c>
       <c r="B51">
-        <v>0.8682052</v>
+        <v>0.856384</v>
       </c>
       <c r="C51">
-        <v>0.0817582</v>
+        <v>0.0697255</v>
       </c>
       <c r="D51">
-        <v>0.6188654</v>
+        <v>0.6624913</v>
       </c>
       <c r="E51">
-        <v>0.9639325</v>
+        <v>0.9476848</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1597,20 +1597,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a8 o9 t9</t>
+          <t>S s2 g1 c1 a7 o8 t8</t>
         </is>
       </c>
       <c r="B52">
-        <v>0.8455992</v>
+        <v>0.8668082</v>
       </c>
       <c r="C52">
-        <v>0.07401290000000001</v>
+        <v>0.0821818</v>
       </c>
       <c r="D52">
-        <v>0.6432283</v>
+        <v>0.6172386</v>
       </c>
       <c r="E52">
-        <v>0.9432986</v>
+        <v>0.963322</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1621,20 +1621,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a9 o10 t10</t>
+          <t>S s2 g1 c1 a8 o9 t9</t>
         </is>
       </c>
       <c r="B53">
-        <v>0.9300787</v>
+        <v>0.8421253</v>
       </c>
       <c r="C53">
-        <v>0.0487977</v>
+        <v>0.0753371</v>
       </c>
       <c r="D53">
-        <v>0.7534676</v>
+        <v>0.6372577</v>
       </c>
       <c r="E53">
-        <v>0.9830202</v>
+        <v>0.9418474</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1645,20 +1645,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a10 o11 t11</t>
+          <t>S s2 g1 c1 a9 o10 t10</t>
         </is>
       </c>
       <c r="B54">
-        <v>0.7898101</v>
+        <v>0.9308438999999999</v>
       </c>
       <c r="C54">
-        <v>0.0595566</v>
+        <v>0.0489492</v>
       </c>
       <c r="D54">
-        <v>0.6503607</v>
+        <v>0.7520086</v>
       </c>
       <c r="E54">
-        <v>0.8835963999999999</v>
+        <v>0.9835379</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1669,20 +1669,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a11 o12 t12</t>
+          <t>S s2 g1 c1 a10 o11 t11</t>
         </is>
       </c>
       <c r="B55">
-        <v>0.9499069</v>
+        <v>0.7866748</v>
       </c>
       <c r="C55">
-        <v>0.0399224</v>
+        <v>0.0600284</v>
       </c>
       <c r="D55">
-        <v>0.7855078</v>
+        <v>0.6465491</v>
       </c>
       <c r="E55">
-        <v>0.9899183</v>
+        <v>0.881435</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1693,20 +1693,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a12 o13 t13</t>
+          <t>S s2 g1 c1 a11 o12 t12</t>
         </is>
       </c>
       <c r="B56">
-        <v>0.8834408</v>
+        <v>0.9497352999999999</v>
       </c>
       <c r="C56">
-        <v>0.0542997</v>
+        <v>0.0400376</v>
       </c>
       <c r="D56">
-        <v>0.7294592</v>
+        <v>0.7849995</v>
       </c>
       <c r="E56">
-        <v>0.9551682</v>
+        <v>0.9898765</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1717,20 +1717,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a13 o14 t14</t>
+          <t>S s2 g1 c1 a12 o13 t13</t>
         </is>
       </c>
       <c r="B57">
-        <v>0.8484083</v>
+        <v>0.8844764000000001</v>
       </c>
       <c r="C57">
-        <v>0.0603986</v>
+        <v>0.0541028</v>
       </c>
       <c r="D57">
-        <v>0.6903415000000001</v>
+        <v>0.7306077</v>
       </c>
       <c r="E57">
-        <v>0.933555</v>
+        <v>0.9557793</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1741,20 +1741,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a14 o15 t15</t>
+          <t>S s2 g1 c1 a13 o14 t14</t>
         </is>
       </c>
       <c r="B58">
-        <v>0.9327677</v>
+        <v>0.8482946</v>
       </c>
       <c r="C58">
-        <v>0.0539261</v>
+        <v>0.0600034</v>
       </c>
       <c r="D58">
-        <v>0.7200280999999999</v>
+        <v>0.6915589</v>
       </c>
       <c r="E58">
-        <v>0.986815</v>
+        <v>0.9330903</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1765,20 +1765,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a15 o16 t16</t>
+          <t>S s2 g1 c1 a14 o15 t15</t>
         </is>
       </c>
       <c r="B59">
-        <v>0.8219594</v>
+        <v>0.9333605</v>
       </c>
       <c r="C59">
-        <v>0.0613707</v>
+        <v>0.0537868</v>
       </c>
       <c r="D59">
-        <v>0.6698982999999999</v>
+        <v>0.7200213</v>
       </c>
       <c r="E59">
-        <v>0.913064</v>
+        <v>0.9870602000000001</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1789,20 +1789,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a16 o17 t17</t>
+          <t>S s2 g1 c1 a15 o16 t16</t>
         </is>
       </c>
       <c r="B60">
-        <v>0.8177809</v>
+        <v>0.8174433</v>
       </c>
       <c r="C60">
-        <v>0.0640906</v>
+        <v>0.0620519</v>
       </c>
       <c r="D60">
-        <v>0.658901</v>
+        <v>0.6646585</v>
       </c>
       <c r="E60">
-        <v>0.9124856</v>
+        <v>0.9100395</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1813,20 +1813,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a17 o18 t18</t>
+          <t>S s2 g1 c1 a16 o17 t17</t>
         </is>
       </c>
       <c r="B61">
-        <v>0.7881505</v>
+        <v>0.8186272</v>
       </c>
       <c r="C61">
-        <v>0.07473050000000001</v>
+        <v>0.06383560000000001</v>
       </c>
       <c r="D61">
-        <v>0.6074427</v>
+        <v>0.6602477</v>
       </c>
       <c r="E61">
-        <v>0.899443</v>
+        <v>0.9129143</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1837,20 +1837,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a18 o19 t19</t>
+          <t>S s2 g1 c1 a17 o18 t18</t>
         </is>
       </c>
       <c r="B62">
-        <v>0.7593255</v>
+        <v>0.7893928</v>
       </c>
       <c r="C62">
-        <v>0.07855239999999999</v>
+        <v>0.0743224</v>
       </c>
       <c r="D62">
-        <v>0.5760331</v>
+        <v>0.6094632</v>
       </c>
       <c r="E62">
-        <v>0.8798975999999999</v>
+        <v>0.9000232</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1861,20 +1861,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a19 o20 t20</t>
+          <t>S s2 g1 c1 a18 o19 t19</t>
         </is>
       </c>
       <c r="B63">
-        <v>0.8677977</v>
+        <v>0.7587551</v>
       </c>
       <c r="C63">
-        <v>0.06646100000000001</v>
+        <v>0.0777409</v>
       </c>
       <c r="D63">
-        <v>0.6783464</v>
+        <v>0.5777248</v>
       </c>
       <c r="E63">
-        <v>0.9533392000000001</v>
+        <v>0.878499</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1885,20 +1885,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a20 o21 t21</t>
+          <t>S s2 g1 c1 a19 o20 t20</t>
         </is>
       </c>
       <c r="B64">
-        <v>0.8853965</v>
+        <v>0.8692712</v>
       </c>
       <c r="C64">
-        <v>0.119981</v>
+        <v>0.06542679999999999</v>
       </c>
       <c r="D64">
-        <v>0.4321677</v>
+        <v>0.6826707</v>
       </c>
       <c r="E64">
-        <v>0.9874093</v>
+        <v>0.9536019</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1909,20 +1909,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a21 o22 t22</t>
+          <t>S s2 g1 c1 a20 o21 t21</t>
         </is>
       </c>
       <c r="B65">
-        <v>0.3525003</v>
+        <v>0.8794616</v>
       </c>
       <c r="C65">
-        <v>0.0802988</v>
+        <v>0.1169132</v>
       </c>
       <c r="D65">
-        <v>0.2145663</v>
+        <v>0.4565429</v>
       </c>
       <c r="E65">
-        <v>0.5203595</v>
+        <v>0.9844642</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1933,20 +1933,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a1 o1 t2</t>
+          <t>S s2 g1 c1 a21 o22 t22</t>
         </is>
       </c>
       <c r="B66">
-        <v>0.08106389999999999</v>
+        <v>0.3558764</v>
       </c>
       <c r="C66">
-        <v>0.0442524</v>
+        <v>0.08014789999999999</v>
       </c>
       <c r="D66">
-        <v>0.0267965</v>
+        <v>0.2177876</v>
       </c>
       <c r="E66">
-        <v>0.2203484</v>
+        <v>0.5229817</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -1957,20 +1957,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a2 o2 t3</t>
+          <t>p s1 g1 c1 a1 o1 t2</t>
         </is>
       </c>
       <c r="B67">
-        <v>0.1309184</v>
+        <v>0.1059318</v>
       </c>
       <c r="C67">
-        <v>0.0639396</v>
+        <v>0.0563545</v>
       </c>
       <c r="D67">
-        <v>0.0476835</v>
+        <v>0.0355978</v>
       </c>
       <c r="E67">
-        <v>0.3118653</v>
+        <v>0.2755294</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -1981,20 +1981,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a3 o3 t4</t>
+          <t>p s1 g1 c1 a2 o2 t3</t>
         </is>
       </c>
       <c r="B68">
-        <v>0.0605656</v>
+        <v>0.169462</v>
       </c>
       <c r="C68">
-        <v>0.0276074</v>
+        <v>0.0791877</v>
       </c>
       <c r="D68">
-        <v>0.0243026</v>
+        <v>0.0634347</v>
       </c>
       <c r="E68">
-        <v>0.1430075</v>
+        <v>0.3806754</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2005,20 +2005,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a4 o4 t5</t>
+          <t>p s1 g1 c1 a3 o3 t4</t>
         </is>
       </c>
       <c r="B69">
-        <v>0.2147185</v>
+        <v>0.07220940000000001</v>
       </c>
       <c r="C69">
-        <v>0.0865311</v>
+        <v>0.0326721</v>
       </c>
       <c r="D69">
-        <v>0.0909107</v>
+        <v>0.0290548</v>
       </c>
       <c r="E69">
-        <v>0.4277925</v>
+        <v>0.1683473</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2029,20 +2029,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a5 o5 t6</t>
+          <t>p s1 g1 c1 a4 o4 t5</t>
         </is>
       </c>
       <c r="B70">
-        <v>0.0691112</v>
+        <v>0.2610302</v>
       </c>
       <c r="C70">
-        <v>0.0297466</v>
+        <v>0.098588</v>
       </c>
       <c r="D70">
-        <v>0.029123</v>
+        <v>0.1148247</v>
       </c>
       <c r="E70">
-        <v>0.1552274</v>
+        <v>0.4902855</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2053,20 +2053,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a6 o6 t7</t>
+          <t>p s1 g1 c1 a5 o5 t6</t>
         </is>
       </c>
       <c r="B71">
-        <v>0.1456166</v>
+        <v>0.0803364</v>
       </c>
       <c r="C71">
-        <v>0.0491346</v>
+        <v>0.0340364</v>
       </c>
       <c r="D71">
-        <v>0.07286629999999999</v>
+        <v>0.0342003</v>
       </c>
       <c r="E71">
-        <v>0.2698598</v>
+        <v>0.1772856</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2077,20 +2077,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a7 o7 t8</t>
+          <t>p s1 g1 c1 a6 o6 t7</t>
         </is>
       </c>
       <c r="B72">
-        <v>0.1782711</v>
+        <v>0.1880199</v>
       </c>
       <c r="C72">
-        <v>0.0614592</v>
+        <v>0.0609075</v>
       </c>
       <c r="D72">
-        <v>0.0870331</v>
+        <v>0.0957925</v>
       </c>
       <c r="E72">
-        <v>0.3305278</v>
+        <v>0.3360425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2101,20 +2101,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a8 o8 t9</t>
+          <t>p s1 g1 c1 a7 o7 t8</t>
         </is>
       </c>
       <c r="B73">
-        <v>0.0375142</v>
+        <v>0.2127268</v>
       </c>
       <c r="C73">
-        <v>0.0132806</v>
+        <v>0.0701259</v>
       </c>
       <c r="D73">
-        <v>0.0186019</v>
+        <v>0.1062842</v>
       </c>
       <c r="E73">
-        <v>0.0742005</v>
+        <v>0.3803973</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2125,20 +2125,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a9 o9 t10</t>
+          <t>p s1 g1 c1 a8 o8 t9</t>
         </is>
       </c>
       <c r="B74">
-        <v>0.4055698</v>
+        <v>0.0456612</v>
       </c>
       <c r="C74">
-        <v>0.100829</v>
+        <v>0.0162192</v>
       </c>
       <c r="D74">
-        <v>0.2311111</v>
+        <v>0.0225484</v>
       </c>
       <c r="E74">
-        <v>0.6076458</v>
+        <v>0.0902773</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2149,20 +2149,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a10 o10 t11</t>
+          <t>p s1 g1 c1 a9 o9 t10</t>
         </is>
       </c>
       <c r="B75">
-        <v>0.1972271</v>
+        <v>0.4514786</v>
       </c>
       <c r="C75">
-        <v>0.0555915</v>
+        <v>0.1027972</v>
       </c>
       <c r="D75">
-        <v>0.1098864</v>
+        <v>0.2673145</v>
       </c>
       <c r="E75">
-        <v>0.3283779</v>
+        <v>0.649967</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2173,20 +2173,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a11 o11 t12</t>
+          <t>p s1 g1 c1 a10 o10 t11</t>
         </is>
       </c>
       <c r="B76">
-        <v>0.1969711</v>
+        <v>0.2214274</v>
       </c>
       <c r="C76">
-        <v>0.0537562</v>
+        <v>0.059339</v>
       </c>
       <c r="D76">
-        <v>0.1119027</v>
+        <v>0.1265297</v>
       </c>
       <c r="E76">
-        <v>0.3231757</v>
+        <v>0.3583029</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2197,20 +2197,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a12 o12 t13</t>
+          <t>p s1 g1 c1 a11 o11 t12</t>
         </is>
       </c>
       <c r="B77">
-        <v>0.1846805</v>
+        <v>0.2351034</v>
       </c>
       <c r="C77">
-        <v>0.051183</v>
+        <v>0.0610709</v>
       </c>
       <c r="D77">
-        <v>0.1042195</v>
+        <v>0.1364211</v>
       </c>
       <c r="E77">
-        <v>0.3060379</v>
+        <v>0.3742349</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2221,20 +2221,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a13 o13 t14</t>
+          <t>p s1 g1 c1 a12 o12 t13</t>
         </is>
       </c>
       <c r="B78">
-        <v>0.1458885</v>
+        <v>0.2089699</v>
       </c>
       <c r="C78">
-        <v>0.0409562</v>
+        <v>0.056188</v>
       </c>
       <c r="D78">
-        <v>0.0823039</v>
+        <v>0.1194789</v>
       </c>
       <c r="E78">
-        <v>0.245457</v>
+        <v>0.3396359</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2245,20 +2245,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a14 o14 t15</t>
+          <t>p s1 g1 c1 a13 o13 t14</t>
         </is>
       </c>
       <c r="B79">
-        <v>0.1183028</v>
+        <v>0.165268</v>
       </c>
       <c r="C79">
-        <v>0.0321848</v>
+        <v>0.0452607</v>
       </c>
       <c r="D79">
-        <v>0.0682826</v>
+        <v>0.0942692</v>
       </c>
       <c r="E79">
-        <v>0.1972094</v>
+        <v>0.2735874</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2269,20 +2269,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a15 o15 t16</t>
+          <t>p s1 g1 c1 a14 o14 t15</t>
         </is>
       </c>
       <c r="B80">
-        <v>0.1384438</v>
+        <v>0.1409363</v>
       </c>
       <c r="C80">
-        <v>0.0367751</v>
+        <v>0.0375684</v>
       </c>
       <c r="D80">
-        <v>0.080722</v>
+        <v>0.0819824</v>
       </c>
       <c r="E80">
-        <v>0.2272377</v>
+        <v>0.2315894</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2293,20 +2293,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a16 o16 t17</t>
+          <t>p s1 g1 c1 a15 o15 t16</t>
         </is>
       </c>
       <c r="B81">
-        <v>0.2219656</v>
+        <v>0.1613273</v>
       </c>
       <c r="C81">
-        <v>0.0577988</v>
+        <v>0.0414438</v>
       </c>
       <c r="D81">
-        <v>0.1289551</v>
+        <v>0.0954574</v>
       </c>
       <c r="E81">
-        <v>0.35474</v>
+        <v>0.2596053</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2317,20 +2317,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a17 o17 t18</t>
+          <t>p s1 g1 c1 a16 o16 t17</t>
         </is>
       </c>
       <c r="B82">
-        <v>0.1466951</v>
+        <v>0.2561908</v>
       </c>
       <c r="C82">
-        <v>0.0423912</v>
+        <v>0.0636005</v>
       </c>
       <c r="D82">
-        <v>0.0813218</v>
+        <v>0.1518668</v>
       </c>
       <c r="E82">
-        <v>0.2503025</v>
+        <v>0.3985068</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2341,20 +2341,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a18 o18 t19</t>
+          <t>p s1 g1 c1 a17 o17 t18</t>
         </is>
       </c>
       <c r="B83">
-        <v>0.0929451</v>
+        <v>0.1677292</v>
       </c>
       <c r="C83">
-        <v>0.0288046</v>
+        <v>0.0469789</v>
       </c>
       <c r="D83">
-        <v>0.0498378</v>
+        <v>0.09436940000000001</v>
       </c>
       <c r="E83">
-        <v>0.1667929</v>
+        <v>0.2804563</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2365,20 +2365,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a19 o19 t20</t>
+          <t>p s1 g1 c1 a18 o18 t19</t>
         </is>
       </c>
       <c r="B84">
-        <v>0.0933206</v>
+        <v>0.1071455</v>
       </c>
       <c r="C84">
-        <v>0.0293751</v>
+        <v>0.032928</v>
       </c>
       <c r="D84">
-        <v>0.049538</v>
+        <v>0.0576022</v>
       </c>
       <c r="E84">
-        <v>0.1689221</v>
+        <v>0.190679</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2389,20 +2389,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a20 o20 t21</t>
+          <t>p s1 g1 c1 a19 o19 t20</t>
         </is>
       </c>
       <c r="B85">
-        <v>0.2456264</v>
+        <v>0.1133048</v>
       </c>
       <c r="C85">
-        <v>0.0837305</v>
+        <v>0.0355357</v>
       </c>
       <c r="D85">
-        <v>0.1183906</v>
+        <v>0.0600481</v>
       </c>
       <c r="E85">
-        <v>0.4411755</v>
+        <v>0.2035657</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2413,20 +2413,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a21 o21 t22</t>
+          <t>p s1 g1 c1 a20 o20 t21</t>
         </is>
       </c>
       <c r="B86">
-        <v>0.1075282</v>
+        <v>0.2833088</v>
       </c>
       <c r="C86">
-        <v>0.0480893</v>
+        <v>0.0920771</v>
       </c>
       <c r="D86">
-        <v>0.0431727</v>
+        <v>0.1398025</v>
       </c>
       <c r="E86">
-        <v>0.2434109</v>
+        <v>0.4901801</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2437,20 +2437,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a22 o22 t23</t>
+          <t>p s1 g1 c1 a21 o21 t22</t>
         </is>
       </c>
       <c r="B87">
-        <v>0.9999958</v>
+        <v>0.1288775</v>
       </c>
       <c r="C87">
-        <v>0.004799</v>
+        <v>0.0566782</v>
       </c>
       <c r="D87">
-        <v>1.311676E-303</v>
+        <v>0.0521328</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0.2846687</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2461,20 +2461,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a1 o1 t2</t>
+          <t>p s1 g1 c1 a22 o22 t23</t>
         </is>
       </c>
       <c r="B88">
-        <v>0.6305305</v>
+        <v>0.9999977</v>
       </c>
       <c r="C88">
-        <v>0.1341025</v>
+        <v>0.0041048</v>
       </c>
       <c r="D88">
-        <v>0.3557716</v>
+        <v>2.443815E-303</v>
       </c>
       <c r="E88">
-        <v>0.8406069</v>
+        <v>1</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2485,20 +2485,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a2 o2 t3</t>
+          <t>p s2 g1 c1 a1 o1 t2</t>
         </is>
       </c>
       <c r="B89">
-        <v>0.7445226</v>
+        <v>0.6604504</v>
       </c>
       <c r="C89">
-        <v>0.1022274</v>
+        <v>0.128512</v>
       </c>
       <c r="D89">
-        <v>0.5040524</v>
+        <v>0.387485</v>
       </c>
       <c r="E89">
-        <v>0.8931195</v>
+        <v>0.8567433</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2509,20 +2509,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a3 o3 t4</t>
+          <t>p s2 g1 c1 a2 o2 t3</t>
         </is>
       </c>
       <c r="B90">
-        <v>0.5550069</v>
+        <v>0.7700942</v>
       </c>
       <c r="C90">
-        <v>0.1101087</v>
+        <v>0.0952326</v>
       </c>
       <c r="D90">
-        <v>0.3423349</v>
+        <v>0.5385689</v>
       </c>
       <c r="E90">
-        <v>0.7492751</v>
+        <v>0.9057748</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2533,20 +2533,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a4 o4 t5</t>
+          <t>p s2 g1 c1 a3 o3 t4</t>
         </is>
       </c>
       <c r="B91">
-        <v>0.8410094</v>
+        <v>0.5609582</v>
       </c>
       <c r="C91">
-        <v>0.06744070000000001</v>
+        <v>0.1099704</v>
       </c>
       <c r="D91">
-        <v>0.6631117</v>
+        <v>0.3474823</v>
       </c>
       <c r="E91">
-        <v>0.934277</v>
+        <v>0.7540311</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2557,20 +2557,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a5 o5 t6</t>
+          <t>p s2 g1 c1 a4 o4 t5</t>
         </is>
       </c>
       <c r="B92">
-        <v>0.5895363</v>
+        <v>0.8529173</v>
       </c>
       <c r="C92">
-        <v>0.1045899</v>
+        <v>0.0628056</v>
       </c>
       <c r="D92">
-        <v>0.3810482</v>
+        <v>0.6849043</v>
       </c>
       <c r="E92">
-        <v>0.7701572</v>
+        <v>0.9392852</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2581,20 +2581,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a6 o6 t7</t>
+          <t>p s2 g1 c1 a5 o5 t6</t>
         </is>
       </c>
       <c r="B93">
-        <v>0.7672895</v>
+        <v>0.5891623</v>
       </c>
       <c r="C93">
-        <v>0.0656525</v>
+        <v>0.1035664</v>
       </c>
       <c r="D93">
-        <v>0.6159531</v>
+        <v>0.3826949</v>
       </c>
       <c r="E93">
-        <v>0.8714379</v>
+        <v>0.7683704</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2605,20 +2605,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a7 o7 t8</t>
+          <t>p s2 g1 c1 a6 o6 t7</t>
         </is>
       </c>
       <c r="B94">
-        <v>0.8075809</v>
+        <v>0.7917259</v>
       </c>
       <c r="C94">
-        <v>0.0599978</v>
+        <v>0.0607466</v>
       </c>
       <c r="D94">
-        <v>0.6632049</v>
+        <v>0.6486954</v>
       </c>
       <c r="E94">
-        <v>0.8994498</v>
+        <v>0.8866943</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2629,20 +2629,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a8 o8 t9</t>
+          <t>p s2 g1 c1 a7 o7 t8</t>
         </is>
       </c>
       <c r="B95">
-        <v>0.4298829</v>
+        <v>0.8160365000000001</v>
       </c>
       <c r="C95">
-        <v>0.0761747</v>
+        <v>0.0575708</v>
       </c>
       <c r="D95">
-        <v>0.2907966</v>
+        <v>0.6765736</v>
       </c>
       <c r="E95">
-        <v>0.5809953</v>
+        <v>0.9039038</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2653,20 +2653,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a9 o9 t10</t>
+          <t>p s2 g1 c1 a8 o8 t9</t>
         </is>
       </c>
       <c r="B96">
-        <v>0.9295739</v>
+        <v>0.4399211</v>
       </c>
       <c r="C96">
-        <v>0.027002</v>
+        <v>0.0773469</v>
       </c>
       <c r="D96">
-        <v>0.8546747</v>
+        <v>0.2980156</v>
       </c>
       <c r="E96">
-        <v>0.9673456</v>
+        <v>0.5923771</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2677,20 +2677,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a10 o10 t11</t>
+          <t>p s2 g1 c1 a9 o9 t10</t>
         </is>
       </c>
       <c r="B97">
-        <v>0.8261748</v>
+        <v>0.9310923</v>
       </c>
       <c r="C97">
-        <v>0.0488778</v>
+        <v>0.0260995</v>
       </c>
       <c r="D97">
-        <v>0.7092344</v>
+        <v>0.8589114</v>
       </c>
       <c r="E97">
-        <v>0.9025464</v>
+        <v>0.9677327</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2701,20 +2701,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a11 o11 t12</t>
+          <t>p s2 g1 c1 a10 o10 t11</t>
         </is>
       </c>
       <c r="B98">
-        <v>0.8259424</v>
+        <v>0.8235985</v>
       </c>
       <c r="C98">
-        <v>0.0446054</v>
+        <v>0.0477164</v>
       </c>
       <c r="D98">
-        <v>0.7209145</v>
+        <v>0.7103712</v>
       </c>
       <c r="E98">
-        <v>0.8970875</v>
+        <v>0.898863</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2725,20 +2725,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a12 o12 t13</t>
+          <t>p s2 g1 c1 a11 o11 t12</t>
         </is>
       </c>
       <c r="B99">
-        <v>0.8141977</v>
+        <v>0.8345983</v>
       </c>
       <c r="C99">
-        <v>0.0457379</v>
+        <v>0.0425421</v>
       </c>
       <c r="D99">
-        <v>0.7078437</v>
+        <v>0.7339087</v>
       </c>
       <c r="E99">
-        <v>0.8879634</v>
+        <v>0.9022609</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2749,20 +2749,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a13 o13 t14</t>
+          <t>p s2 g1 c1 a12 o12 t13</t>
         </is>
       </c>
       <c r="B100">
-        <v>0.7676793</v>
+        <v>0.8126227</v>
       </c>
       <c r="C100">
-        <v>0.0539307</v>
+        <v>0.0458423</v>
       </c>
       <c r="D100">
-        <v>0.6462435</v>
+        <v>0.7062116000000001</v>
       </c>
       <c r="E100">
-        <v>0.8566743999999999</v>
+        <v>0.8866762</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2773,20 +2773,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a14 o14 t15</t>
+          <t>p s2 g1 c1 a13 o13 t14</t>
         </is>
       </c>
       <c r="B101">
-        <v>0.7218931</v>
+        <v>0.7647223</v>
       </c>
       <c r="C101">
-        <v>0.0547104</v>
+        <v>0.0535108</v>
       </c>
       <c r="D101">
-        <v>0.603423</v>
+        <v>0.6446996</v>
       </c>
       <c r="E101">
-        <v>0.8157771</v>
+        <v>0.8534189</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2797,20 +2797,20 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a15 o15 t16</t>
+          <t>p s2 g1 c1 a14 o14 t15</t>
         </is>
       </c>
       <c r="B102">
-        <v>0.7566125</v>
+        <v>0.7292367</v>
       </c>
       <c r="C102">
-        <v>0.0524425</v>
+        <v>0.0537162</v>
       </c>
       <c r="D102">
-        <v>0.6401521999999999</v>
+        <v>0.6124298</v>
       </c>
       <c r="E102">
-        <v>0.8445353</v>
+        <v>0.8211222</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2821,20 +2821,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a16 o16 t17</t>
+          <t>p s2 g1 c1 a15 o15 t16</t>
         </is>
       </c>
       <c r="B103">
-        <v>0.8466058</v>
+        <v>0.7594932</v>
       </c>
       <c r="C103">
-        <v>0.0409485</v>
+        <v>0.0512497</v>
       </c>
       <c r="D103">
-        <v>0.7484197</v>
+        <v>0.6456535</v>
       </c>
       <c r="E103">
-        <v>0.9110275</v>
+        <v>0.845511</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2845,20 +2845,20 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a17 o17 t18</t>
+          <t>p s2 g1 c1 a16 o16 t17</t>
         </is>
       </c>
       <c r="B104">
-        <v>0.7688291</v>
+        <v>0.8497225</v>
       </c>
       <c r="C104">
-        <v>0.0538463</v>
+        <v>0.0399666</v>
       </c>
       <c r="D104">
-        <v>0.6474615</v>
+        <v>0.7537981</v>
       </c>
       <c r="E104">
-        <v>0.8576032</v>
+        <v>0.9126062</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -2869,20 +2869,20 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a18 o18 t19</t>
+          <t>p s2 g1 c1 a17 o17 t18</t>
         </is>
       </c>
       <c r="B105">
-        <v>0.6646929</v>
+        <v>0.7678982</v>
       </c>
       <c r="C105">
-        <v>0.0669404</v>
+        <v>0.0531271</v>
       </c>
       <c r="D105">
-        <v>0.523881</v>
+        <v>0.6484523</v>
       </c>
       <c r="E105">
-        <v>0.7812489</v>
+        <v>0.8557857</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -2893,20 +2893,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a19 o19 t20</t>
+          <t>p s2 g1 c1 a18 o18 t19</t>
         </is>
       </c>
       <c r="B106">
-        <v>0.6656832</v>
+        <v>0.6633038999999999</v>
       </c>
       <c r="C106">
-        <v>0.0659979</v>
+        <v>0.06654889999999999</v>
       </c>
       <c r="D106">
-        <v>0.5268437</v>
+        <v>0.5234845</v>
       </c>
       <c r="E106">
-        <v>0.7807378</v>
+        <v>0.7793870000000001</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -2917,20 +2917,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a20 o20 t21</t>
+          <t>p s2 g1 c1 a19 o19 t20</t>
         </is>
       </c>
       <c r="B107">
-        <v>0.8629956</v>
+        <v>0.6771857999999999</v>
       </c>
       <c r="C107">
-        <v>0.0512757</v>
+        <v>0.065804</v>
       </c>
       <c r="D107">
-        <v>0.7291641</v>
+        <v>0.5376472</v>
       </c>
       <c r="E107">
-        <v>0.9364582</v>
+        <v>0.7909834</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -2941,20 +2941,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a21 o21 t22</t>
+          <t>p s2 g1 c1 a20 o20 t21</t>
         </is>
       </c>
       <c r="B108">
-        <v>0.6997757</v>
+        <v>0.8664792</v>
       </c>
       <c r="C108">
-        <v>0.09783550000000001</v>
+        <v>0.0499792</v>
       </c>
       <c r="D108">
-        <v>0.4833782</v>
+        <v>0.7356468</v>
       </c>
       <c r="E108">
-        <v>0.8530808</v>
+        <v>0.9380164</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -2965,20 +2965,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a22 o22 t23</t>
+          <t>p s2 g1 c1 a21 o21 t22</t>
         </is>
       </c>
       <c r="B109">
-        <v>0.9999998</v>
+        <v>0.7083468000000001</v>
       </c>
       <c r="C109">
-        <v>0.0002487032</v>
+        <v>0.09652429999999999</v>
       </c>
       <c r="D109">
-        <v>2.537535E-302</v>
+        <v>0.4929034</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0.8585289</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -2989,68 +2989,68 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Psi s2 to1 g1 c1 a0 o1 t1</t>
+          <t>p s2 g1 c1 a22 o22 t23</t>
         </is>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>0.9999999000000001</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>0.0002498839</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>4.011895E-302</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t xml:space="preserve">     </t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a0 o1 t1</t>
+          <t>Psi s2 to1 g1 c1 a0 o1 t1</t>
         </is>
       </c>
       <c r="B111">
-        <v>0.1658845</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>0.0231061</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>0.1253862</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>0.2162295</v>
+        <v>0</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t xml:space="preserve">     </t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a1 o2 t2</t>
+          <t>Psi s1 to2 g1 c1 a0 o1 t1</t>
         </is>
       </c>
       <c r="B112">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C112">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D112">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E112">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3061,20 +3061,20 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a2 o3 t3</t>
+          <t>Psi s1 to2 g1 c1 a1 o2 t2</t>
         </is>
       </c>
       <c r="B113">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C113">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D113">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E113">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3085,20 +3085,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a3 o4 t4</t>
+          <t>Psi s1 to2 g1 c1 a2 o3 t3</t>
         </is>
       </c>
       <c r="B114">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C114">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D114">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E114">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3109,20 +3109,20 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a4 o5 t5</t>
+          <t>Psi s1 to2 g1 c1 a3 o4 t4</t>
         </is>
       </c>
       <c r="B115">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C115">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D115">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E115">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3133,20 +3133,20 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a5 o6 t6</t>
+          <t>Psi s1 to2 g1 c1 a4 o5 t5</t>
         </is>
       </c>
       <c r="B116">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C116">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D116">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E116">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3157,20 +3157,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a6 o7 t7</t>
+          <t>Psi s1 to2 g1 c1 a5 o6 t6</t>
         </is>
       </c>
       <c r="B117">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C117">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D117">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E117">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3181,20 +3181,20 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a7 o8 t8</t>
+          <t>Psi s1 to2 g1 c1 a6 o7 t7</t>
         </is>
       </c>
       <c r="B118">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C118">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D118">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E118">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3205,20 +3205,20 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a8 o9 t9</t>
+          <t>Psi s1 to2 g1 c1 a7 o8 t8</t>
         </is>
       </c>
       <c r="B119">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C119">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D119">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E119">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3229,20 +3229,20 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a9 o10 t10</t>
+          <t>Psi s1 to2 g1 c1 a8 o9 t9</t>
         </is>
       </c>
       <c r="B120">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C120">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D120">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E120">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3253,20 +3253,20 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a10 o11 t11</t>
+          <t>Psi s1 to2 g1 c1 a9 o10 t10</t>
         </is>
       </c>
       <c r="B121">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C121">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D121">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E121">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3277,20 +3277,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a11 o12 t12</t>
+          <t>Psi s1 to2 g1 c1 a10 o11 t11</t>
         </is>
       </c>
       <c r="B122">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C122">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D122">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E122">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3301,20 +3301,20 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a12 o13 t13</t>
+          <t>Psi s1 to2 g1 c1 a11 o12 t12</t>
         </is>
       </c>
       <c r="B123">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C123">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D123">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E123">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3325,20 +3325,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a13 o14 t14</t>
+          <t>Psi s1 to2 g1 c1 a12 o13 t13</t>
         </is>
       </c>
       <c r="B124">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C124">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D124">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E124">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3349,20 +3349,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a14 o15 t15</t>
+          <t>Psi s1 to2 g1 c1 a13 o14 t14</t>
         </is>
       </c>
       <c r="B125">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C125">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D125">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E125">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3373,20 +3373,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a15 o16 t16</t>
+          <t>Psi s1 to2 g1 c1 a14 o15 t15</t>
         </is>
       </c>
       <c r="B126">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C126">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D126">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E126">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3397,20 +3397,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a16 o17 t17</t>
+          <t>Psi s1 to2 g1 c1 a15 o16 t16</t>
         </is>
       </c>
       <c r="B127">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C127">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D127">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E127">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3421,20 +3421,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a17 o18 t18</t>
+          <t>Psi s1 to2 g1 c1 a16 o17 t17</t>
         </is>
       </c>
       <c r="B128">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C128">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D128">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E128">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3445,20 +3445,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a18 o19 t19</t>
+          <t>Psi s1 to2 g1 c1 a17 o18 t18</t>
         </is>
       </c>
       <c r="B129">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C129">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D129">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E129">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3469,20 +3469,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a19 o20 t20</t>
+          <t>Psi s1 to2 g1 c1 a18 o19 t19</t>
         </is>
       </c>
       <c r="B130">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C130">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D130">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E130">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3493,20 +3493,20 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a20 o21 t21</t>
+          <t>Psi s1 to2 g1 c1 a19 o20 t20</t>
         </is>
       </c>
       <c r="B131">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C131">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D131">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E131">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3517,20 +3517,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a21 o22 t22</t>
+          <t>Psi s1 to2 g1 c1 a20 o21 t21</t>
         </is>
       </c>
       <c r="B132">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C132">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D132">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E132">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3541,20 +3541,20 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a0 o2 t2</t>
+          <t>Psi s1 to2 g1 c1 a21 o22 t22</t>
         </is>
       </c>
       <c r="B133">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C133">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D133">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E133">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3565,20 +3565,20 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a1 o3 t3</t>
+          <t>Psi s1 to2 g1 c2 a0 o2 t2</t>
         </is>
       </c>
       <c r="B134">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C134">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D134">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E134">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3589,20 +3589,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a2 o4 t4</t>
+          <t>Psi s1 to2 g1 c2 a1 o3 t3</t>
         </is>
       </c>
       <c r="B135">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C135">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D135">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E135">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3613,20 +3613,20 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a3 o5 t5</t>
+          <t>Psi s1 to2 g1 c2 a2 o4 t4</t>
         </is>
       </c>
       <c r="B136">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C136">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D136">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E136">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3637,20 +3637,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a4 o6 t6</t>
+          <t>Psi s1 to2 g1 c2 a3 o5 t5</t>
         </is>
       </c>
       <c r="B137">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C137">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D137">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E137">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -3661,20 +3661,20 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a5 o7 t7</t>
+          <t>Psi s1 to2 g1 c2 a4 o6 t6</t>
         </is>
       </c>
       <c r="B138">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C138">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D138">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E138">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -3685,20 +3685,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a6 o8 t8</t>
+          <t>Psi s1 to2 g1 c2 a5 o7 t7</t>
         </is>
       </c>
       <c r="B139">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C139">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D139">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E139">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3709,20 +3709,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a7 o9 t9</t>
+          <t>Psi s1 to2 g1 c2 a6 o8 t8</t>
         </is>
       </c>
       <c r="B140">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C140">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D140">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E140">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -3733,20 +3733,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a8 o10 t10</t>
+          <t>Psi s1 to2 g1 c2 a7 o9 t9</t>
         </is>
       </c>
       <c r="B141">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C141">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D141">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E141">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -3757,20 +3757,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a9 o11 t11</t>
+          <t>Psi s1 to2 g1 c2 a8 o10 t10</t>
         </is>
       </c>
       <c r="B142">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C142">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D142">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E142">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -3781,20 +3781,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a10 o12 t12</t>
+          <t>Psi s1 to2 g1 c2 a9 o11 t11</t>
         </is>
       </c>
       <c r="B143">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C143">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D143">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E143">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -3805,20 +3805,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a11 o13 t13</t>
+          <t>Psi s1 to2 g1 c2 a10 o12 t12</t>
         </is>
       </c>
       <c r="B144">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C144">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D144">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E144">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -3829,20 +3829,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a12 o14 t14</t>
+          <t>Psi s1 to2 g1 c2 a11 o13 t13</t>
         </is>
       </c>
       <c r="B145">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C145">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D145">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E145">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -3853,20 +3853,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a13 o15 t15</t>
+          <t>Psi s1 to2 g1 c2 a12 o14 t14</t>
         </is>
       </c>
       <c r="B146">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C146">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D146">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E146">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -3877,20 +3877,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a14 o16 t16</t>
+          <t>Psi s1 to2 g1 c2 a13 o15 t15</t>
         </is>
       </c>
       <c r="B147">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C147">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D147">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E147">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -3901,20 +3901,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a15 o17 t17</t>
+          <t>Psi s1 to2 g1 c2 a14 o16 t16</t>
         </is>
       </c>
       <c r="B148">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C148">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D148">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E148">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -3925,20 +3925,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a16 o18 t18</t>
+          <t>Psi s1 to2 g1 c2 a15 o17 t17</t>
         </is>
       </c>
       <c r="B149">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C149">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D149">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E149">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -3949,20 +3949,20 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a17 o19 t19</t>
+          <t>Psi s1 to2 g1 c2 a16 o18 t18</t>
         </is>
       </c>
       <c r="B150">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C150">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D150">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E150">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -3973,20 +3973,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a18 o20 t20</t>
+          <t>Psi s1 to2 g1 c2 a17 o19 t19</t>
         </is>
       </c>
       <c r="B151">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C151">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D151">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E151">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -3997,20 +3997,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a19 o21 t21</t>
+          <t>Psi s1 to2 g1 c2 a18 o20 t20</t>
         </is>
       </c>
       <c r="B152">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C152">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D152">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E152">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4021,20 +4021,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a20 o22 t22</t>
+          <t>Psi s1 to2 g1 c2 a19 o21 t21</t>
         </is>
       </c>
       <c r="B153">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C153">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D153">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E153">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4045,20 +4045,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a0 o3 t3</t>
+          <t>Psi s1 to2 g1 c2 a20 o22 t22</t>
         </is>
       </c>
       <c r="B154">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C154">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D154">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E154">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4069,20 +4069,20 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a1 o4 t4</t>
+          <t>Psi s1 to2 g1 c3 a0 o3 t3</t>
         </is>
       </c>
       <c r="B155">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C155">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D155">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E155">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4093,20 +4093,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a2 o5 t5</t>
+          <t>Psi s1 to2 g1 c3 a1 o4 t4</t>
         </is>
       </c>
       <c r="B156">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C156">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D156">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E156">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4117,20 +4117,20 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a3 o6 t6</t>
+          <t>Psi s1 to2 g1 c3 a2 o5 t5</t>
         </is>
       </c>
       <c r="B157">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C157">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D157">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E157">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4141,20 +4141,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a4 o7 t7</t>
+          <t>Psi s1 to2 g1 c3 a3 o6 t6</t>
         </is>
       </c>
       <c r="B158">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C158">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D158">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E158">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4165,20 +4165,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a5 o8 t8</t>
+          <t>Psi s1 to2 g1 c3 a4 o7 t7</t>
         </is>
       </c>
       <c r="B159">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C159">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D159">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E159">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4189,20 +4189,20 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a6 o9 t9</t>
+          <t>Psi s1 to2 g1 c3 a5 o8 t8</t>
         </is>
       </c>
       <c r="B160">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C160">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D160">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E160">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4213,20 +4213,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a7 o10 t10</t>
+          <t>Psi s1 to2 g1 c3 a6 o9 t9</t>
         </is>
       </c>
       <c r="B161">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C161">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D161">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E161">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4237,20 +4237,20 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a8 o11 t11</t>
+          <t>Psi s1 to2 g1 c3 a7 o10 t10</t>
         </is>
       </c>
       <c r="B162">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C162">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D162">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E162">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4261,20 +4261,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a9 o12 t12</t>
+          <t>Psi s1 to2 g1 c3 a8 o11 t11</t>
         </is>
       </c>
       <c r="B163">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C163">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D163">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E163">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4285,20 +4285,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a10 o13 t13</t>
+          <t>Psi s1 to2 g1 c3 a9 o12 t12</t>
         </is>
       </c>
       <c r="B164">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C164">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D164">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E164">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4309,20 +4309,20 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a11 o14 t14</t>
+          <t>Psi s1 to2 g1 c3 a10 o13 t13</t>
         </is>
       </c>
       <c r="B165">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C165">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D165">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E165">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4333,20 +4333,20 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a12 o15 t15</t>
+          <t>Psi s1 to2 g1 c3 a11 o14 t14</t>
         </is>
       </c>
       <c r="B166">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C166">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D166">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E166">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4357,20 +4357,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a13 o16 t16</t>
+          <t>Psi s1 to2 g1 c3 a12 o15 t15</t>
         </is>
       </c>
       <c r="B167">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C167">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D167">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E167">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4381,20 +4381,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a14 o17 t17</t>
+          <t>Psi s1 to2 g1 c3 a13 o16 t16</t>
         </is>
       </c>
       <c r="B168">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C168">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D168">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E168">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4405,20 +4405,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a15 o18 t18</t>
+          <t>Psi s1 to2 g1 c3 a14 o17 t17</t>
         </is>
       </c>
       <c r="B169">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C169">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D169">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E169">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4429,20 +4429,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a16 o19 t19</t>
+          <t>Psi s1 to2 g1 c3 a15 o18 t18</t>
         </is>
       </c>
       <c r="B170">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C170">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D170">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E170">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -4453,20 +4453,20 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a17 o20 t20</t>
+          <t>Psi s1 to2 g1 c3 a16 o19 t19</t>
         </is>
       </c>
       <c r="B171">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C171">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D171">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E171">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -4477,20 +4477,20 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a18 o21 t21</t>
+          <t>Psi s1 to2 g1 c3 a17 o20 t20</t>
         </is>
       </c>
       <c r="B172">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C172">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D172">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E172">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4501,20 +4501,20 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a19 o22 t22</t>
+          <t>Psi s1 to2 g1 c3 a18 o21 t21</t>
         </is>
       </c>
       <c r="B173">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C173">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D173">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E173">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -4525,20 +4525,20 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a0 o4 t4</t>
+          <t>Psi s1 to2 g1 c3 a19 o22 t22</t>
         </is>
       </c>
       <c r="B174">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C174">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D174">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E174">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4549,20 +4549,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a1 o5 t5</t>
+          <t>Psi s1 to2 g1 c4 a0 o4 t4</t>
         </is>
       </c>
       <c r="B175">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C175">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D175">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E175">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -4573,20 +4573,20 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a2 o6 t6</t>
+          <t>Psi s1 to2 g1 c4 a1 o5 t5</t>
         </is>
       </c>
       <c r="B176">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C176">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D176">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E176">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -4597,20 +4597,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a3 o7 t7</t>
+          <t>Psi s1 to2 g1 c4 a2 o6 t6</t>
         </is>
       </c>
       <c r="B177">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C177">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D177">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E177">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -4621,20 +4621,20 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a4 o8 t8</t>
+          <t>Psi s1 to2 g1 c4 a3 o7 t7</t>
         </is>
       </c>
       <c r="B178">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C178">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D178">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E178">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -4645,20 +4645,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a5 o9 t9</t>
+          <t>Psi s1 to2 g1 c4 a4 o8 t8</t>
         </is>
       </c>
       <c r="B179">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C179">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D179">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E179">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -4669,20 +4669,20 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a6 o10 t10</t>
+          <t>Psi s1 to2 g1 c4 a5 o9 t9</t>
         </is>
       </c>
       <c r="B180">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C180">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D180">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E180">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -4693,20 +4693,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a7 o11 t11</t>
+          <t>Psi s1 to2 g1 c4 a6 o10 t10</t>
         </is>
       </c>
       <c r="B181">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C181">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D181">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E181">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -4717,20 +4717,20 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a8 o12 t12</t>
+          <t>Psi s1 to2 g1 c4 a7 o11 t11</t>
         </is>
       </c>
       <c r="B182">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C182">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D182">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E182">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -4741,20 +4741,20 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a9 o13 t13</t>
+          <t>Psi s1 to2 g1 c4 a8 o12 t12</t>
         </is>
       </c>
       <c r="B183">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C183">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D183">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E183">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -4765,20 +4765,20 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a10 o14 t14</t>
+          <t>Psi s1 to2 g1 c4 a9 o13 t13</t>
         </is>
       </c>
       <c r="B184">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C184">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D184">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E184">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -4789,20 +4789,20 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a11 o15 t15</t>
+          <t>Psi s1 to2 g1 c4 a10 o14 t14</t>
         </is>
       </c>
       <c r="B185">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C185">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D185">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E185">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -4813,20 +4813,20 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a12 o16 t16</t>
+          <t>Psi s1 to2 g1 c4 a11 o15 t15</t>
         </is>
       </c>
       <c r="B186">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C186">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D186">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E186">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -4837,20 +4837,20 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a13 o17 t17</t>
+          <t>Psi s1 to2 g1 c4 a12 o16 t16</t>
         </is>
       </c>
       <c r="B187">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C187">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D187">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E187">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -4861,20 +4861,20 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a14 o18 t18</t>
+          <t>Psi s1 to2 g1 c4 a13 o17 t17</t>
         </is>
       </c>
       <c r="B188">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C188">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D188">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E188">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -4885,20 +4885,20 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a15 o19 t19</t>
+          <t>Psi s1 to2 g1 c4 a14 o18 t18</t>
         </is>
       </c>
       <c r="B189">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C189">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D189">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E189">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -4909,20 +4909,20 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a16 o20 t20</t>
+          <t>Psi s1 to2 g1 c4 a15 o19 t19</t>
         </is>
       </c>
       <c r="B190">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C190">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D190">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E190">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -4933,20 +4933,20 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a17 o21 t21</t>
+          <t>Psi s1 to2 g1 c4 a16 o20 t20</t>
         </is>
       </c>
       <c r="B191">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C191">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D191">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E191">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -4957,20 +4957,20 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a18 o22 t22</t>
+          <t>Psi s1 to2 g1 c4 a17 o21 t21</t>
         </is>
       </c>
       <c r="B192">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C192">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D192">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E192">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -4981,20 +4981,20 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a0 o5 t5</t>
+          <t>Psi s1 to2 g1 c4 a18 o22 t22</t>
         </is>
       </c>
       <c r="B193">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C193">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D193">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E193">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5005,20 +5005,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a1 o6 t6</t>
+          <t>Psi s1 to2 g1 c5 a0 o5 t5</t>
         </is>
       </c>
       <c r="B194">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C194">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D194">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E194">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -5029,20 +5029,20 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a2 o7 t7</t>
+          <t>Psi s1 to2 g1 c5 a1 o6 t6</t>
         </is>
       </c>
       <c r="B195">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C195">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D195">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E195">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -5053,20 +5053,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a3 o8 t8</t>
+          <t>Psi s1 to2 g1 c5 a2 o7 t7</t>
         </is>
       </c>
       <c r="B196">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C196">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D196">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E196">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -5077,20 +5077,20 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a4 o9 t9</t>
+          <t>Psi s1 to2 g1 c5 a3 o8 t8</t>
         </is>
       </c>
       <c r="B197">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C197">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D197">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E197">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -5101,20 +5101,20 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a5 o10 t10</t>
+          <t>Psi s1 to2 g1 c5 a4 o9 t9</t>
         </is>
       </c>
       <c r="B198">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C198">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D198">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E198">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -5125,20 +5125,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a6 o11 t11</t>
+          <t>Psi s1 to2 g1 c5 a5 o10 t10</t>
         </is>
       </c>
       <c r="B199">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C199">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D199">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E199">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -5149,20 +5149,20 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a7 o12 t12</t>
+          <t>Psi s1 to2 g1 c5 a6 o11 t11</t>
         </is>
       </c>
       <c r="B200">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C200">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D200">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E200">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -5173,20 +5173,20 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a8 o13 t13</t>
+          <t>Psi s1 to2 g1 c5 a7 o12 t12</t>
         </is>
       </c>
       <c r="B201">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C201">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D201">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E201">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -5197,20 +5197,20 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a9 o14 t14</t>
+          <t>Psi s1 to2 g1 c5 a8 o13 t13</t>
         </is>
       </c>
       <c r="B202">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C202">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D202">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E202">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -5221,20 +5221,20 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a10 o15 t15</t>
+          <t>Psi s1 to2 g1 c5 a9 o14 t14</t>
         </is>
       </c>
       <c r="B203">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C203">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D203">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E203">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -5245,20 +5245,20 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a11 o16 t16</t>
+          <t>Psi s1 to2 g1 c5 a10 o15 t15</t>
         </is>
       </c>
       <c r="B204">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C204">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D204">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E204">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -5269,20 +5269,20 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a12 o17 t17</t>
+          <t>Psi s1 to2 g1 c5 a11 o16 t16</t>
         </is>
       </c>
       <c r="B205">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C205">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D205">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E205">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -5293,20 +5293,20 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a13 o18 t18</t>
+          <t>Psi s1 to2 g1 c5 a12 o17 t17</t>
         </is>
       </c>
       <c r="B206">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C206">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D206">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E206">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -5317,20 +5317,20 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a14 o19 t19</t>
+          <t>Psi s1 to2 g1 c5 a13 o18 t18</t>
         </is>
       </c>
       <c r="B207">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C207">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D207">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E207">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -5341,20 +5341,20 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a15 o20 t20</t>
+          <t>Psi s1 to2 g1 c5 a14 o19 t19</t>
         </is>
       </c>
       <c r="B208">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C208">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D208">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E208">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -5365,20 +5365,20 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a16 o21 t21</t>
+          <t>Psi s1 to2 g1 c5 a15 o20 t20</t>
         </is>
       </c>
       <c r="B209">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C209">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D209">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E209">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -5389,20 +5389,20 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a17 o22 t22</t>
+          <t>Psi s1 to2 g1 c5 a16 o21 t21</t>
         </is>
       </c>
       <c r="B210">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C210">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D210">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E210">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -5413,20 +5413,20 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a0 o6 t6</t>
+          <t>Psi s1 to2 g1 c5 a17 o22 t22</t>
         </is>
       </c>
       <c r="B211">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C211">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D211">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E211">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -5437,20 +5437,20 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a1 o7 t7</t>
+          <t>Psi s1 to2 g1 c6 a0 o6 t6</t>
         </is>
       </c>
       <c r="B212">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C212">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D212">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E212">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -5461,20 +5461,20 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a2 o8 t8</t>
+          <t>Psi s1 to2 g1 c6 a1 o7 t7</t>
         </is>
       </c>
       <c r="B213">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C213">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D213">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E213">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -5485,20 +5485,20 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a3 o9 t9</t>
+          <t>Psi s1 to2 g1 c6 a2 o8 t8</t>
         </is>
       </c>
       <c r="B214">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C214">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D214">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E214">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -5509,20 +5509,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a4 o10 t10</t>
+          <t>Psi s1 to2 g1 c6 a3 o9 t9</t>
         </is>
       </c>
       <c r="B215">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C215">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D215">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E215">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -5533,20 +5533,20 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a5 o11 t11</t>
+          <t>Psi s1 to2 g1 c6 a4 o10 t10</t>
         </is>
       </c>
       <c r="B216">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C216">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D216">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E216">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -5557,20 +5557,20 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a6 o12 t12</t>
+          <t>Psi s1 to2 g1 c6 a5 o11 t11</t>
         </is>
       </c>
       <c r="B217">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C217">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D217">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E217">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -5581,20 +5581,20 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a7 o13 t13</t>
+          <t>Psi s1 to2 g1 c6 a6 o12 t12</t>
         </is>
       </c>
       <c r="B218">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C218">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D218">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E218">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -5605,20 +5605,20 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a8 o14 t14</t>
+          <t>Psi s1 to2 g1 c6 a7 o13 t13</t>
         </is>
       </c>
       <c r="B219">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C219">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D219">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E219">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -5629,20 +5629,20 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a9 o15 t15</t>
+          <t>Psi s1 to2 g1 c6 a8 o14 t14</t>
         </is>
       </c>
       <c r="B220">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C220">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D220">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E220">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -5653,20 +5653,20 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a10 o16 t16</t>
+          <t>Psi s1 to2 g1 c6 a9 o15 t15</t>
         </is>
       </c>
       <c r="B221">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C221">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D221">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E221">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -5677,20 +5677,20 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a11 o17 t17</t>
+          <t>Psi s1 to2 g1 c6 a10 o16 t16</t>
         </is>
       </c>
       <c r="B222">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C222">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D222">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E222">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -5701,20 +5701,20 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a12 o18 t18</t>
+          <t>Psi s1 to2 g1 c6 a11 o17 t17</t>
         </is>
       </c>
       <c r="B223">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C223">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D223">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E223">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -5725,20 +5725,20 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a13 o19 t19</t>
+          <t>Psi s1 to2 g1 c6 a12 o18 t18</t>
         </is>
       </c>
       <c r="B224">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C224">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D224">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E224">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -5749,20 +5749,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a14 o20 t20</t>
+          <t>Psi s1 to2 g1 c6 a13 o19 t19</t>
         </is>
       </c>
       <c r="B225">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C225">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D225">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E225">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -5773,20 +5773,20 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a15 o21 t21</t>
+          <t>Psi s1 to2 g1 c6 a14 o20 t20</t>
         </is>
       </c>
       <c r="B226">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C226">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D226">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E226">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -5797,20 +5797,20 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a16 o22 t22</t>
+          <t>Psi s1 to2 g1 c6 a15 o21 t21</t>
         </is>
       </c>
       <c r="B227">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C227">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D227">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E227">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -5821,20 +5821,20 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a0 o7 t7</t>
+          <t>Psi s1 to2 g1 c6 a16 o22 t22</t>
         </is>
       </c>
       <c r="B228">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C228">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D228">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E228">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -5845,20 +5845,20 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a1 o8 t8</t>
+          <t>Psi s1 to2 g1 c7 a0 o7 t7</t>
         </is>
       </c>
       <c r="B229">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C229">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D229">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E229">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -5869,20 +5869,20 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a2 o9 t9</t>
+          <t>Psi s1 to2 g1 c7 a1 o8 t8</t>
         </is>
       </c>
       <c r="B230">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C230">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D230">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E230">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -5893,20 +5893,20 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a3 o10 t10</t>
+          <t>Psi s1 to2 g1 c7 a2 o9 t9</t>
         </is>
       </c>
       <c r="B231">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C231">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D231">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E231">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -5917,20 +5917,20 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a4 o11 t11</t>
+          <t>Psi s1 to2 g1 c7 a3 o10 t10</t>
         </is>
       </c>
       <c r="B232">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C232">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D232">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E232">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -5941,20 +5941,20 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a5 o12 t12</t>
+          <t>Psi s1 to2 g1 c7 a4 o11 t11</t>
         </is>
       </c>
       <c r="B233">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C233">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D233">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E233">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -5965,20 +5965,20 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a6 o13 t13</t>
+          <t>Psi s1 to2 g1 c7 a5 o12 t12</t>
         </is>
       </c>
       <c r="B234">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C234">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D234">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E234">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -5989,20 +5989,20 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a7 o14 t14</t>
+          <t>Psi s1 to2 g1 c7 a6 o13 t13</t>
         </is>
       </c>
       <c r="B235">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C235">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D235">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E235">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -6013,20 +6013,20 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a8 o15 t15</t>
+          <t>Psi s1 to2 g1 c7 a7 o14 t14</t>
         </is>
       </c>
       <c r="B236">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C236">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D236">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E236">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -6037,20 +6037,20 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a9 o16 t16</t>
+          <t>Psi s1 to2 g1 c7 a8 o15 t15</t>
         </is>
       </c>
       <c r="B237">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C237">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D237">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E237">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -6061,20 +6061,20 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a10 o17 t17</t>
+          <t>Psi s1 to2 g1 c7 a9 o16 t16</t>
         </is>
       </c>
       <c r="B238">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C238">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D238">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E238">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -6085,20 +6085,20 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a11 o18 t18</t>
+          <t>Psi s1 to2 g1 c7 a10 o17 t17</t>
         </is>
       </c>
       <c r="B239">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C239">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D239">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E239">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -6109,20 +6109,20 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a12 o19 t19</t>
+          <t>Psi s1 to2 g1 c7 a11 o18 t18</t>
         </is>
       </c>
       <c r="B240">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C240">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D240">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E240">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -6133,20 +6133,20 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a13 o20 t20</t>
+          <t>Psi s1 to2 g1 c7 a12 o19 t19</t>
         </is>
       </c>
       <c r="B241">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C241">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D241">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E241">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -6157,20 +6157,20 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a14 o21 t21</t>
+          <t>Psi s1 to2 g1 c7 a13 o20 t20</t>
         </is>
       </c>
       <c r="B242">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C242">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D242">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E242">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -6181,20 +6181,20 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a15 o22 t22</t>
+          <t>Psi s1 to2 g1 c7 a14 o21 t21</t>
         </is>
       </c>
       <c r="B243">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C243">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D243">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E243">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -6205,20 +6205,20 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a0 o8 t8</t>
+          <t>Psi s1 to2 g1 c7 a15 o22 t22</t>
         </is>
       </c>
       <c r="B244">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C244">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D244">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E244">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -6229,20 +6229,20 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a1 o9 t9</t>
+          <t>Psi s1 to2 g1 c8 a0 o8 t8</t>
         </is>
       </c>
       <c r="B245">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C245">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D245">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E245">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -6253,20 +6253,20 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a2 o10 t10</t>
+          <t>Psi s1 to2 g1 c8 a1 o9 t9</t>
         </is>
       </c>
       <c r="B246">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C246">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D246">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E246">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -6277,20 +6277,20 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a3 o11 t11</t>
+          <t>Psi s1 to2 g1 c8 a2 o10 t10</t>
         </is>
       </c>
       <c r="B247">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C247">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D247">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E247">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -6301,20 +6301,20 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a4 o12 t12</t>
+          <t>Psi s1 to2 g1 c8 a3 o11 t11</t>
         </is>
       </c>
       <c r="B248">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C248">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D248">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E248">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -6325,20 +6325,20 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a5 o13 t13</t>
+          <t>Psi s1 to2 g1 c8 a4 o12 t12</t>
         </is>
       </c>
       <c r="B249">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C249">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D249">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E249">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -6349,20 +6349,20 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a6 o14 t14</t>
+          <t>Psi s1 to2 g1 c8 a5 o13 t13</t>
         </is>
       </c>
       <c r="B250">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C250">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D250">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E250">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -6373,20 +6373,20 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a7 o15 t15</t>
+          <t>Psi s1 to2 g1 c8 a6 o14 t14</t>
         </is>
       </c>
       <c r="B251">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C251">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D251">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E251">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -6397,20 +6397,20 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a8 o16 t16</t>
+          <t>Psi s1 to2 g1 c8 a7 o15 t15</t>
         </is>
       </c>
       <c r="B252">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C252">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D252">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E252">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -6421,20 +6421,20 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a9 o17 t17</t>
+          <t>Psi s1 to2 g1 c8 a8 o16 t16</t>
         </is>
       </c>
       <c r="B253">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C253">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D253">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E253">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -6445,20 +6445,20 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a10 o18 t18</t>
+          <t>Psi s1 to2 g1 c8 a9 o17 t17</t>
         </is>
       </c>
       <c r="B254">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C254">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D254">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E254">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -6469,20 +6469,20 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a11 o19 t19</t>
+          <t>Psi s1 to2 g1 c8 a10 o18 t18</t>
         </is>
       </c>
       <c r="B255">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C255">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D255">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E255">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -6493,20 +6493,20 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a12 o20 t20</t>
+          <t>Psi s1 to2 g1 c8 a11 o19 t19</t>
         </is>
       </c>
       <c r="B256">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C256">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D256">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E256">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -6517,20 +6517,20 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a13 o21 t21</t>
+          <t>Psi s1 to2 g1 c8 a12 o20 t20</t>
         </is>
       </c>
       <c r="B257">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C257">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D257">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E257">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -6541,20 +6541,20 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a14 o22 t22</t>
+          <t>Psi s1 to2 g1 c8 a13 o21 t21</t>
         </is>
       </c>
       <c r="B258">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C258">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D258">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E258">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -6565,20 +6565,20 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a0 o9 t9</t>
+          <t>Psi s1 to2 g1 c8 a14 o22 t22</t>
         </is>
       </c>
       <c r="B259">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C259">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D259">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E259">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -6589,20 +6589,20 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a1 o10 t10</t>
+          <t>Psi s1 to2 g1 c9 a0 o9 t9</t>
         </is>
       </c>
       <c r="B260">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C260">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D260">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E260">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -6613,20 +6613,20 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a2 o11 t11</t>
+          <t>Psi s1 to2 g1 c9 a1 o10 t10</t>
         </is>
       </c>
       <c r="B261">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C261">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D261">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E261">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -6637,20 +6637,20 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a3 o12 t12</t>
+          <t>Psi s1 to2 g1 c9 a2 o11 t11</t>
         </is>
       </c>
       <c r="B262">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C262">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D262">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E262">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -6661,20 +6661,20 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a4 o13 t13</t>
+          <t>Psi s1 to2 g1 c9 a3 o12 t12</t>
         </is>
       </c>
       <c r="B263">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C263">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D263">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E263">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -6685,20 +6685,20 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a5 o14 t14</t>
+          <t>Psi s1 to2 g1 c9 a4 o13 t13</t>
         </is>
       </c>
       <c r="B264">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C264">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D264">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E264">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -6709,20 +6709,20 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a6 o15 t15</t>
+          <t>Psi s1 to2 g1 c9 a5 o14 t14</t>
         </is>
       </c>
       <c r="B265">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C265">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D265">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E265">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -6733,20 +6733,20 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a7 o16 t16</t>
+          <t>Psi s1 to2 g1 c9 a6 o15 t15</t>
         </is>
       </c>
       <c r="B266">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C266">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D266">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E266">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -6757,20 +6757,20 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a8 o17 t17</t>
+          <t>Psi s1 to2 g1 c9 a7 o16 t16</t>
         </is>
       </c>
       <c r="B267">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C267">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D267">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E267">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -6781,20 +6781,20 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a9 o18 t18</t>
+          <t>Psi s1 to2 g1 c9 a8 o17 t17</t>
         </is>
       </c>
       <c r="B268">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C268">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D268">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E268">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -6805,20 +6805,20 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a10 o19 t19</t>
+          <t>Psi s1 to2 g1 c9 a9 o18 t18</t>
         </is>
       </c>
       <c r="B269">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C269">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D269">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E269">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -6829,20 +6829,20 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a11 o20 t20</t>
+          <t>Psi s1 to2 g1 c9 a10 o19 t19</t>
         </is>
       </c>
       <c r="B270">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C270">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D270">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E270">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -6853,20 +6853,20 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a12 o21 t21</t>
+          <t>Psi s1 to2 g1 c9 a11 o20 t20</t>
         </is>
       </c>
       <c r="B271">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C271">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D271">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E271">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -6877,20 +6877,20 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a13 o22 t22</t>
+          <t>Psi s1 to2 g1 c9 a12 o21 t21</t>
         </is>
       </c>
       <c r="B272">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C272">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D272">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E272">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -6901,20 +6901,20 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a0 o10 t10</t>
+          <t>Psi s1 to2 g1 c9 a13 o22 t22</t>
         </is>
       </c>
       <c r="B273">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C273">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D273">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E273">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -6925,20 +6925,20 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a1 o11 t11</t>
+          <t>Psi s1 to2 g1 c10 a0 o10 t10</t>
         </is>
       </c>
       <c r="B274">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C274">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D274">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E274">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -6949,20 +6949,20 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a2 o12 t12</t>
+          <t>Psi s1 to2 g1 c10 a1 o11 t11</t>
         </is>
       </c>
       <c r="B275">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C275">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D275">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E275">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -6973,20 +6973,20 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a3 o13 t13</t>
+          <t>Psi s1 to2 g1 c10 a2 o12 t12</t>
         </is>
       </c>
       <c r="B276">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C276">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D276">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E276">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -6997,20 +6997,20 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a4 o14 t14</t>
+          <t>Psi s1 to2 g1 c10 a3 o13 t13</t>
         </is>
       </c>
       <c r="B277">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C277">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D277">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E277">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -7021,20 +7021,20 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a5 o15 t15</t>
+          <t>Psi s1 to2 g1 c10 a4 o14 t14</t>
         </is>
       </c>
       <c r="B278">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C278">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D278">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E278">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -7045,20 +7045,20 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a6 o16 t16</t>
+          <t>Psi s1 to2 g1 c10 a5 o15 t15</t>
         </is>
       </c>
       <c r="B279">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C279">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D279">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E279">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -7069,20 +7069,20 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a7 o17 t17</t>
+          <t>Psi s1 to2 g1 c10 a6 o16 t16</t>
         </is>
       </c>
       <c r="B280">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C280">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D280">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E280">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -7093,20 +7093,20 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a8 o18 t18</t>
+          <t>Psi s1 to2 g1 c10 a7 o17 t17</t>
         </is>
       </c>
       <c r="B281">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C281">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D281">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E281">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -7117,20 +7117,20 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a9 o19 t19</t>
+          <t>Psi s1 to2 g1 c10 a8 o18 t18</t>
         </is>
       </c>
       <c r="B282">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C282">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D282">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E282">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -7141,20 +7141,20 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a10 o20 t20</t>
+          <t>Psi s1 to2 g1 c10 a9 o19 t19</t>
         </is>
       </c>
       <c r="B283">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C283">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D283">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E283">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -7165,20 +7165,20 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a11 o21 t21</t>
+          <t>Psi s1 to2 g1 c10 a10 o20 t20</t>
         </is>
       </c>
       <c r="B284">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C284">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D284">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E284">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -7189,20 +7189,20 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a12 o22 t22</t>
+          <t>Psi s1 to2 g1 c10 a11 o21 t21</t>
         </is>
       </c>
       <c r="B285">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C285">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D285">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E285">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -7213,20 +7213,20 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a0 o11 t11</t>
+          <t>Psi s1 to2 g1 c10 a12 o22 t22</t>
         </is>
       </c>
       <c r="B286">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C286">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D286">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E286">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -7237,20 +7237,20 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a1 o12 t12</t>
+          <t>Psi s1 to2 g1 c11 a0 o11 t11</t>
         </is>
       </c>
       <c r="B287">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C287">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D287">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E287">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -7261,20 +7261,20 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a2 o13 t13</t>
+          <t>Psi s1 to2 g1 c11 a1 o12 t12</t>
         </is>
       </c>
       <c r="B288">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C288">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D288">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E288">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -7285,20 +7285,20 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a3 o14 t14</t>
+          <t>Psi s1 to2 g1 c11 a2 o13 t13</t>
         </is>
       </c>
       <c r="B289">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C289">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D289">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E289">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -7309,20 +7309,20 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a4 o15 t15</t>
+          <t>Psi s1 to2 g1 c11 a3 o14 t14</t>
         </is>
       </c>
       <c r="B290">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C290">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D290">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E290">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -7333,20 +7333,20 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a5 o16 t16</t>
+          <t>Psi s1 to2 g1 c11 a4 o15 t15</t>
         </is>
       </c>
       <c r="B291">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C291">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D291">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E291">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -7357,20 +7357,20 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a6 o17 t17</t>
+          <t>Psi s1 to2 g1 c11 a5 o16 t16</t>
         </is>
       </c>
       <c r="B292">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C292">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D292">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E292">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -7381,20 +7381,20 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a7 o18 t18</t>
+          <t>Psi s1 to2 g1 c11 a6 o17 t17</t>
         </is>
       </c>
       <c r="B293">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C293">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D293">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E293">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -7405,20 +7405,20 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a8 o19 t19</t>
+          <t>Psi s1 to2 g1 c11 a7 o18 t18</t>
         </is>
       </c>
       <c r="B294">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C294">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D294">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E294">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -7429,20 +7429,20 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a9 o20 t20</t>
+          <t>Psi s1 to2 g1 c11 a8 o19 t19</t>
         </is>
       </c>
       <c r="B295">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C295">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D295">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E295">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -7453,20 +7453,20 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a10 o21 t21</t>
+          <t>Psi s1 to2 g1 c11 a9 o20 t20</t>
         </is>
       </c>
       <c r="B296">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C296">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D296">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E296">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -7477,20 +7477,20 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a11 o22 t22</t>
+          <t>Psi s1 to2 g1 c11 a10 o21 t21</t>
         </is>
       </c>
       <c r="B297">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C297">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D297">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E297">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -7501,20 +7501,20 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a0 o12 t12</t>
+          <t>Psi s1 to2 g1 c11 a11 o22 t22</t>
         </is>
       </c>
       <c r="B298">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C298">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D298">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E298">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -7525,20 +7525,20 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a1 o13 t13</t>
+          <t>Psi s1 to2 g1 c12 a0 o12 t12</t>
         </is>
       </c>
       <c r="B299">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C299">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D299">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E299">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -7549,20 +7549,20 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a2 o14 t14</t>
+          <t>Psi s1 to2 g1 c12 a1 o13 t13</t>
         </is>
       </c>
       <c r="B300">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C300">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D300">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E300">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -7573,20 +7573,20 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a3 o15 t15</t>
+          <t>Psi s1 to2 g1 c12 a2 o14 t14</t>
         </is>
       </c>
       <c r="B301">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C301">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D301">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E301">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -7597,20 +7597,20 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a4 o16 t16</t>
+          <t>Psi s1 to2 g1 c12 a3 o15 t15</t>
         </is>
       </c>
       <c r="B302">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C302">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D302">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E302">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -7621,20 +7621,20 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a5 o17 t17</t>
+          <t>Psi s1 to2 g1 c12 a4 o16 t16</t>
         </is>
       </c>
       <c r="B303">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C303">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D303">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E303">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -7645,20 +7645,20 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a6 o18 t18</t>
+          <t>Psi s1 to2 g1 c12 a5 o17 t17</t>
         </is>
       </c>
       <c r="B304">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C304">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D304">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E304">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -7669,20 +7669,20 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a7 o19 t19</t>
+          <t>Psi s1 to2 g1 c12 a6 o18 t18</t>
         </is>
       </c>
       <c r="B305">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C305">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D305">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E305">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -7693,20 +7693,20 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a8 o20 t20</t>
+          <t>Psi s1 to2 g1 c12 a7 o19 t19</t>
         </is>
       </c>
       <c r="B306">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C306">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D306">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E306">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -7717,20 +7717,20 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a9 o21 t21</t>
+          <t>Psi s1 to2 g1 c12 a8 o20 t20</t>
         </is>
       </c>
       <c r="B307">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C307">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D307">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E307">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -7741,20 +7741,20 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a10 o22 t22</t>
+          <t>Psi s1 to2 g1 c12 a9 o21 t21</t>
         </is>
       </c>
       <c r="B308">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C308">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D308">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E308">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -7765,20 +7765,20 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a0 o13 t13</t>
+          <t>Psi s1 to2 g1 c12 a10 o22 t22</t>
         </is>
       </c>
       <c r="B309">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C309">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D309">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E309">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -7789,20 +7789,20 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a1 o14 t14</t>
+          <t>Psi s1 to2 g1 c13 a0 o13 t13</t>
         </is>
       </c>
       <c r="B310">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C310">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D310">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E310">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -7813,20 +7813,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a2 o15 t15</t>
+          <t>Psi s1 to2 g1 c13 a1 o14 t14</t>
         </is>
       </c>
       <c r="B311">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C311">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D311">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E311">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -7837,20 +7837,20 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a3 o16 t16</t>
+          <t>Psi s1 to2 g1 c13 a2 o15 t15</t>
         </is>
       </c>
       <c r="B312">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C312">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D312">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E312">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -7861,20 +7861,20 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a4 o17 t17</t>
+          <t>Psi s1 to2 g1 c13 a3 o16 t16</t>
         </is>
       </c>
       <c r="B313">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C313">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D313">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E313">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -7885,20 +7885,20 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a5 o18 t18</t>
+          <t>Psi s1 to2 g1 c13 a4 o17 t17</t>
         </is>
       </c>
       <c r="B314">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C314">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D314">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E314">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -7909,20 +7909,20 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a6 o19 t19</t>
+          <t>Psi s1 to2 g1 c13 a5 o18 t18</t>
         </is>
       </c>
       <c r="B315">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C315">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D315">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E315">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -7933,20 +7933,20 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a7 o20 t20</t>
+          <t>Psi s1 to2 g1 c13 a6 o19 t19</t>
         </is>
       </c>
       <c r="B316">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C316">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D316">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E316">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -7957,20 +7957,20 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a8 o21 t21</t>
+          <t>Psi s1 to2 g1 c13 a7 o20 t20</t>
         </is>
       </c>
       <c r="B317">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C317">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D317">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E317">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -7981,20 +7981,20 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a9 o22 t22</t>
+          <t>Psi s1 to2 g1 c13 a8 o21 t21</t>
         </is>
       </c>
       <c r="B318">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C318">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D318">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E318">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -8005,20 +8005,20 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a0 o14 t14</t>
+          <t>Psi s1 to2 g1 c13 a9 o22 t22</t>
         </is>
       </c>
       <c r="B319">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C319">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D319">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E319">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -8029,20 +8029,20 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a1 o15 t15</t>
+          <t>Psi s1 to2 g1 c14 a0 o14 t14</t>
         </is>
       </c>
       <c r="B320">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C320">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D320">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E320">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -8053,20 +8053,20 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a2 o16 t16</t>
+          <t>Psi s1 to2 g1 c14 a1 o15 t15</t>
         </is>
       </c>
       <c r="B321">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C321">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D321">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E321">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -8077,20 +8077,20 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a3 o17 t17</t>
+          <t>Psi s1 to2 g1 c14 a2 o16 t16</t>
         </is>
       </c>
       <c r="B322">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C322">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D322">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E322">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -8101,20 +8101,20 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a4 o18 t18</t>
+          <t>Psi s1 to2 g1 c14 a3 o17 t17</t>
         </is>
       </c>
       <c r="B323">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C323">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D323">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E323">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -8125,20 +8125,20 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a5 o19 t19</t>
+          <t>Psi s1 to2 g1 c14 a4 o18 t18</t>
         </is>
       </c>
       <c r="B324">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C324">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D324">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E324">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -8149,20 +8149,20 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a6 o20 t20</t>
+          <t>Psi s1 to2 g1 c14 a5 o19 t19</t>
         </is>
       </c>
       <c r="B325">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C325">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D325">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E325">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -8173,20 +8173,20 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a7 o21 t21</t>
+          <t>Psi s1 to2 g1 c14 a6 o20 t20</t>
         </is>
       </c>
       <c r="B326">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C326">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D326">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E326">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -8197,20 +8197,20 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a8 o22 t22</t>
+          <t>Psi s1 to2 g1 c14 a7 o21 t21</t>
         </is>
       </c>
       <c r="B327">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C327">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D327">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E327">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -8221,20 +8221,20 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a0 o15 t15</t>
+          <t>Psi s1 to2 g1 c14 a8 o22 t22</t>
         </is>
       </c>
       <c r="B328">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C328">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D328">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E328">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -8245,20 +8245,20 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a1 o16 t16</t>
+          <t>Psi s1 to2 g1 c15 a0 o15 t15</t>
         </is>
       </c>
       <c r="B329">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C329">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D329">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E329">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -8269,20 +8269,20 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a2 o17 t17</t>
+          <t>Psi s1 to2 g1 c15 a1 o16 t16</t>
         </is>
       </c>
       <c r="B330">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C330">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D330">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E330">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -8293,20 +8293,20 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a3 o18 t18</t>
+          <t>Psi s1 to2 g1 c15 a2 o17 t17</t>
         </is>
       </c>
       <c r="B331">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C331">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D331">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E331">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -8317,20 +8317,20 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a4 o19 t19</t>
+          <t>Psi s1 to2 g1 c15 a3 o18 t18</t>
         </is>
       </c>
       <c r="B332">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C332">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D332">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E332">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -8341,20 +8341,20 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a5 o20 t20</t>
+          <t>Psi s1 to2 g1 c15 a4 o19 t19</t>
         </is>
       </c>
       <c r="B333">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C333">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D333">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E333">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -8365,20 +8365,20 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a6 o21 t21</t>
+          <t>Psi s1 to2 g1 c15 a5 o20 t20</t>
         </is>
       </c>
       <c r="B334">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C334">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D334">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E334">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -8389,20 +8389,20 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a7 o22 t22</t>
+          <t>Psi s1 to2 g1 c15 a6 o21 t21</t>
         </is>
       </c>
       <c r="B335">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C335">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D335">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E335">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -8413,20 +8413,20 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a0 o16 t16</t>
+          <t>Psi s1 to2 g1 c15 a7 o22 t22</t>
         </is>
       </c>
       <c r="B336">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C336">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D336">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E336">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -8437,20 +8437,20 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a1 o17 t17</t>
+          <t>Psi s1 to2 g1 c16 a0 o16 t16</t>
         </is>
       </c>
       <c r="B337">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C337">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D337">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E337">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -8461,20 +8461,20 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a2 o18 t18</t>
+          <t>Psi s1 to2 g1 c16 a1 o17 t17</t>
         </is>
       </c>
       <c r="B338">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C338">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D338">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E338">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -8485,20 +8485,20 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a3 o19 t19</t>
+          <t>Psi s1 to2 g1 c16 a2 o18 t18</t>
         </is>
       </c>
       <c r="B339">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C339">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D339">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E339">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -8509,20 +8509,20 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a4 o20 t20</t>
+          <t>Psi s1 to2 g1 c16 a3 o19 t19</t>
         </is>
       </c>
       <c r="B340">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C340">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D340">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E340">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
@@ -8533,20 +8533,20 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a5 o21 t21</t>
+          <t>Psi s1 to2 g1 c16 a4 o20 t20</t>
         </is>
       </c>
       <c r="B341">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C341">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D341">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E341">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
@@ -8557,20 +8557,20 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a6 o22 t22</t>
+          <t>Psi s1 to2 g1 c16 a5 o21 t21</t>
         </is>
       </c>
       <c r="B342">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C342">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D342">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E342">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
@@ -8581,20 +8581,20 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c17 a0 o17 t17</t>
+          <t>Psi s1 to2 g1 c16 a6 o22 t22</t>
         </is>
       </c>
       <c r="B343">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C343">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D343">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E343">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
@@ -8605,20 +8605,20 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c17 a1 o18 t18</t>
+          <t>Psi s1 to2 g1 c17 a0 o17 t17</t>
         </is>
       </c>
       <c r="B344">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C344">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D344">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E344">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
@@ -8629,20 +8629,20 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c17 a2 o19 t19</t>
+          <t>Psi s1 to2 g1 c17 a1 o18 t18</t>
         </is>
       </c>
       <c r="B345">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C345">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D345">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E345">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
@@ -8653,20 +8653,20 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c17 a3 o20 t20</t>
+          <t>Psi s1 to2 g1 c17 a2 o19 t19</t>
         </is>
       </c>
       <c r="B346">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C346">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D346">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E346">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -8677,20 +8677,20 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c17 a4 o21 t21</t>
+          <t>Psi s1 to2 g1 c17 a3 o20 t20</t>
         </is>
       </c>
       <c r="B347">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C347">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D347">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E347">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -8701,20 +8701,20 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c17 a5 o22 t22</t>
+          <t>Psi s1 to2 g1 c17 a4 o21 t21</t>
         </is>
       </c>
       <c r="B348">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C348">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D348">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E348">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -8725,20 +8725,20 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c18 a0 o18 t18</t>
+          <t>Psi s1 to2 g1 c17 a5 o22 t22</t>
         </is>
       </c>
       <c r="B349">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C349">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D349">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E349">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -8749,20 +8749,20 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c18 a1 o19 t19</t>
+          <t>Psi s1 to2 g1 c18 a0 o18 t18</t>
         </is>
       </c>
       <c r="B350">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C350">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D350">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E350">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -8773,20 +8773,20 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c18 a2 o20 t20</t>
+          <t>Psi s1 to2 g1 c18 a1 o19 t19</t>
         </is>
       </c>
       <c r="B351">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C351">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D351">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E351">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -8797,20 +8797,20 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c18 a3 o21 t21</t>
+          <t>Psi s1 to2 g1 c18 a2 o20 t20</t>
         </is>
       </c>
       <c r="B352">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C352">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D352">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E352">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
@@ -8821,20 +8821,20 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c18 a4 o22 t22</t>
+          <t>Psi s1 to2 g1 c18 a3 o21 t21</t>
         </is>
       </c>
       <c r="B353">
-        <v>0.1412995</v>
+        <v>0.1836974</v>
       </c>
       <c r="C353">
-        <v>0.051066</v>
+        <v>0.0486158</v>
       </c>
       <c r="D353">
-        <v>0.0672671</v>
+        <v>0.1065056</v>
       </c>
       <c r="E353">
-        <v>0.2729651</v>
+        <v>0.2981657</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -8845,20 +8845,20 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c19 a0 o19 t19</t>
+          <t>Psi s1 to2 g1 c18 a4 o22 t22</t>
         </is>
       </c>
       <c r="B354">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C354">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D354">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E354">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -8869,20 +8869,20 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c19 a1 o20 t20</t>
+          <t>Psi s1 to2 g1 c19 a0 o19 t19</t>
         </is>
       </c>
       <c r="B355">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C355">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D355">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E355">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -8893,20 +8893,20 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c19 a2 o21 t21</t>
+          <t>Psi s1 to2 g1 c19 a1 o20 t20</t>
         </is>
       </c>
       <c r="B356">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C356">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D356">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E356">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -8917,20 +8917,20 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c19 a3 o22 t22</t>
+          <t>Psi s1 to2 g1 c19 a2 o21 t21</t>
         </is>
       </c>
       <c r="B357">
-        <v>0.2301323</v>
+        <v>0.3011844</v>
       </c>
       <c r="C357">
-        <v>0.0833187</v>
+        <v>0.071307</v>
       </c>
       <c r="D357">
-        <v>0.1062818</v>
+        <v>0.1815765</v>
       </c>
       <c r="E357">
-        <v>0.4290245</v>
+        <v>0.4557098</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -8941,20 +8941,20 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c20 a0 o20 t20</t>
+          <t>Psi s1 to2 g1 c19 a3 o22 t22</t>
         </is>
       </c>
       <c r="B358">
-        <v>0.1658845</v>
+        <v>0.1836974</v>
       </c>
       <c r="C358">
-        <v>0.0231061</v>
+        <v>0.0486158</v>
       </c>
       <c r="D358">
-        <v>0.1253862</v>
+        <v>0.1065056</v>
       </c>
       <c r="E358">
-        <v>0.2162295</v>
+        <v>0.2981657</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -8965,20 +8965,20 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c20 a1 o21 t21</t>
+          <t>Psi s1 to2 g1 c20 a0 o20 t20</t>
         </is>
       </c>
       <c r="B359">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C359">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D359">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E359">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -8989,20 +8989,20 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c20 a2 o22 t22</t>
+          <t>Psi s1 to2 g1 c20 a1 o21 t21</t>
         </is>
       </c>
       <c r="B360">
-        <v>0.3304046</v>
+        <v>0.339339</v>
       </c>
       <c r="C360">
-        <v>0.07104199999999999</v>
+        <v>0.0538017</v>
       </c>
       <c r="D360">
-        <v>0.2082123</v>
+        <v>0.242943</v>
       </c>
       <c r="E360">
-        <v>0.4807655</v>
+        <v>0.4511883</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -9013,20 +9013,20 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c21 a0 o21 t21</t>
+          <t>Psi s1 to2 g1 c20 a2 o22 t22</t>
         </is>
       </c>
       <c r="B361">
-        <v>0.1658845</v>
+        <v>0.3011844</v>
       </c>
       <c r="C361">
-        <v>0.0231061</v>
+        <v>0.071307</v>
       </c>
       <c r="D361">
-        <v>0.1253862</v>
+        <v>0.1815765</v>
       </c>
       <c r="E361">
-        <v>0.2162295</v>
+        <v>0.4557098</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -9037,20 +9037,20 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c21 a1 o22 t22</t>
+          <t>Psi s1 to2 g1 c21 a0 o21 t21</t>
         </is>
       </c>
       <c r="B362">
-        <v>0.1658845</v>
+        <v>0.1202299</v>
       </c>
       <c r="C362">
-        <v>0.0231061</v>
+        <v>0.0263365</v>
       </c>
       <c r="D362">
-        <v>0.1253862</v>
+        <v>0.0773958</v>
       </c>
       <c r="E362">
-        <v>0.2162295</v>
+        <v>0.1820915</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -9061,22 +9061,46 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
+          <t>Psi s1 to2 g1 c21 a1 o22 t22</t>
+        </is>
+      </c>
+      <c r="B363">
+        <v>0.339339</v>
+      </c>
+      <c r="C363">
+        <v>0.0538017</v>
+      </c>
+      <c r="D363">
+        <v>0.242943</v>
+      </c>
+      <c r="E363">
+        <v>0.4511883</v>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
           <t>Psi s1 to2 g1 c22 a0 o22 t22</t>
         </is>
       </c>
-      <c r="B363">
-        <v>0.1658845</v>
-      </c>
-      <c r="C363">
-        <v>0.0231061</v>
-      </c>
-      <c r="D363">
-        <v>0.1253862</v>
-      </c>
-      <c r="E363">
-        <v>0.2162295</v>
-      </c>
-      <c r="F363" t="inlineStr">
+      <c r="B364">
+        <v>0.1202299</v>
+      </c>
+      <c r="C364">
+        <v>0.0263365</v>
+      </c>
+      <c r="D364">
+        <v>0.0773958</v>
+      </c>
+      <c r="E364">
+        <v>0.1820915</v>
+      </c>
+      <c r="F364" t="inlineStr">
         <is>
           <t xml:space="preserve">     </t>
         </is>
